--- a/Cephei.XL/Bond.xlsx
+++ b/Cephei.XL/Bond.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC0839-7F0D-43DF-B74D-3AFF3C0FB0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40246D0D-DFA0-484D-A803-E3088401CCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="120" windowWidth="38380" windowHeight="20880" xr2:uid="{705D3C02-4429-4AA3-825B-DA6B36A5FD08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Yields">Table3[#All]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,15 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Length</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="15">
   <si>
     <t>coupon</t>
-  </si>
-  <si>
-    <t>Frequency</t>
   </si>
   <si>
     <t>Semiannual</t>
@@ -42,17 +39,47 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>Redemption</t>
+    <t>length</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>redemption</t>
+  </si>
+  <si>
+    <t>maturity</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Mature</t>
   </si>
   <si>
     <t>Yield</t>
+  </si>
+  <si>
+    <t>Flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +87,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,18 +132,275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{D15E52B1-AB35-4CB6-ADE9-075B6E9DE0C1}"/>
+    <cellStyle name="Normal_Sheet1_1" xfId="2" xr:uid="{1D4CC5AB-AC23-4A39-B0BE-B12A13842B7D}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -104,7 +416,16 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e41774416e3e43009f17f38e3d03cea8">
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>FreqSemiannual</v>
+        <stp/>
+        <stp>FreqSemiannual</stp>
+        <stp>2</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
       <tp t="s">
         <v>priceday</v>
         <stp/>
@@ -112,13 +433,6 @@
         <stp>172668224</stp>
         <tr r="A4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#VALUE!</v>
-        <stp/>
-        <stp>lds</stp>
-        <stp>-1186478011</stp>
-        <tr r="A6" s="1"/>
-      </tp>
       <tp t="s">
         <v>calendar</v>
         <stp/>
@@ -126,6 +440,892 @@
         <stp>0</stp>
         <tr r="A3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule98</v>
+        <stp/>
+        <stp>schedule98</stp>
+        <stp>-1318052029</stp>
+        <tr r="P99" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule99</v>
+        <stp/>
+        <stp>schedule99</stp>
+        <stp>-1318052029</stp>
+        <tr r="P100" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule92</v>
+        <stp/>
+        <stp>schedule92</stp>
+        <stp>-1318052029</stp>
+        <tr r="P93" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule93</v>
+        <stp/>
+        <stp>schedule93</stp>
+        <stp>-1318052029</stp>
+        <tr r="P94" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule91</v>
+        <stp/>
+        <stp>schedule91</stp>
+        <stp>-1318052029</stp>
+        <tr r="P92" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule96</v>
+        <stp/>
+        <stp>schedule96</stp>
+        <stp>-1318052029</stp>
+        <tr r="P97" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule97</v>
+        <stp/>
+        <stp>schedule97</stp>
+        <stp>-1318052029</stp>
+        <tr r="P98" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule94</v>
+        <stp/>
+        <stp>schedule94</stp>
+        <stp>-1318052029</stp>
+        <tr r="P95" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule95</v>
+        <stp/>
+        <stp>schedule95</stp>
+        <stp>-1318052029</stp>
+        <tr r="P96" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule42</v>
+        <stp/>
+        <stp>schedule42</stp>
+        <stp>-1318052029</stp>
+        <tr r="P43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule43</v>
+        <stp/>
+        <stp>schedule43</stp>
+        <stp>-1318052029</stp>
+        <tr r="P44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule40</v>
+        <stp/>
+        <stp>schedule40</stp>
+        <stp>-1318052029</stp>
+        <tr r="P41" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule41</v>
+        <stp/>
+        <stp>schedule41</stp>
+        <stp>-1318052029</stp>
+        <tr r="P42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule44</v>
+        <stp/>
+        <stp>schedule44</stp>
+        <stp>-1318052029</stp>
+        <tr r="P45" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule45</v>
+        <stp/>
+        <stp>schedule45</stp>
+        <stp>-1318052029</stp>
+        <tr r="P46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule72</v>
+        <stp/>
+        <stp>schedule72</stp>
+        <stp>-1318052029</stp>
+        <tr r="P73" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule73</v>
+        <stp/>
+        <stp>schedule73</stp>
+        <stp>-1318052029</stp>
+        <tr r="P74" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule70</v>
+        <stp/>
+        <stp>schedule70</stp>
+        <stp>-1318052029</stp>
+        <tr r="P71" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule71</v>
+        <stp/>
+        <stp>schedule71</stp>
+        <stp>-1318052029</stp>
+        <tr r="P72" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule74</v>
+        <stp/>
+        <stp>schedule74</stp>
+        <stp>-1318052029</stp>
+        <tr r="P75" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule75</v>
+        <stp/>
+        <stp>schedule75</stp>
+        <stp>-1318052029</stp>
+        <tr r="P76" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule68</v>
+        <stp/>
+        <stp>schedule68</stp>
+        <stp>-1318052029</stp>
+        <tr r="P69" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule69</v>
+        <stp/>
+        <stp>schedule69</stp>
+        <stp>-1318052029</stp>
+        <tr r="P70" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule62</v>
+        <stp/>
+        <stp>schedule62</stp>
+        <stp>-1318052029</stp>
+        <tr r="P63" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule63</v>
+        <stp/>
+        <stp>schedule63</stp>
+        <stp>-1318052029</stp>
+        <tr r="P64" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule61</v>
+        <stp/>
+        <stp>schedule61</stp>
+        <stp>-1318052029</stp>
+        <tr r="P62" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule66</v>
+        <stp/>
+        <stp>schedule66</stp>
+        <stp>-1318052029</stp>
+        <tr r="P67" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule67</v>
+        <stp/>
+        <stp>schedule67</stp>
+        <stp>-1318052029</stp>
+        <tr r="P68" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule64</v>
+        <stp/>
+        <stp>schedule64</stp>
+        <stp>-1318052029</stp>
+        <tr r="P65" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule65</v>
+        <stp/>
+        <stp>schedule65</stp>
+        <stp>-1318052029</stp>
+        <tr r="P66" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule12</v>
+        <stp/>
+        <stp>schedule12</stp>
+        <stp>-1318052029</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule13</v>
+        <stp/>
+        <stp>schedule13</stp>
+        <stp>-1318052029</stp>
+        <tr r="P14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule10</v>
+        <stp/>
+        <stp>schedule10</stp>
+        <stp>-1318052029</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule11</v>
+        <stp/>
+        <stp>schedule11</stp>
+        <stp>-1318052029</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule14</v>
+        <stp/>
+        <stp>schedule14</stp>
+        <stp>-1318052029</stp>
+        <tr r="P15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule15</v>
+        <stp/>
+        <stp>schedule15</stp>
+        <stp>-1318052029</stp>
+        <tr r="P16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule38</v>
+        <stp/>
+        <stp>schedule38</stp>
+        <stp>-1318052029</stp>
+        <tr r="P39" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule39</v>
+        <stp/>
+        <stp>schedule39</stp>
+        <stp>-1318052029</stp>
+        <tr r="P40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule32</v>
+        <stp/>
+        <stp>schedule32</stp>
+        <stp>-1318052029</stp>
+        <tr r="P33" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule33</v>
+        <stp/>
+        <stp>schedule33</stp>
+        <stp>-1318052029</stp>
+        <tr r="P34" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule31</v>
+        <stp/>
+        <stp>schedule31</stp>
+        <stp>-1318052029</stp>
+        <tr r="P32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule36</v>
+        <stp/>
+        <stp>schedule36</stp>
+        <stp>-1318052029</stp>
+        <tr r="P37" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule37</v>
+        <stp/>
+        <stp>schedule37</stp>
+        <stp>-1318052029</stp>
+        <tr r="P38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule34</v>
+        <stp/>
+        <stp>schedule34</stp>
+        <stp>-1318052029</stp>
+        <tr r="P35" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule35</v>
+        <stp/>
+        <stp>schedule35</stp>
+        <stp>-1318052029</stp>
+        <tr r="P36" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule60</v>
+        <stp/>
+        <stp>schedule60</stp>
+        <stp>292560707</stp>
+        <tr r="P61" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule50</v>
+        <stp/>
+        <stp>schedule50</stp>
+        <stp>292560707</stp>
+        <tr r="P51" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule30</v>
+        <stp/>
+        <stp>schedule30</stp>
+        <stp>292560707</stp>
+        <tr r="P31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule20</v>
+        <stp/>
+        <stp>schedule20</stp>
+        <stp>292560707</stp>
+        <tr r="P21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule90</v>
+        <stp/>
+        <stp>schedule90</stp>
+        <stp>292560707</stp>
+        <tr r="P91" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule80</v>
+        <stp/>
+        <stp>schedule80</stp>
+        <stp>292560707</stp>
+        <tr r="P81" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule51</v>
+        <stp/>
+        <stp>schedule51</stp>
+        <stp>292560707</stp>
+        <tr r="P52" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule21</v>
+        <stp/>
+        <stp>schedule21</stp>
+        <stp>292560707</stp>
+        <tr r="P22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule81</v>
+        <stp/>
+        <stp>schedule81</stp>
+        <stp>292560707</stp>
+        <tr r="P82" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule52</v>
+        <stp/>
+        <stp>schedule52</stp>
+        <stp>292560707</stp>
+        <tr r="P53" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule22</v>
+        <stp/>
+        <stp>schedule22</stp>
+        <stp>292560707</stp>
+        <tr r="P23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule82</v>
+        <stp/>
+        <stp>schedule82</stp>
+        <stp>292560707</stp>
+        <tr r="P83" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule53</v>
+        <stp/>
+        <stp>schedule53</stp>
+        <stp>292560707</stp>
+        <tr r="P54" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule23</v>
+        <stp/>
+        <stp>schedule23</stp>
+        <stp>292560707</stp>
+        <tr r="P24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule83</v>
+        <stp/>
+        <stp>schedule83</stp>
+        <stp>292560707</stp>
+        <tr r="P84" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule54</v>
+        <stp/>
+        <stp>schedule54</stp>
+        <stp>292560707</stp>
+        <tr r="P55" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule24</v>
+        <stp/>
+        <stp>schedule24</stp>
+        <stp>292560707</stp>
+        <tr r="P25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule84</v>
+        <stp/>
+        <stp>schedule84</stp>
+        <stp>292560707</stp>
+        <tr r="P85" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule55</v>
+        <stp/>
+        <stp>schedule55</stp>
+        <stp>292560707</stp>
+        <tr r="P56" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule25</v>
+        <stp/>
+        <stp>schedule25</stp>
+        <stp>292560707</stp>
+        <tr r="P26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule85</v>
+        <stp/>
+        <stp>schedule85</stp>
+        <stp>292560707</stp>
+        <tr r="P86" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>Mature20</v>
+        <stp/>
+        <stp>Mature20</stp>
+        <stp>-1245428976</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule76</v>
+        <stp/>
+        <stp>schedule76</stp>
+        <stp>292560707</stp>
+        <tr r="P77" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule56</v>
+        <stp/>
+        <stp>schedule56</stp>
+        <stp>292560707</stp>
+        <tr r="P57" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule46</v>
+        <stp/>
+        <stp>schedule46</stp>
+        <stp>292560707</stp>
+        <tr r="P47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule26</v>
+        <stp/>
+        <stp>schedule26</stp>
+        <stp>292560707</stp>
+        <tr r="P27" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule16</v>
+        <stp/>
+        <stp>schedule16</stp>
+        <stp>292560707</stp>
+        <tr r="P17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule86</v>
+        <stp/>
+        <stp>schedule86</stp>
+        <stp>292560707</stp>
+        <tr r="P87" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mature10</v>
+        <stp/>
+        <stp>Mature10</stp>
+        <stp>-1245338864</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule77</v>
+        <stp/>
+        <stp>schedule77</stp>
+        <stp>292560707</stp>
+        <tr r="P78" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule57</v>
+        <stp/>
+        <stp>schedule57</stp>
+        <stp>292560707</stp>
+        <tr r="P58" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule47</v>
+        <stp/>
+        <stp>schedule47</stp>
+        <stp>292560707</stp>
+        <tr r="P48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule27</v>
+        <stp/>
+        <stp>schedule27</stp>
+        <stp>292560707</stp>
+        <tr r="P28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule17</v>
+        <stp/>
+        <stp>schedule17</stp>
+        <stp>292560707</stp>
+        <tr r="P18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule87</v>
+        <stp/>
+        <stp>schedule87</stp>
+        <stp>292560707</stp>
+        <tr r="P88" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule78</v>
+        <stp/>
+        <stp>schedule78</stp>
+        <stp>292560707</stp>
+        <tr r="P79" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule58</v>
+        <stp/>
+        <stp>schedule58</stp>
+        <stp>292560707</stp>
+        <tr r="P59" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule48</v>
+        <stp/>
+        <stp>schedule48</stp>
+        <stp>292560707</stp>
+        <tr r="P49" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule28</v>
+        <stp/>
+        <stp>schedule28</stp>
+        <stp>292560707</stp>
+        <tr r="P29" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule18</v>
+        <stp/>
+        <stp>schedule18</stp>
+        <stp>292560707</stp>
+        <tr r="P19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule88</v>
+        <stp/>
+        <stp>schedule88</stp>
+        <stp>292560707</stp>
+        <tr r="P89" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule79</v>
+        <stp/>
+        <stp>schedule79</stp>
+        <stp>292560707</stp>
+        <tr r="P80" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule59</v>
+        <stp/>
+        <stp>schedule59</stp>
+        <stp>292560707</stp>
+        <tr r="P60" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule49</v>
+        <stp/>
+        <stp>schedule49</stp>
+        <stp>292560707</stp>
+        <tr r="P50" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule29</v>
+        <stp/>
+        <stp>schedule29</stp>
+        <stp>292560707</stp>
+        <tr r="P30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule19</v>
+        <stp/>
+        <stp>schedule19</stp>
+        <stp>292560707</stp>
+        <tr r="P20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule89</v>
+        <stp/>
+        <stp>schedule89</stp>
+        <stp>292560707</stp>
+        <tr r="P90" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mature15</v>
+        <stp/>
+        <stp>Mature15</stp>
+        <stp>-1245318384</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Yield0.05</v>
+        <stp/>
+        <stp>Yield0.05</stp>
+        <stp>-1506803709</stp>
+        <tr r="B25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>Yield0.06</v>
+        <stp/>
+        <stp>Yield0.06</stp>
+        <stp>-735336727</stp>
+        <tr r="B26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Yield0.03</v>
+        <stp/>
+        <stp>Yield0.03</stp>
+        <stp>-736385303</stp>
+        <tr r="B23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Yield0.04</v>
+        <stp/>
+        <stp>Yield0.04</stp>
+        <stp>2013949594</stp>
+        <tr r="B24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>Mature3</v>
+        <stp/>
+        <stp>Mature3</stp>
+        <stp>-1245367536</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>Mature5</v>
+        <stp/>
+        <stp>Mature5</stp>
+        <stp>-1245359344</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule103</v>
+        <stp/>
+        <stp>schedule103</stp>
+        <stp>-1318052029</stp>
+        <tr r="P104" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule102</v>
+        <stp/>
+        <stp>schedule102</stp>
+        <stp>-1318052029</stp>
+        <tr r="P103" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule101</v>
+        <stp/>
+        <stp>schedule101</stp>
+        <stp>-1318052029</stp>
+        <tr r="P102" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule100</v>
+        <stp/>
+        <stp>schedule100</stp>
+        <stp>-1318052029</stp>
+        <tr r="P101" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule105</v>
+        <stp/>
+        <stp>schedule105</stp>
+        <stp>-1318052029</stp>
+        <tr r="P106" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule104</v>
+        <stp/>
+        <stp>schedule104</stp>
+        <stp>-1318052029</stp>
+        <tr r="P105" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule109</v>
+        <stp/>
+        <stp>schedule109</stp>
+        <stp>292560707</stp>
+        <tr r="P110" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule119</v>
+        <stp/>
+        <stp>schedule119</stp>
+        <stp>292560707</stp>
+        <tr r="P120" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule108</v>
+        <stp/>
+        <stp>schedule108</stp>
+        <stp>292560707</stp>
+        <tr r="P109" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule118</v>
+        <stp/>
+        <stp>schedule118</stp>
+        <stp>292560707</stp>
+        <tr r="P119" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>FreqAnnual</v>
+        <stp/>
+        <stp>FreqAnnual</stp>
+        <stp>1</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule111</v>
+        <stp/>
+        <stp>schedule111</stp>
+        <stp>292560707</stp>
+        <tr r="P112" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule110</v>
+        <stp/>
+        <stp>schedule110</stp>
+        <stp>292560707</stp>
+        <tr r="P111" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule120</v>
+        <stp/>
+        <stp>schedule120</stp>
+        <stp>292560707</stp>
+        <tr r="P121" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule113</v>
+        <stp/>
+        <stp>schedule113</stp>
+        <stp>292560707</stp>
+        <tr r="P114" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule112</v>
+        <stp/>
+        <stp>schedule112</stp>
+        <stp>292560707</stp>
+        <tr r="P113" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>null</v>
+        <stp/>
+        <stp>null</stp>
+        <stp>0</stp>
+        <tr r="A9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule115</v>
+        <stp/>
+        <stp>schedule115</stp>
+        <stp>292560707</stp>
+        <tr r="P116" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule114</v>
+        <stp/>
+        <stp>schedule114</stp>
+        <stp>292560707</stp>
+        <tr r="P115" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule107</v>
+        <stp/>
+        <stp>schedule107</stp>
+        <stp>292560707</stp>
+        <tr r="P108" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule117</v>
+        <stp/>
+        <stp>schedule117</stp>
+        <stp>292560707</stp>
+        <tr r="P118" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule106</v>
+        <stp/>
+        <stp>schedule106</stp>
+        <stp>292560707</stp>
+        <tr r="P107" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule116</v>
+        <stp/>
+        <stp>schedule116</stp>
+        <stp>292560707</stp>
+        <tr r="P117" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
       <tp t="s">
         <v>clock</v>
         <stp/>
@@ -134,17 +1334,139 @@
         <tr r="A2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e41774416e3e43009f17f38e3d03cea8">
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
       <tp t="s">
         <v>Today</v>
         <stp/>
         <stp>Today</stp>
         <stp>0</stp>
-        <tr r="A2" s="1"/>
+        <tr r="A1" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.744f5a5b158d4a3880549a6d9cd0306a">
+      <tp t="s">
+        <v>schedule1</v>
+        <stp/>
+        <stp>schedule1</stp>
+        <stp>-1318052029</stp>
+        <tr r="P2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule3</v>
+        <stp/>
+        <stp>schedule3</stp>
+        <stp>-1318052029</stp>
+        <tr r="P4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule2</v>
+        <stp/>
+        <stp>schedule2</stp>
+        <stp>-1318052029</stp>
+        <tr r="P3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule5</v>
+        <stp/>
+        <stp>schedule5</stp>
+        <stp>-1318052029</stp>
+        <tr r="P6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule4</v>
+        <stp/>
+        <stp>schedule4</stp>
+        <stp>-1318052029</stp>
+        <tr r="P5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule7</v>
+        <stp/>
+        <stp>schedule7</stp>
+        <stp>-1318052029</stp>
+        <tr r="P8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule6</v>
+        <stp/>
+        <stp>schedule6</stp>
+        <stp>-1318052029</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule9</v>
+        <stp/>
+        <stp>schedule9</stp>
+        <stp>-1318052029</stp>
+        <tr r="P10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule8</v>
+        <stp/>
+        <stp>schedule8</stp>
+        <stp>-1318052029</stp>
+        <tr r="P9" s="1"/>
       </tp>
     </main>
   </volType>
 </volTypes>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD003CE7-FFA7-477C-A104-C200AC232856}" name="Table1" displayName="Table1" ref="A11:B16" totalsRowShown="0" dataDxfId="5" tableBorderDxfId="7" dataCellStyle="Normal_Sheet1_1">
+  <autoFilter ref="A11:B16" xr:uid="{391CE740-36F3-45AF-A337-C2FB784A7080}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E2E3A9A7-08AB-4DBE-B950-B107F4E37CAC}" name="Mature" dataDxfId="6" dataCellStyle="Normal_Sheet1_1"/>
+    <tableColumn id="2" xr3:uid="{6F45B979-0DCC-40F8-8268-75F3102E1843}" name="Handle" dataDxfId="3" dataCellStyle="Normal_Sheet1_1">
+      <calculatedColumnFormula>+_xll._TARGET_advance1($A$11&amp;A12,$A$3,$A$4,A12,"Years","ModifiedFollowing",FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCA24D45-1EA2-4874-B023-9E763AC0B008}" name="Table2" displayName="Table2" ref="A18:B20" totalsRowShown="0">
+  <autoFilter ref="A18:B20" xr:uid="{2319C595-5DDE-420C-952D-D74133338F89}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:B20">
+    <sortCondition ref="A19:A20"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3E7F3656-EE6A-4812-BB07-705C3019427D}" name="Freq" dataDxfId="4" dataCellStyle="Normal_Sheet1_1"/>
+    <tableColumn id="2" xr3:uid="{56292002-80B7-41B9-BF08-19A90E797805}" name="Handle">
+      <calculatedColumnFormula>+_xll._Period2($A$18&amp;A19,A19)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71E7404D-6757-4252-92DB-FCA0DE37C73B}" name="Table3" displayName="Table3" ref="A22:B26" totalsRowShown="0">
+  <autoFilter ref="A22:B26" xr:uid="{CBD95603-F792-4D72-A28B-0BD6BABF102A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{65CDC919-53ED-4D63-AA0D-F2602E345AF0}" name="Yield" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{93C96CB1-A286-4F74-B92E-B74F63D4E9D5}" name="Handle" dataDxfId="1">
+      <calculatedColumnFormula>+_xll._SimpleQuote1(Table3[[#Headers],[Yield]]&amp;Table3[[#This Row],[Yield]],Table3[[#This Row],[Yield]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8BC14513-57D5-43CE-ADF0-A1442472CF44}" name="Table4" displayName="Table4" ref="A28:B32" totalsRowShown="0">
+  <autoFilter ref="A28:B32" xr:uid="{04734BA8-B686-4BA5-B3AB-D10F51A4F33C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B205272C-66F2-498D-A632-EB20BC10FC87}" name="Flat">
+      <calculatedColumnFormula>B23</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D821C273-C2A5-412D-877A-547023CA6775}" name="Handle" dataDxfId="0">
+      <calculatedColumnFormula>+_xll._FlatForward(Table4[[#Headers],[Flat]]&amp;Table4[[#This Row],[Flat]],$A$4,Table4[[#This Row],[Flat]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,106 +1766,4804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FB728A-D864-4666-BF40-82666DFDA925}">
-  <dimension ref="A1:H6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="15" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f>+_xll._Today()</f>
+        <v>Today</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>+_xll._Date1("clock",A1)</f>
+        <v>clock</v>
+      </c>
+      <c r="C2">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <f>+_xll._Date1("clock",_xll._Today())</f>
-        <v>clock</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>0.02</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(D2,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP(F2,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K2" t="str">
+        <f>VLOOKUP(G2,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P2" t="str">
+        <f>+_xll._Schedule($P$1&amp;C2,$A$4,I2,J2,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>+_xll._TARGET("calendar")</f>
         <v>calendar</v>
       </c>
-      <c r="D3">
+      <c r="C3">
+        <f>C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0.05</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E3" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="4">
+        <v>100</v>
+      </c>
+      <c r="I3" t="str">
+        <f>VLOOKUP(D3,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP(F3,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K3" t="str">
+        <f>VLOOKUP(G3,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P3" t="str">
+        <f>+_xll._Schedule($P$1&amp;C3,$A$4,I3,J3,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>+_xll._TARGET_adjust("priceday",A3,A2,"Following")</f>
         <v>priceday</v>
       </c>
-      <c r="D4">
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">C3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(D4,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP(F4,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K4" t="str">
+        <f>VLOOKUP(G4,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P4" t="str">
+        <f>+_xll._Schedule($P$1&amp;C4,$A$4,I4,J4,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>+_xll._ActualActual1("day Count","ISMA")</f>
+        <v>#Object reference not set to an instance of an object.</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(D5,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP(F5,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K5" t="str">
+        <f>VLOOKUP(G5,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P5" t="str">
+        <f>+_xll._Schedule($P$1&amp;C5,$A$4,I5,J5,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP(D6,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP(F6,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K6" t="str">
+        <f>VLOOKUP(G6,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P6" t="str">
+        <f>+_xll._Schedule($P$1&amp;C6,$A$4,I6,J6,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" t="str">
+        <f>VLOOKUP(D7,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP(F7,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K7" t="str">
+        <f>VLOOKUP(G7,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P7" t="str">
+        <f>+_xll._Schedule($P$1&amp;C7,$A$4,I7,J7,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP(D8,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP(F8,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K8" t="str">
+        <f>VLOOKUP(G8,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P8" t="str">
+        <f>+_xll._Schedule($P$1&amp;C8,$A$4,I8,J8,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>+_xll._Date("null")</f>
+        <v>null</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(D9,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP(F9,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K9" t="str">
+        <f>VLOOKUP(G9,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P9" t="str">
+        <f>+_xll._Schedule($P$1&amp;C9,$A$4,I9,J9,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="4">
+        <v>100</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(D10,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J10" t="str">
+        <f>VLOOKUP(F10,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K10" t="str">
+        <f>VLOOKUP(G10,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P10" t="str">
+        <f>+_xll._Schedule($P$1&amp;C10,$A$4,I10,J10,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="4">
+        <v>100</v>
+      </c>
+      <c r="I11" t="str">
+        <f>VLOOKUP(D11,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J11" t="str">
+        <f>VLOOKUP(F11,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K11" t="str">
+        <f>VLOOKUP(G11,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P11" t="str">
+        <f>+_xll._Schedule($P$1&amp;C11,$A$4,I11,J11,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f>+_xll._TARGET_advance1($A$11&amp;A12,$A$3,$A$4,A12,"Years","ModifiedFollowing",FALSE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
         <v>0.08</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D5">
+      <c r="F12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" t="str">
+        <f>VLOOKUP(D12,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J12" t="str">
+        <f>VLOOKUP(F12,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K12" t="str">
+        <f>VLOOKUP(G12,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P12" t="str">
+        <f>+_xll._Schedule($P$1&amp;C12,$A$4,I12,J12,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>+_xll._TARGET_advance1($A$11&amp;A13,$A$3,$A$4,A13,"Years","ModifiedFollowing",FALSE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" t="str">
+        <f>VLOOKUP(D13,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J13" t="str">
+        <f>VLOOKUP(F13,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K13" t="str">
+        <f>VLOOKUP(G13,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P13" t="str">
+        <f>+_xll._Schedule($P$1&amp;C13,$A$4,I13,J13,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>+_xll._TARGET_advance1($A$11&amp;A14,$A$3,$A$4,A14,"Years","ModifiedFollowing",FALSE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" t="str">
+        <f>VLOOKUP(D14,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J14" t="str">
+        <f>VLOOKUP(F14,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K14" t="str">
+        <f>VLOOKUP(G14,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P14" t="str">
+        <f>+_xll._Schedule($P$1&amp;C14,$A$4,I14,J14,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="B15" s="6" t="str">
+        <f>+_xll._TARGET_advance1($A$11&amp;A15,$A$3,$A$4,A15,"Years","ModifiedFollowing",FALSE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H15" s="4">
+        <v>100</v>
+      </c>
+      <c r="I15" t="str">
+        <f>VLOOKUP(D15,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J15" t="str">
+        <f>VLOOKUP(F15,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K15" t="str">
+        <f>VLOOKUP(G15,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P15" t="str">
+        <f>+_xll._Schedule($P$1&amp;C15,$A$4,I15,J15,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>20</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f>+_xll._TARGET_advance1($A$11&amp;A16,$A$3,$A$4,A16,"Years","ModifiedFollowing",FALSE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="4">
+        <v>100</v>
+      </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(D16,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J16" t="str">
+        <f>VLOOKUP(F16,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K16" t="str">
+        <f>VLOOKUP(G16,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P16" t="str">
+        <f>+_xll._Schedule($P$1&amp;C16,$A$4,I16,J16,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H17" s="4">
+        <v>100</v>
+      </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP(D17,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J17" t="str">
+        <f>VLOOKUP(F17,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K17" t="str">
+        <f>VLOOKUP(G17,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P17" t="str">
+        <f>+_xll._Schedule($P$1&amp;C17,$A$4,I17,J17,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H18" s="4">
+        <v>100</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP(D18,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J18" t="str">
+        <f>VLOOKUP(F18,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K18" t="str">
+        <f>VLOOKUP(G18,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P18" t="str">
+        <f>+_xll._Schedule($P$1&amp;C18,$A$4,I18,J18,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="str">
+        <f>+_xll._Period2($A$18&amp;A19,A19)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="4">
+        <v>100</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP(D19,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J19" t="str">
+        <f>VLOOKUP(F19,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K19" t="str">
+        <f>VLOOKUP(G19,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P19" t="str">
+        <f>+_xll._Schedule($P$1&amp;C19,$A$4,I19,J19,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="str">
+        <f>+_xll._Period2($A$18&amp;A20,A20)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H20" s="4">
+        <v>100</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(D20,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J20" t="str">
+        <f>VLOOKUP(F20,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K20" t="str">
+        <f>VLOOKUP(G20,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P20" t="str">
+        <f>+_xll._Schedule($P$1&amp;C20,$A$4,I20,J20,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="4">
+        <v>100</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP(D21,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J21" t="str">
+        <f>VLOOKUP(F21,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K21" t="str">
+        <f>VLOOKUP(G21,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P21" t="str">
+        <f>+_xll._Schedule($P$1&amp;C21,$A$4,I21,J21,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="4">
+        <v>100</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP(D22,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J22" t="str">
+        <f>VLOOKUP(F22,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K22" t="str">
+        <f>VLOOKUP(G22,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P22" t="str">
+        <f>+_xll._Schedule($P$1&amp;C22,$A$4,I22,J22,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="B23" t="str">
+        <f>+_xll._SimpleQuote1(Table3[[#Headers],[Yield]]&amp;Table3[[#This Row],[Yield]],Table3[[#This Row],[Yield]])</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H23" s="4">
+        <v>100</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP(D23,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J23" t="str">
+        <f>VLOOKUP(F23,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K23" t="str">
+        <f>VLOOKUP(G23,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P23" t="str">
+        <f>+_xll._Schedule($P$1&amp;C23,$A$4,I23,J23,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="B24" t="str">
+        <f>+_xll._SimpleQuote1(Table3[[#Headers],[Yield]]&amp;Table3[[#This Row],[Yield]],Table3[[#This Row],[Yield]])</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H24" s="4">
+        <v>100</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP(D24,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J24" t="str">
+        <f>VLOOKUP(F24,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K24" t="str">
+        <f>VLOOKUP(G24,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P24" t="str">
+        <f>+_xll._Schedule($P$1&amp;C24,$A$4,I24,J24,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B25" t="str">
+        <f>+_xll._SimpleQuote1(Table3[[#Headers],[Yield]]&amp;Table3[[#This Row],[Yield]],Table3[[#This Row],[Yield]])</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="6">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H25" s="4">
+        <v>100</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(D25,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J25" t="str">
+        <f>VLOOKUP(F25,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K25" t="str">
+        <f>VLOOKUP(G25,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P25" t="str">
+        <f>+_xll._Schedule($P$1&amp;C25,$A$4,I25,J25,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f>+_xll._Date_ToLongDateString("lds",A4)</f>
-        <v>#Unable to cast object of type 'ExcelDna.Integration.ExcelError' to type 'System.String'.</v>
-      </c>
-      <c r="D6">
+      <c r="B26" t="str">
+        <f>+_xll._SimpleQuote1(Table3[[#Headers],[Yield]]&amp;Table3[[#This Row],[Yield]],Table3[[#This Row],[Yield]])</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="6">
         <v>20</v>
       </c>
+      <c r="E26" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="4">
+        <v>100</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP(D26,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J26" t="str">
+        <f>VLOOKUP(F26,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K26" t="str">
+        <f>VLOOKUP(G26,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P26" t="str">
+        <f>+_xll._Schedule($P$1&amp;C26,$A$4,I26,J26,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H27" s="4">
+        <v>100</v>
+      </c>
+      <c r="I27" t="str">
+        <f>VLOOKUP(D27,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J27" t="str">
+        <f>VLOOKUP(F27,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K27" t="str">
+        <f>VLOOKUP(G27,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P27" t="str">
+        <f>+_xll._Schedule($P$1&amp;C27,$A$4,I27,J27,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H28" s="4">
+        <v>100</v>
+      </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP(D28,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J28" t="str">
+        <f>VLOOKUP(F28,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K28" t="str">
+        <f>VLOOKUP(G28,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P28" t="str">
+        <f>+_xll._Schedule($P$1&amp;C28,$A$4,I28,J28,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>B23</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="B29" t="str">
+        <f>+_xll._FlatForward(Table4[[#Headers],[Flat]]&amp;Table4[[#This Row],[Flat]],$A$4,Table4[[#This Row],[Flat]])</f>
+        <v>#Invalid dayCounter_x000D_
+Parameter name: ExcelDna.Integration.ExcelMissing</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H29" s="4">
+        <v>100</v>
+      </c>
+      <c r="I29" t="str">
+        <f>VLOOKUP(D29,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J29" t="str">
+        <f>VLOOKUP(F29,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K29" t="str">
+        <f>VLOOKUP(G29,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P29" t="str">
+        <f>+_xll._Schedule($P$1&amp;C29,$A$4,I29,J29,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f t="shared" ref="A30:A32" si="1">B24</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="B30" t="str">
+        <f>+_xll._FlatForward(Table4[[#Headers],[Flat]]&amp;Table4[[#This Row],[Flat]],$A$4,Table4[[#This Row],[Flat]])</f>
+        <v>#Invalid dayCounter_x000D_
+Parameter name: ExcelDna.Integration.ExcelMissing</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D30" s="6">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H30" s="4">
+        <v>100</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP(D30,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J30" t="str">
+        <f>VLOOKUP(F30,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K30" t="str">
+        <f>VLOOKUP(G30,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P30" t="str">
+        <f>+_xll._Schedule($P$1&amp;C30,$A$4,I30,J30,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>Yield0.05</v>
+      </c>
+      <c r="B31" t="str">
+        <f>+_xll._FlatForward(Table4[[#Headers],[Flat]]&amp;Table4[[#This Row],[Flat]],$A$4,Table4[[#This Row],[Flat]])</f>
+        <v>#Invalid dayCounter_x000D_
+Parameter name: ExcelDna.Integration.ExcelMissing</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H31" s="4">
+        <v>100</v>
+      </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP(D31,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J31" t="str">
+        <f>VLOOKUP(F31,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K31" t="str">
+        <f>VLOOKUP(G31,Table3[],2,TRUE)</f>
+        <v>Yield0.03</v>
+      </c>
+      <c r="P31" t="str">
+        <f>+_xll._Schedule($P$1&amp;C31,$A$4,I31,J31,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>Yield0.06</v>
+      </c>
+      <c r="B32" t="str">
+        <f>+_xll._FlatForward(Table4[[#Headers],[Flat]]&amp;Table4[[#This Row],[Flat]],$A$4,Table4[[#This Row],[Flat]])</f>
+        <v>#Invalid dayCounter_x000D_
+Parameter name: ExcelDna.Integration.ExcelMissing</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H32" s="4">
+        <v>100</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP(D32,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J32" t="str">
+        <f>VLOOKUP(F32,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K32" t="str">
+        <f>VLOOKUP(G32,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P32" t="str">
+        <f>+_xll._Schedule($P$1&amp;C32,$A$4,I32,J32,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H33" s="4">
+        <v>100</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP(D33,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J33" t="str">
+        <f>VLOOKUP(F33,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K33" t="str">
+        <f>VLOOKUP(G33,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P33" t="str">
+        <f>+_xll._Schedule($P$1&amp;C33,$A$4,I33,J33,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H34" s="4">
+        <v>100</v>
+      </c>
+      <c r="I34" t="str">
+        <f>VLOOKUP(D34,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J34" t="str">
+        <f>VLOOKUP(F34,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K34" t="str">
+        <f>VLOOKUP(G34,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P34" t="str">
+        <f>+_xll._Schedule($P$1&amp;C34,$A$4,I34,J34,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="6">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="4">
+        <v>100</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(D35,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP(F35,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K35" t="str">
+        <f>VLOOKUP(G35,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P35" t="str">
+        <f>+_xll._Schedule($P$1&amp;C35,$A$4,I35,J35,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="6">
+        <v>20</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H36" s="4">
+        <v>100</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(D36,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J36" t="str">
+        <f>VLOOKUP(F36,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K36" t="str">
+        <f>VLOOKUP(G36,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P36" t="str">
+        <f>+_xll._Schedule($P$1&amp;C36,$A$4,I36,J36,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H37" s="4">
+        <v>100</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP(D37,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J37" t="str">
+        <f>VLOOKUP(F37,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K37" t="str">
+        <f>VLOOKUP(G37,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P37" t="str">
+        <f>+_xll._Schedule($P$1&amp;C37,$A$4,I37,J37,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H38" s="4">
+        <v>100</v>
+      </c>
+      <c r="I38" t="str">
+        <f>VLOOKUP(D38,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP(F38,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K38" t="str">
+        <f>VLOOKUP(G38,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P38" t="str">
+        <f>+_xll._Schedule($P$1&amp;C38,$A$4,I38,J38,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D39" s="6">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H39" s="4">
+        <v>100</v>
+      </c>
+      <c r="I39" t="str">
+        <f>VLOOKUP(D39,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP(F39,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K39" t="str">
+        <f>VLOOKUP(G39,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P39" t="str">
+        <f>+_xll._Schedule($P$1&amp;C39,$A$4,I39,J39,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule38</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D40" s="6">
+        <v>15</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H40" s="4">
+        <v>100</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP(D40,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP(F40,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K40" t="str">
+        <f>VLOOKUP(G40,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P40" t="str">
+        <f>+_xll._Schedule($P$1&amp;C40,$A$4,I40,J40,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D41" s="6">
+        <v>20</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H41" s="4">
+        <v>100</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP(D41,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP(F41,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K41" t="str">
+        <f>VLOOKUP(G41,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P41" t="str">
+        <f>+_xll._Schedule($P$1&amp;C41,$A$4,I41,J41,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H42" s="4">
+        <v>100</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP(D42,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP(F42,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K42" t="str">
+        <f>VLOOKUP(G42,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P42" t="str">
+        <f>+_xll._Schedule($P$1&amp;C42,$A$4,I42,J42,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule41</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="4">
+        <v>100</v>
+      </c>
+      <c r="I43" t="str">
+        <f>VLOOKUP(D43,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J43" t="str">
+        <f>VLOOKUP(F43,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K43" t="str">
+        <f>VLOOKUP(G43,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P43" t="str">
+        <f>+_xll._Schedule($P$1&amp;C43,$A$4,I43,J43,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D44" s="6">
+        <v>10</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H44" s="4">
+        <v>100</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP(D44,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP(F44,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K44" t="str">
+        <f>VLOOKUP(G44,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P44" t="str">
+        <f>+_xll._Schedule($P$1&amp;C44,$A$4,I44,J44,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D45" s="6">
+        <v>15</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H45" s="4">
+        <v>100</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(D45,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J45" t="str">
+        <f>VLOOKUP(F45,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K45" t="str">
+        <f>VLOOKUP(G45,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P45" t="str">
+        <f>+_xll._Schedule($P$1&amp;C45,$A$4,I45,J45,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule44</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D46" s="6">
+        <v>20</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H46" s="4">
+        <v>100</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP(D46,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP(F46,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K46" t="str">
+        <f>VLOOKUP(G46,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P46" t="str">
+        <f>+_xll._Schedule($P$1&amp;C46,$A$4,I46,J46,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H47" s="4">
+        <v>100</v>
+      </c>
+      <c r="I47" t="str">
+        <f>VLOOKUP(D47,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J47" t="str">
+        <f>VLOOKUP(F47,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K47" t="str">
+        <f>VLOOKUP(G47,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P47" t="str">
+        <f>+_xll._Schedule($P$1&amp;C47,$A$4,I47,J47,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule46</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H48" s="4">
+        <v>100</v>
+      </c>
+      <c r="I48" t="str">
+        <f>VLOOKUP(D48,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J48" t="str">
+        <f>VLOOKUP(F48,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K48" t="str">
+        <f>VLOOKUP(G48,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P48" t="str">
+        <f>+_xll._Schedule($P$1&amp;C48,$A$4,I48,J48,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D49" s="6">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H49" s="4">
+        <v>100</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP(D49,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP(F49,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K49" t="str">
+        <f>VLOOKUP(G49,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P49" t="str">
+        <f>+_xll._Schedule($P$1&amp;C49,$A$4,I49,J49,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule48</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D50" s="6">
+        <v>15</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H50" s="4">
+        <v>100</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP(D50,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP(F50,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K50" t="str">
+        <f>VLOOKUP(G50,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P50" t="str">
+        <f>+_xll._Schedule($P$1&amp;C50,$A$4,I50,J50,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule49</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H51" s="4">
+        <v>100</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP(D51,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP(F51,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K51" t="str">
+        <f>VLOOKUP(G51,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P51" t="str">
+        <f>+_xll._Schedule($P$1&amp;C51,$A$4,I51,J51,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H52" s="4">
+        <v>100</v>
+      </c>
+      <c r="I52" t="str">
+        <f>VLOOKUP(D52,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP(F52,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K52" t="str">
+        <f>VLOOKUP(G52,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P52" t="str">
+        <f>+_xll._Schedule($P$1&amp;C52,$A$4,I52,J52,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H53" s="4">
+        <v>100</v>
+      </c>
+      <c r="I53" t="str">
+        <f>VLOOKUP(D53,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP(F53,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K53" t="str">
+        <f>VLOOKUP(G53,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P53" t="str">
+        <f>+_xll._Schedule($P$1&amp;C53,$A$4,I53,J53,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule52</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D54" s="6">
+        <v>10</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H54" s="4">
+        <v>100</v>
+      </c>
+      <c r="I54" t="str">
+        <f>VLOOKUP(D54,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP(F54,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K54" t="str">
+        <f>VLOOKUP(G54,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P54" t="str">
+        <f>+_xll._Schedule($P$1&amp;C54,$A$4,I54,J54,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D55" s="6">
+        <v>15</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H55" s="4">
+        <v>100</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP(D55,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP(F55,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K55" t="str">
+        <f>VLOOKUP(G55,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P55" t="str">
+        <f>+_xll._Schedule($P$1&amp;C55,$A$4,I55,J55,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule54</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D56" s="6">
+        <v>20</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H56" s="4">
+        <v>100</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP(D56,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP(F56,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K56" t="str">
+        <f>VLOOKUP(G56,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P56" t="str">
+        <f>+_xll._Schedule($P$1&amp;C56,$A$4,I56,J56,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule55</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H57" s="4">
+        <v>100</v>
+      </c>
+      <c r="I57" t="str">
+        <f>VLOOKUP(D57,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP(F57,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K57" t="str">
+        <f>VLOOKUP(G57,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P57" t="str">
+        <f>+_xll._Schedule($P$1&amp;C57,$A$4,I57,J57,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D58" s="6">
+        <v>5</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H58" s="4">
+        <v>100</v>
+      </c>
+      <c r="I58" t="str">
+        <f>VLOOKUP(D58,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP(F58,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K58" t="str">
+        <f>VLOOKUP(G58,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P58" t="str">
+        <f>+_xll._Schedule($P$1&amp;C58,$A$4,I58,J58,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D59" s="6">
+        <v>10</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H59" s="4">
+        <v>100</v>
+      </c>
+      <c r="I59" t="str">
+        <f>VLOOKUP(D59,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP(F59,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K59" t="str">
+        <f>VLOOKUP(G59,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P59" t="str">
+        <f>+_xll._Schedule($P$1&amp;C59,$A$4,I59,J59,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule58</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D60" s="6">
+        <v>15</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H60" s="4">
+        <v>100</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP(D60,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP(F60,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K60" t="str">
+        <f>VLOOKUP(G60,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P60" t="str">
+        <f>+_xll._Schedule($P$1&amp;C60,$A$4,I60,J60,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule59</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D61" s="6">
+        <v>20</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H61" s="4">
+        <v>100</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP(D61,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP(F61,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K61" t="str">
+        <f>VLOOKUP(G61,Table3[],2,TRUE)</f>
+        <v>Yield0.04</v>
+      </c>
+      <c r="P61" t="str">
+        <f>+_xll._Schedule($P$1&amp;C61,$A$4,I61,J61,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule60</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D62" s="6">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H62" s="4">
+        <v>100</v>
+      </c>
+      <c r="I62" t="str">
+        <f>VLOOKUP(D62,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP(F62,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K62" t="str">
+        <f>VLOOKUP(G62,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P62" t="str">
+        <f>+_xll._Schedule($P$1&amp;C62,$A$4,I62,J62,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule61</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D63" s="6">
+        <v>5</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H63" s="4">
+        <v>100</v>
+      </c>
+      <c r="I63" t="str">
+        <f>VLOOKUP(D63,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP(F63,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K63" t="str">
+        <f>VLOOKUP(G63,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P63" t="str">
+        <f>+_xll._Schedule($P$1&amp;C63,$A$4,I63,J63,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule62</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D64" s="6">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H64" s="4">
+        <v>100</v>
+      </c>
+      <c r="I64" t="str">
+        <f>VLOOKUP(D64,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J64" t="str">
+        <f>VLOOKUP(F64,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K64" t="str">
+        <f>VLOOKUP(G64,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P64" t="str">
+        <f>+_xll._Schedule($P$1&amp;C64,$A$4,I64,J64,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D65" s="6">
+        <v>15</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H65" s="4">
+        <v>100</v>
+      </c>
+      <c r="I65" t="str">
+        <f>VLOOKUP(D65,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J65" t="str">
+        <f>VLOOKUP(F65,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K65" t="str">
+        <f>VLOOKUP(G65,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P65" t="str">
+        <f>+_xll._Schedule($P$1&amp;C65,$A$4,I65,J65,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule64</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D66" s="6">
+        <v>20</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H66" s="4">
+        <v>100</v>
+      </c>
+      <c r="I66" t="str">
+        <f>VLOOKUP(D66,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J66" t="str">
+        <f>VLOOKUP(F66,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K66" t="str">
+        <f>VLOOKUP(G66,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P66" t="str">
+        <f>+_xll._Schedule($P$1&amp;C66,$A$4,I66,J66,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule65</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D67" s="6">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H67" s="4">
+        <v>100</v>
+      </c>
+      <c r="I67" t="str">
+        <f>VLOOKUP(D67,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J67" t="str">
+        <f>VLOOKUP(F67,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K67" t="str">
+        <f>VLOOKUP(G67,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P67" t="str">
+        <f>+_xll._Schedule($P$1&amp;C67,$A$4,I67,J67,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule66</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <f t="shared" ref="C68:C121" si="2">C67+1</f>
+        <v>67</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H68" s="4">
+        <v>100</v>
+      </c>
+      <c r="I68" t="str">
+        <f>VLOOKUP(D68,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J68" t="str">
+        <f>VLOOKUP(F68,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K68" t="str">
+        <f>VLOOKUP(G68,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P68" t="str">
+        <f>+_xll._Schedule($P$1&amp;C68,$A$4,I68,J68,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule67</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D69" s="6">
+        <v>10</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H69" s="4">
+        <v>100</v>
+      </c>
+      <c r="I69" t="str">
+        <f>VLOOKUP(D69,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J69" t="str">
+        <f>VLOOKUP(F69,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K69" t="str">
+        <f>VLOOKUP(G69,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P69" t="str">
+        <f>+_xll._Schedule($P$1&amp;C69,$A$4,I69,J69,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule68</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D70" s="6">
+        <v>15</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H70" s="4">
+        <v>100</v>
+      </c>
+      <c r="I70" t="str">
+        <f>VLOOKUP(D70,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J70" t="str">
+        <f>VLOOKUP(F70,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K70" t="str">
+        <f>VLOOKUP(G70,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P70" t="str">
+        <f>+_xll._Schedule($P$1&amp;C70,$A$4,I70,J70,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D71" s="6">
+        <v>20</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H71" s="4">
+        <v>100</v>
+      </c>
+      <c r="I71" t="str">
+        <f>VLOOKUP(D71,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J71" t="str">
+        <f>VLOOKUP(F71,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K71" t="str">
+        <f>VLOOKUP(G71,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P71" t="str">
+        <f>+_xll._Schedule($P$1&amp;C71,$A$4,I71,J71,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H72" s="4">
+        <v>100</v>
+      </c>
+      <c r="I72" t="str">
+        <f>VLOOKUP(D72,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP(F72,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K72" t="str">
+        <f>VLOOKUP(G72,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P72" t="str">
+        <f>+_xll._Schedule($P$1&amp;C72,$A$4,I72,J72,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule71</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D73" s="6">
+        <v>5</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H73" s="4">
+        <v>100</v>
+      </c>
+      <c r="I73" t="str">
+        <f>VLOOKUP(D73,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J73" t="str">
+        <f>VLOOKUP(F73,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K73" t="str">
+        <f>VLOOKUP(G73,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P73" t="str">
+        <f>+_xll._Schedule($P$1&amp;C73,$A$4,I73,J73,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule72</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D74" s="6">
+        <v>10</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H74" s="4">
+        <v>100</v>
+      </c>
+      <c r="I74" t="str">
+        <f>VLOOKUP(D74,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J74" t="str">
+        <f>VLOOKUP(F74,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K74" t="str">
+        <f>VLOOKUP(G74,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P74" t="str">
+        <f>+_xll._Schedule($P$1&amp;C74,$A$4,I74,J74,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule73</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D75" s="6">
+        <v>15</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H75" s="4">
+        <v>100</v>
+      </c>
+      <c r="I75" t="str">
+        <f>VLOOKUP(D75,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J75" t="str">
+        <f>VLOOKUP(F75,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K75" t="str">
+        <f>VLOOKUP(G75,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P75" t="str">
+        <f>+_xll._Schedule($P$1&amp;C75,$A$4,I75,J75,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule74</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D76" s="6">
+        <v>20</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H76" s="4">
+        <v>100</v>
+      </c>
+      <c r="I76" t="str">
+        <f>VLOOKUP(D76,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J76" t="str">
+        <f>VLOOKUP(F76,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K76" t="str">
+        <f>VLOOKUP(G76,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P76" t="str">
+        <f>+_xll._Schedule($P$1&amp;C76,$A$4,I76,J76,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule75</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H77" s="4">
+        <v>100</v>
+      </c>
+      <c r="I77" t="str">
+        <f>VLOOKUP(D77,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J77" t="str">
+        <f>VLOOKUP(F77,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K77" t="str">
+        <f>VLOOKUP(G77,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P77" t="str">
+        <f>+_xll._Schedule($P$1&amp;C77,$A$4,I77,J77,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule76</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D78" s="6">
+        <v>5</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H78" s="4">
+        <v>100</v>
+      </c>
+      <c r="I78" t="str">
+        <f>VLOOKUP(D78,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J78" t="str">
+        <f>VLOOKUP(F78,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K78" t="str">
+        <f>VLOOKUP(G78,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P78" t="str">
+        <f>+_xll._Schedule($P$1&amp;C78,$A$4,I78,J78,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule77</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D79" s="6">
+        <v>10</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H79" s="4">
+        <v>100</v>
+      </c>
+      <c r="I79" t="str">
+        <f>VLOOKUP(D79,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J79" t="str">
+        <f>VLOOKUP(F79,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K79" t="str">
+        <f>VLOOKUP(G79,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P79" t="str">
+        <f>+_xll._Schedule($P$1&amp;C79,$A$4,I79,J79,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule78</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D80" s="6">
+        <v>15</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H80" s="4">
+        <v>100</v>
+      </c>
+      <c r="I80" t="str">
+        <f>VLOOKUP(D80,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J80" t="str">
+        <f>VLOOKUP(F80,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K80" t="str">
+        <f>VLOOKUP(G80,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P80" t="str">
+        <f>+_xll._Schedule($P$1&amp;C80,$A$4,I80,J80,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule79</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D81" s="6">
+        <v>20</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H81" s="4">
+        <v>100</v>
+      </c>
+      <c r="I81" t="str">
+        <f>VLOOKUP(D81,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J81" t="str">
+        <f>VLOOKUP(F81,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K81" t="str">
+        <f>VLOOKUP(G81,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P81" t="str">
+        <f>+_xll._Schedule($P$1&amp;C81,$A$4,I81,J81,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule80</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H82" s="4">
+        <v>100</v>
+      </c>
+      <c r="I82" t="str">
+        <f>VLOOKUP(D82,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J82" t="str">
+        <f>VLOOKUP(F82,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K82" t="str">
+        <f>VLOOKUP(G82,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P82" t="str">
+        <f>+_xll._Schedule($P$1&amp;C82,$A$4,I82,J82,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule81</v>
+      </c>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="D83" s="6">
+        <v>5</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H83" s="4">
+        <v>100</v>
+      </c>
+      <c r="I83" t="str">
+        <f>VLOOKUP(D83,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J83" t="str">
+        <f>VLOOKUP(F83,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K83" t="str">
+        <f>VLOOKUP(G83,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P83" t="str">
+        <f>+_xll._Schedule($P$1&amp;C83,$A$4,I83,J83,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule82</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D84" s="6">
+        <v>10</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H84" s="4">
+        <v>100</v>
+      </c>
+      <c r="I84" t="str">
+        <f>VLOOKUP(D84,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J84" t="str">
+        <f>VLOOKUP(F84,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K84" t="str">
+        <f>VLOOKUP(G84,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P84" t="str">
+        <f>+_xll._Schedule($P$1&amp;C84,$A$4,I84,J84,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule83</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D85" s="6">
+        <v>15</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H85" s="4">
+        <v>100</v>
+      </c>
+      <c r="I85" t="str">
+        <f>VLOOKUP(D85,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J85" t="str">
+        <f>VLOOKUP(F85,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K85" t="str">
+        <f>VLOOKUP(G85,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P85" t="str">
+        <f>+_xll._Schedule($P$1&amp;C85,$A$4,I85,J85,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule84</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D86" s="6">
+        <v>20</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H86" s="4">
+        <v>100</v>
+      </c>
+      <c r="I86" t="str">
+        <f>VLOOKUP(D86,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J86" t="str">
+        <f>VLOOKUP(F86,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K86" t="str">
+        <f>VLOOKUP(G86,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P86" t="str">
+        <f>+_xll._Schedule($P$1&amp;C86,$A$4,I86,J86,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule85</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H87" s="4">
+        <v>100</v>
+      </c>
+      <c r="I87" t="str">
+        <f>VLOOKUP(D87,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J87" t="str">
+        <f>VLOOKUP(F87,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K87" t="str">
+        <f>VLOOKUP(G87,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P87" t="str">
+        <f>+_xll._Schedule($P$1&amp;C87,$A$4,I87,J87,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule86</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D88" s="6">
+        <v>5</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H88" s="4">
+        <v>100</v>
+      </c>
+      <c r="I88" t="str">
+        <f>VLOOKUP(D88,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J88" t="str">
+        <f>VLOOKUP(F88,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K88" t="str">
+        <f>VLOOKUP(G88,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P88" t="str">
+        <f>+_xll._Schedule($P$1&amp;C88,$A$4,I88,J88,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule87</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D89" s="6">
+        <v>10</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H89" s="4">
+        <v>100</v>
+      </c>
+      <c r="I89" t="str">
+        <f>VLOOKUP(D89,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J89" t="str">
+        <f>VLOOKUP(F89,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K89" t="str">
+        <f>VLOOKUP(G89,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P89" t="str">
+        <f>+_xll._Schedule($P$1&amp;C89,$A$4,I89,J89,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule88</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D90" s="6">
+        <v>15</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H90" s="4">
+        <v>100</v>
+      </c>
+      <c r="I90" t="str">
+        <f>VLOOKUP(D90,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J90" t="str">
+        <f>VLOOKUP(F90,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K90" t="str">
+        <f>VLOOKUP(G90,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P90" t="str">
+        <f>+_xll._Schedule($P$1&amp;C90,$A$4,I90,J90,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule89</v>
+      </c>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D91" s="6">
+        <v>20</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H91" s="4">
+        <v>100</v>
+      </c>
+      <c r="I91" t="str">
+        <f>VLOOKUP(D91,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J91" t="str">
+        <f>VLOOKUP(F91,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K91" t="str">
+        <f>VLOOKUP(G91,Table3[],2,TRUE)</f>
+        <v>Yield0.05</v>
+      </c>
+      <c r="P91" t="str">
+        <f>+_xll._Schedule($P$1&amp;C91,$A$4,I91,J91,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule90</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H92" s="4">
+        <v>100</v>
+      </c>
+      <c r="I92" t="str">
+        <f>VLOOKUP(D92,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J92" t="str">
+        <f>VLOOKUP(F92,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K92" t="str">
+        <f>VLOOKUP(G92,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P92" t="str">
+        <f>+_xll._Schedule($P$1&amp;C92,$A$4,I92,J92,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule91</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D93" s="6">
+        <v>5</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H93" s="4">
+        <v>100</v>
+      </c>
+      <c r="I93" t="str">
+        <f>VLOOKUP(D93,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J93" t="str">
+        <f>VLOOKUP(F93,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K93" t="str">
+        <f>VLOOKUP(G93,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P93" t="str">
+        <f>+_xll._Schedule($P$1&amp;C93,$A$4,I93,J93,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule92</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D94" s="6">
+        <v>10</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H94" s="4">
+        <v>100</v>
+      </c>
+      <c r="I94" t="str">
+        <f>VLOOKUP(D94,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J94" t="str">
+        <f>VLOOKUP(F94,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K94" t="str">
+        <f>VLOOKUP(G94,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P94" t="str">
+        <f>+_xll._Schedule($P$1&amp;C94,$A$4,I94,J94,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule93</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D95" s="6">
+        <v>15</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H95" s="4">
+        <v>100</v>
+      </c>
+      <c r="I95" t="str">
+        <f>VLOOKUP(D95,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J95" t="str">
+        <f>VLOOKUP(F95,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K95" t="str">
+        <f>VLOOKUP(G95,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P95" t="str">
+        <f>+_xll._Schedule($P$1&amp;C95,$A$4,I95,J95,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule94</v>
+      </c>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D96" s="6">
+        <v>20</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H96" s="4">
+        <v>100</v>
+      </c>
+      <c r="I96" t="str">
+        <f>VLOOKUP(D96,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J96" t="str">
+        <f>VLOOKUP(F96,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K96" t="str">
+        <f>VLOOKUP(G96,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P96" t="str">
+        <f>+_xll._Schedule($P$1&amp;C96,$A$4,I96,J96,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule95</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D97" s="6">
+        <v>3</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H97" s="4">
+        <v>100</v>
+      </c>
+      <c r="I97" t="str">
+        <f>VLOOKUP(D97,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J97" t="str">
+        <f>VLOOKUP(F97,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K97" t="str">
+        <f>VLOOKUP(G97,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P97" t="str">
+        <f>+_xll._Schedule($P$1&amp;C97,$A$4,I97,J97,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule96</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D98" s="6">
+        <v>5</v>
+      </c>
+      <c r="E98" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H98" s="4">
+        <v>100</v>
+      </c>
+      <c r="I98" t="str">
+        <f>VLOOKUP(D98,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J98" t="str">
+        <f>VLOOKUP(F98,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K98" t="str">
+        <f>VLOOKUP(G98,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P98" t="str">
+        <f>+_xll._Schedule($P$1&amp;C98,$A$4,I98,J98,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule97</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="D99" s="6">
+        <v>10</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H99" s="4">
+        <v>100</v>
+      </c>
+      <c r="I99" t="str">
+        <f>VLOOKUP(D99,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J99" t="str">
+        <f>VLOOKUP(F99,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K99" t="str">
+        <f>VLOOKUP(G99,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P99" t="str">
+        <f>+_xll._Schedule($P$1&amp;C99,$A$4,I99,J99,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule98</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="D100" s="6">
+        <v>15</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H100" s="4">
+        <v>100</v>
+      </c>
+      <c r="I100" t="str">
+        <f>VLOOKUP(D100,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J100" t="str">
+        <f>VLOOKUP(F100,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K100" t="str">
+        <f>VLOOKUP(G100,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P100" t="str">
+        <f>+_xll._Schedule($P$1&amp;C100,$A$4,I100,J100,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule99</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D101" s="6">
+        <v>20</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H101" s="4">
+        <v>100</v>
+      </c>
+      <c r="I101" t="str">
+        <f>VLOOKUP(D101,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J101" t="str">
+        <f>VLOOKUP(F101,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K101" t="str">
+        <f>VLOOKUP(G101,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P101" t="str">
+        <f>+_xll._Schedule($P$1&amp;C101,$A$4,I101,J101,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="D102" s="6">
+        <v>3</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H102" s="4">
+        <v>100</v>
+      </c>
+      <c r="I102" t="str">
+        <f>VLOOKUP(D102,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J102" t="str">
+        <f>VLOOKUP(F102,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K102" t="str">
+        <f>VLOOKUP(G102,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P102" t="str">
+        <f>+_xll._Schedule($P$1&amp;C102,$A$4,I102,J102,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule101</v>
+      </c>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="D103" s="6">
+        <v>5</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H103" s="4">
+        <v>100</v>
+      </c>
+      <c r="I103" t="str">
+        <f>VLOOKUP(D103,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J103" t="str">
+        <f>VLOOKUP(F103,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K103" t="str">
+        <f>VLOOKUP(G103,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P103" t="str">
+        <f>+_xll._Schedule($P$1&amp;C103,$A$4,I103,J103,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule102</v>
+      </c>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="D104" s="6">
+        <v>10</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H104" s="4">
+        <v>100</v>
+      </c>
+      <c r="I104" t="str">
+        <f>VLOOKUP(D104,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J104" t="str">
+        <f>VLOOKUP(F104,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K104" t="str">
+        <f>VLOOKUP(G104,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P104" t="str">
+        <f>+_xll._Schedule($P$1&amp;C104,$A$4,I104,J104,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule103</v>
+      </c>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="D105" s="6">
+        <v>15</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H105" s="4">
+        <v>100</v>
+      </c>
+      <c r="I105" t="str">
+        <f>VLOOKUP(D105,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J105" t="str">
+        <f>VLOOKUP(F105,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K105" t="str">
+        <f>VLOOKUP(G105,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P105" t="str">
+        <f>+_xll._Schedule($P$1&amp;C105,$A$4,I105,J105,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule104</v>
+      </c>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="D106" s="6">
+        <v>20</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H106" s="4">
+        <v>100</v>
+      </c>
+      <c r="I106" t="str">
+        <f>VLOOKUP(D106,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J106" t="str">
+        <f>VLOOKUP(F106,Table2[],2,TRUE)</f>
+        <v>FreqSemiannual</v>
+      </c>
+      <c r="K106" t="str">
+        <f>VLOOKUP(G106,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P106" t="str">
+        <f>+_xll._Schedule($P$1&amp;C106,$A$4,I106,J106,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule105</v>
+      </c>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="D107" s="6">
+        <v>3</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H107" s="4">
+        <v>100</v>
+      </c>
+      <c r="I107" t="str">
+        <f>VLOOKUP(D107,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J107" t="str">
+        <f>VLOOKUP(F107,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K107" t="str">
+        <f>VLOOKUP(G107,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P107" t="str">
+        <f>+_xll._Schedule($P$1&amp;C107,$A$4,I107,J107,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule106</v>
+      </c>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="D108" s="6">
+        <v>5</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H108" s="4">
+        <v>100</v>
+      </c>
+      <c r="I108" t="str">
+        <f>VLOOKUP(D108,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J108" t="str">
+        <f>VLOOKUP(F108,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K108" t="str">
+        <f>VLOOKUP(G108,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P108" t="str">
+        <f>+_xll._Schedule($P$1&amp;C108,$A$4,I108,J108,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule107</v>
+      </c>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="D109" s="6">
+        <v>10</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H109" s="4">
+        <v>100</v>
+      </c>
+      <c r="I109" t="str">
+        <f>VLOOKUP(D109,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J109" t="str">
+        <f>VLOOKUP(F109,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K109" t="str">
+        <f>VLOOKUP(G109,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P109" t="str">
+        <f>+_xll._Schedule($P$1&amp;C109,$A$4,I109,J109,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule108</v>
+      </c>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="D110" s="6">
+        <v>15</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H110" s="4">
+        <v>100</v>
+      </c>
+      <c r="I110" t="str">
+        <f>VLOOKUP(D110,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J110" t="str">
+        <f>VLOOKUP(F110,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K110" t="str">
+        <f>VLOOKUP(G110,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P110" t="str">
+        <f>+_xll._Schedule($P$1&amp;C110,$A$4,I110,J110,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule109</v>
+      </c>
+    </row>
+    <row r="111" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="D111" s="6">
+        <v>20</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H111" s="4">
+        <v>100</v>
+      </c>
+      <c r="I111" t="str">
+        <f>VLOOKUP(D111,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J111" t="str">
+        <f>VLOOKUP(F111,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K111" t="str">
+        <f>VLOOKUP(G111,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P111" t="str">
+        <f>+_xll._Schedule($P$1&amp;C111,$A$4,I111,J111,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule110</v>
+      </c>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="D112" s="6">
+        <v>3</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H112" s="4">
+        <v>100</v>
+      </c>
+      <c r="I112" t="str">
+        <f>VLOOKUP(D112,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J112" t="str">
+        <f>VLOOKUP(F112,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K112" t="str">
+        <f>VLOOKUP(G112,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P112" t="str">
+        <f>+_xll._Schedule($P$1&amp;C112,$A$4,I112,J112,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule111</v>
+      </c>
+    </row>
+    <row r="113" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="D113" s="6">
+        <v>5</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H113" s="4">
+        <v>100</v>
+      </c>
+      <c r="I113" t="str">
+        <f>VLOOKUP(D113,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J113" t="str">
+        <f>VLOOKUP(F113,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K113" t="str">
+        <f>VLOOKUP(G113,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P113" t="str">
+        <f>+_xll._Schedule($P$1&amp;C113,$A$4,I113,J113,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule112</v>
+      </c>
+    </row>
+    <row r="114" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="D114" s="6">
+        <v>10</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H114" s="4">
+        <v>100</v>
+      </c>
+      <c r="I114" t="str">
+        <f>VLOOKUP(D114,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J114" t="str">
+        <f>VLOOKUP(F114,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K114" t="str">
+        <f>VLOOKUP(G114,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P114" t="str">
+        <f>+_xll._Schedule($P$1&amp;C114,$A$4,I114,J114,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule113</v>
+      </c>
+    </row>
+    <row r="115" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="D115" s="6">
+        <v>15</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H115" s="4">
+        <v>100</v>
+      </c>
+      <c r="I115" t="str">
+        <f>VLOOKUP(D115,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J115" t="str">
+        <f>VLOOKUP(F115,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K115" t="str">
+        <f>VLOOKUP(G115,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P115" t="str">
+        <f>+_xll._Schedule($P$1&amp;C115,$A$4,I115,J115,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule114</v>
+      </c>
+    </row>
+    <row r="116" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="D116" s="6">
+        <v>20</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H116" s="4">
+        <v>100</v>
+      </c>
+      <c r="I116" t="str">
+        <f>VLOOKUP(D116,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J116" t="str">
+        <f>VLOOKUP(F116,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K116" t="str">
+        <f>VLOOKUP(G116,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P116" t="str">
+        <f>+_xll._Schedule($P$1&amp;C116,$A$4,I116,J116,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule115</v>
+      </c>
+    </row>
+    <row r="117" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="D117" s="6">
+        <v>3</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H117" s="4">
+        <v>100</v>
+      </c>
+      <c r="I117" t="str">
+        <f>VLOOKUP(D117,Table1[],2,TRUE)</f>
+        <v>Mature3</v>
+      </c>
+      <c r="J117" t="str">
+        <f>VLOOKUP(F117,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K117" t="str">
+        <f>VLOOKUP(G117,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P117" t="str">
+        <f>+_xll._Schedule($P$1&amp;C117,$A$4,I117,J117,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule116</v>
+      </c>
+    </row>
+    <row r="118" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="D118" s="6">
+        <v>5</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H118" s="4">
+        <v>100</v>
+      </c>
+      <c r="I118" t="str">
+        <f>VLOOKUP(D118,Table1[],2,TRUE)</f>
+        <v>Mature5</v>
+      </c>
+      <c r="J118" t="str">
+        <f>VLOOKUP(F118,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K118" t="str">
+        <f>VLOOKUP(G118,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P118" t="str">
+        <f>+_xll._Schedule($P$1&amp;C118,$A$4,I118,J118,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule117</v>
+      </c>
+    </row>
+    <row r="119" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="D119" s="6">
+        <v>10</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H119" s="4">
+        <v>100</v>
+      </c>
+      <c r="I119" t="str">
+        <f>VLOOKUP(D119,Table1[],2,TRUE)</f>
+        <v>Mature10</v>
+      </c>
+      <c r="J119" t="str">
+        <f>VLOOKUP(F119,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K119" t="str">
+        <f>VLOOKUP(G119,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P119" t="str">
+        <f>+_xll._Schedule($P$1&amp;C119,$A$4,I119,J119,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule118</v>
+      </c>
+    </row>
+    <row r="120" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="D120" s="6">
+        <v>15</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H120" s="4">
+        <v>100</v>
+      </c>
+      <c r="I120" t="str">
+        <f>VLOOKUP(D120,Table1[],2,TRUE)</f>
+        <v>Mature15</v>
+      </c>
+      <c r="J120" t="str">
+        <f>VLOOKUP(F120,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K120" t="str">
+        <f>VLOOKUP(G120,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P120" t="str">
+        <f>+_xll._Schedule($P$1&amp;C120,$A$4,I120,J120,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule119</v>
+      </c>
+    </row>
+    <row r="121" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="D121" s="6">
+        <v>20</v>
+      </c>
+      <c r="E121" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H121" s="4">
+        <v>100</v>
+      </c>
+      <c r="I121" t="str">
+        <f>VLOOKUP(D121,Table1[],2,TRUE)</f>
+        <v>Mature20</v>
+      </c>
+      <c r="J121" t="str">
+        <f>VLOOKUP(F121,Table2[],2,TRUE)</f>
+        <v>FreqAnnual</v>
+      </c>
+      <c r="K121" t="str">
+        <f>VLOOKUP(G121,Table3[],2,TRUE)</f>
+        <v>Yield0.06</v>
+      </c>
+      <c r="P121" t="str">
+        <f>+_xll._Schedule($P$1&amp;C121,$A$4,I121,J121,$A$3,"Unadjusted","Unadjusted","Backward",FALSE,$A$9,$A$9)</f>
+        <v>schedule120</v>
+      </c>
+    </row>
+    <row r="122" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D122" s="2"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D123" s="2"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D124" s="2"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D125" s="2"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D126" s="2"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D127" s="2"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D128" s="2"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D129" s="2"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D130" s="2"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D131" s="2"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D132" s="2"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D133" s="2"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D134" s="2"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D135" s="2"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D136" s="2"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D137" s="2"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D138" s="2"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D139" s="2"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D140" s="2"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D141" s="2"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D142" s="2"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D143" s="2"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D144" s="2"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D145" s="2"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Cephei.XL/Bond.xlsx
+++ b/Cephei.XL/Bond.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2E0B42-F49A-4ED6-A01B-53B455E3D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A113CB7A-9F48-420A-9931-A88CE8465BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="191" xr2:uid="{705D3C02-4429-4AA3-825B-DA6B36A5FD08}"/>
   </bookViews>
@@ -443,102 +443,548 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans120</v>
+        <stp/>
+        <stp>cleans120</stp>
+        <stp>1229429546</stp>
+        <tr r="S121" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>139.27472528634206</v>
-        <stp/>
-        <stp>cleans18</stp>
-        <stp/>
-        <tr r="T19" s="1"/>
+        <v>100.87245491458363</v>
+        <stp/>
+        <stp>cleans101</stp>
+        <stp/>
+        <tr r="T102" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>117.62043415334</v>
+        <stp/>
+        <stp>cleans100</stp>
+        <stp/>
+        <tr r="T101" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>112.727927576036</v>
+        <stp/>
+        <stp>cleans103</stp>
+        <stp/>
+        <tr r="T104" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>106.693096383122</v>
+        <stp/>
+        <stp>cleans102</stp>
+        <stp/>
+        <tr r="T103" s="1"/>
       </tp>
       <tp>
-        <v>105.36382435924965</v>
-        <stp/>
-        <stp>cleans19</stp>
-        <stp/>
-        <tr r="T20" s="1"/>
+        <v>117.62043415333996</v>
+        <stp/>
+        <stp>cleans105</stp>
+        <stp/>
+        <tr r="T106" s="1"/>
       </tp>
       <tp>
-        <v>105.36382435924965</v>
+        <v>114.31598719418068</v>
+        <stp/>
+        <stp>cleans104</stp>
+        <stp/>
+        <tr r="T105" s="1"/>
+      </tp>
+      <tp>
+        <v>104.81203020404143</v>
+        <stp/>
+        <stp>cleans107</stp>
+        <stp/>
+        <tr r="T108" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>96.558489977597162</v>
+        <stp/>
+        <stp>cleans106</stp>
+        <stp/>
+        <tr r="T107" s="1"/>
+      </tp>
+      <tp>
+        <v>109.1570646172036</v>
+        <stp/>
+        <stp>cleans109</stp>
+        <stp/>
+        <tr r="T110" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>110.4683837778143</v>
+        <stp/>
+        <stp>cleans108</stp>
+        <stp/>
+        <tr r="T109" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>96.558489977597162</v>
+        <stp/>
+        <stp>cleans111</stp>
+        <stp/>
+        <tr r="T112" s="1"/>
+      </tp>
+      <tp>
+        <v>112.25381930873441</v>
+        <stp/>
+        <stp>cleans110</stp>
+        <stp/>
+        <tr r="T111" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>110.468383777814</v>
+        <stp/>
+        <stp>cleans113</stp>
+        <stp/>
+        <tr r="T114" s="1"/>
+      </tp>
+      <tp>
+        <v>104.81203020404143</v>
+        <stp/>
+        <stp>cleans112</stp>
+        <stp/>
+        <tr r="T113" s="1"/>
+      </tp>
+      <tp>
+        <v>112.25381930873441</v>
+        <stp/>
+        <stp>cleans115</stp>
+        <stp/>
+        <tr r="T116" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>109.157064617204</v>
+        <stp/>
+        <stp>cleans114</stp>
+        <stp/>
+        <tr r="T115" s="1"/>
+      </tp>
+      <tp>
+        <v>104.81203020404143</v>
+        <stp/>
+        <stp>cleans117</stp>
+        <stp/>
+        <tr r="T118" s="1"/>
+      </tp>
+      <tp>
+        <v>96.558489977597162</v>
+        <stp/>
+        <stp>cleans116</stp>
+        <stp/>
+        <tr r="T117" s="1"/>
+      </tp>
+      <tp>
+        <v>109.1570646172036</v>
+        <stp/>
+        <stp>cleans119</stp>
+        <stp/>
+        <tr r="T120" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>110.4683837778143</v>
+        <stp/>
+        <stp>cleans118</stp>
+        <stp/>
+        <tr r="T119" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>112.25381930873441</v>
+        <stp/>
+        <stp>cleans120</stp>
+        <stp/>
+        <tr r="T121" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans96</v>
+        <stp/>
+        <stp>cleans96</stp>
+        <stp>886227638</stp>
+        <tr r="S97" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans86</v>
+        <stp/>
+        <stp>cleans86</stp>
+        <stp>886227639</stp>
+        <tr r="S87" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans56</v>
+        <stp/>
+        <stp>cleans56</stp>
+        <stp>886227634</stp>
+        <tr r="S57" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans46</v>
+        <stp/>
+        <stp>cleans46</stp>
+        <stp>886227635</stp>
+        <tr r="S47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans16</v>
         <stp/>
         <stp>cleans16</stp>
-        <stp/>
-        <tr r="T17" s="1"/>
+        <stp>886227630</stp>
+        <tr r="S17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans76</v>
+        <stp/>
+        <stp>cleans76</stp>
+        <stp>886227632</stp>
+        <tr r="S77" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans66</v>
+        <stp/>
+        <stp>cleans66</stp>
+        <stp>886227633</stp>
+        <tr r="S67" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans36</v>
+        <stp/>
+        <stp>cleans36</stp>
+        <stp>886227628</stp>
+        <tr r="S37" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans26</v>
+        <stp/>
+        <stp>cleans26</stp>
+        <stp>886227629</stp>
+        <tr r="S27" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans105</v>
+        <stp/>
+        <stp>cleans105</stp>
+        <stp>66630137</stp>
+        <tr r="S106" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans104</v>
+        <stp/>
+        <stp>cleans104</stp>
+        <stp>66630136</stp>
+        <tr r="S105" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans107</v>
+        <stp/>
+        <stp>cleans107</stp>
+        <stp>66630135</stp>
+        <tr r="S108" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans106</v>
+        <stp/>
+        <stp>cleans106</stp>
+        <stp>66630134</stp>
+        <tr r="S107" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans101</v>
+        <stp/>
+        <stp>cleans101</stp>
+        <stp>66630133</stp>
+        <tr r="S102" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans100</v>
+        <stp/>
+        <stp>cleans100</stp>
+        <stp>66630132</stp>
+        <tr r="S101" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans103</v>
+        <stp/>
+        <stp>cleans103</stp>
+        <stp>66630131</stp>
+        <tr r="S104" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans102</v>
+        <stp/>
+        <stp>cleans102</stp>
+        <stp>66630130</stp>
+        <tr r="S103" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans108</v>
+        <stp/>
+        <stp>cleans108</stp>
+        <stp>66630140</stp>
+        <tr r="S109" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans109</v>
+        <stp/>
+        <stp>cleans109</stp>
+        <stp>66630141</stp>
+        <tr r="S110" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>119.7517520497664</v>
-        <stp/>
-        <stp>cleans17</stp>
-        <stp/>
-        <tr r="T18" s="1"/>
+        <v>100.87245491458363</v>
+        <stp/>
+        <stp>cleans91</stp>
+        <stp/>
+        <tr r="T92" s="1"/>
+      </tp>
+      <tp>
+        <v>127.03369560123967</v>
+        <stp/>
+        <stp>cleans90</stp>
+        <stp/>
+        <tr r="T91" s="1"/>
+      </tp>
+      <tp>
+        <v>112.72792757603573</v>
+        <stp/>
+        <stp>cleans93</stp>
+        <stp/>
+        <tr r="T94" s="1"/>
+      </tp>
+      <tp>
+        <v>106.69309638312214</v>
+        <stp/>
+        <stp>cleans92</stp>
+        <stp/>
+        <tr r="T93" s="1"/>
+      </tp>
+      <tp>
+        <v>117.62043415333996</v>
+        <stp/>
+        <stp>cleans95</stp>
+        <stp/>
+        <tr r="T96" s="1"/>
+      </tp>
+      <tp>
+        <v>114.31598719418068</v>
+        <stp/>
+        <stp>cleans94</stp>
+        <stp/>
+        <tr r="T95" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>106.693096383122</v>
+        <stp/>
+        <stp>cleans97</stp>
+        <stp/>
+        <tr r="T98" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>155.2831769293976</v>
-        <stp/>
-        <stp>cleans14</stp>
-        <stp/>
-        <tr r="T15" s="1"/>
+        <v>100.87245491458363</v>
+        <stp/>
+        <stp>cleans96</stp>
+        <stp/>
+        <tr r="T97" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>169.91234731522431</v>
-        <stp/>
-        <stp>cleans15</stp>
-        <stp/>
-        <tr r="T16" s="1"/>
+        <v>114.31598719418068</v>
+        <stp/>
+        <stp>cleans99</stp>
+        <stp/>
+        <tr r="T100" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>112.727927576036</v>
+        <stp/>
+        <stp>cleans98</stp>
+        <stp/>
+        <tr r="T99" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans9</v>
+        <stp/>
+        <stp>cleans9</stp>
+        <stp>-62750052</stp>
+        <tr r="S10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>121.46226191589805</v>
-        <stp/>
-        <stp>cleans12</stp>
-        <stp/>
-        <tr r="T13" s="1"/>
+        <v>99.407519803242522</v>
+        <stp/>
+        <stp>cleans81</stp>
+        <stp/>
+        <tr r="T82" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>127.03369560124</v>
+        <stp/>
+        <stp>cleans80</stp>
+        <stp/>
+        <tr r="T81" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>119.229005033593</v>
+        <stp/>
+        <stp>cleans83</stp>
+        <stp/>
+        <tr r="T84" s="1"/>
+      </tp>
+      <tp>
+        <v>109.55846964946574</v>
+        <stp/>
+        <stp>cleans82</stp>
+        <stp/>
+        <tr r="T83" s="1"/>
+      </tp>
+      <tp>
+        <v>127.03369560123967</v>
+        <stp/>
+        <stp>cleans85</stp>
+        <stp/>
+        <tr r="T86" s="1"/>
+      </tp>
+      <tp>
+        <v>121.17652803410503</v>
+        <stp/>
+        <stp>cleans84</stp>
+        <stp/>
+        <tr r="T85" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>141.22331267247253</v>
+        <v>109.55846964946574</v>
+        <stp/>
+        <stp>cleans87</stp>
+        <stp/>
+        <tr r="T88" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>99.407519803242522</v>
+        <stp/>
+        <stp>cleans86</stp>
+        <stp/>
+        <tr r="T87" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>121.17652803410503</v>
+        <stp/>
+        <stp>cleans89</stp>
+        <stp/>
+        <tr r="T90" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>119.22900503359254</v>
+        <stp/>
+        <stp>cleans88</stp>
+        <stp/>
+        <tr r="T89" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans8</v>
+        <stp/>
+        <stp>cleans8</stp>
+        <stp>-62750051</stp>
+        <tr r="S9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans63</v>
+        <stp/>
+        <stp>cleans63</stp>
+        <stp>482943106</stp>
+        <tr r="S64" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans53</v>
+        <stp/>
+        <stp>cleans53</stp>
+        <stp>482943107</stp>
+        <tr r="S54" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans73</v>
+        <stp/>
+        <stp>cleans73</stp>
+        <stp>482943105</stp>
+        <tr r="S74" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans23</v>
+        <stp/>
+        <stp>cleans23</stp>
+        <stp>482943102</stp>
+        <tr r="S24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans13</v>
         <stp/>
         <stp>cleans13</stp>
-        <stp/>
-        <tr r="T14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>169.91234731522431</v>
-        <stp/>
-        <stp>cleans10</stp>
-        <stp/>
-        <tr r="T11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>109.77267549438112</v>
-        <stp/>
-        <stp>cleans11</stp>
-        <stp/>
-        <tr r="T12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>130.86982220483759</v>
-        <stp/>
-        <stp>cleans38</stp>
-        <stp/>
-        <tr r="T39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
+        <stp>482943103</stp>
+        <tr r="S14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans33</v>
+        <stp/>
+        <stp>cleans33</stp>
+        <stp>482943101</stp>
+        <tr r="S34" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans43</v>
+        <stp/>
+        <stp>cleans43</stp>
+        <stp>482943108</stp>
+        <tr r="S44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans83</v>
+        <stp/>
+        <stp>cleans83</stp>
+        <stp>482943112</stp>
+        <tr r="S84" s="1"/>
+      </tp>
       <tp t="s">
         <v>cleans93</v>
         <stp/>
@@ -546,88 +992,487 @@
         <stp>482943111</stp>
         <tr r="S94" s="1"/>
       </tp>
-      <tp t="s">
-        <v>cleans83</v>
-        <stp/>
-        <stp>cleans83</stp>
-        <stp>482943112</stp>
-        <tr r="S84" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>102.341775903942</v>
+        <stp/>
+        <stp>cleans51</stp>
+        <stp/>
+        <tr r="T52" s="1"/>
+      </tp>
+      <tp>
+        <v>144.37604328202534</v>
+        <stp/>
+        <stp>cleans50</stp>
+        <stp/>
+        <tr r="T51" s="1"/>
+      </tp>
+      <tp>
+        <v>128.80434404024197</v>
+        <stp/>
+        <stp>cleans53</stp>
+        <stp/>
+        <tr r="T54" s="1"/>
+      </tp>
+      <tp>
+        <v>114.53457386345579</v>
+        <stp/>
+        <stp>cleans52</stp>
+        <stp/>
+        <tr r="T53" s="1"/>
+      </tp>
+      <tp>
+        <v>144.37604328202534</v>
+        <stp/>
+        <stp>cleans55</stp>
+        <stp/>
+        <tr r="T56" s="1"/>
+      </tp>
+      <tp>
+        <v>134.81991274658807</v>
+        <stp/>
+        <stp>cleans54</stp>
+        <stp/>
+        <tr r="T55" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>114.534573863456</v>
+        <stp/>
+        <stp>cleans57</stp>
+        <stp/>
+        <tr r="T58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>102.34177590394161</v>
+        <stp/>
+        <stp>cleans56</stp>
+        <stp/>
+        <tr r="T57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>134.81991274658807</v>
+        <stp/>
+        <stp>cleans59</stp>
+        <stp/>
+        <tr r="T60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>128.80434404024197</v>
+        <stp/>
+        <stp>cleans58</stp>
+        <stp/>
+        <tr r="T59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans5</v>
+        <stp/>
+        <stp>cleans5</stp>
+        <stp>-62750056</stp>
+        <tr r="S6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>106.71937283797011</v>
+        <stp/>
+        <stp>cleans41</stp>
+        <stp/>
+        <tr r="T42" s="1"/>
+      </tp>
+      <tp>
+        <v>149.62035652450953</v>
+        <stp/>
+        <stp>cleans40</stp>
+        <stp/>
+        <tr r="T41" s="1"/>
+      </tp>
+      <tp>
+        <v>130.86982220483759</v>
+        <stp/>
+        <stp>cleans43</stp>
+        <stp/>
+        <tr r="T44" s="1"/>
+      </tp>
+      <tp>
+        <v>116.30606447038527</v>
+        <stp/>
+        <stp>cleans42</stp>
+        <stp/>
+        <tr r="T43" s="1"/>
+      </tp>
+      <tp>
+        <v>149.62035652450953</v>
+        <stp/>
+        <stp>cleans45</stp>
+        <stp/>
+        <tr r="T46" s="1"/>
+      </tp>
       <tp>
         <v>139.86718546243964</v>
         <stp/>
-        <stp>cleans39</stp>
-        <stp/>
-        <tr r="T40" s="1"/>
+        <stp>cleans44</stp>
+        <stp/>
+        <tr r="T45" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans73</v>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>114.53457386345579</v>
+        <stp/>
+        <stp>cleans47</stp>
+        <stp/>
+        <tr r="T48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>102.34177590394161</v>
+        <stp/>
+        <stp>cleans46</stp>
+        <stp/>
+        <tr r="T47" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>134.81991274658807</v>
+        <stp/>
+        <stp>cleans49</stp>
+        <stp/>
+        <tr r="T50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>128.804344040242</v>
+        <stp/>
+        <stp>cleans48</stp>
+        <stp/>
+        <tr r="T49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans4</v>
+        <stp/>
+        <stp>cleans4</stp>
+        <stp>-62750055</stp>
+        <tr r="S5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>103.7534771606085</v>
+        <stp/>
+        <stp>cleans71</stp>
+        <stp/>
+        <tr r="T72" s="1"/>
+      </tp>
+      <tp>
+        <v>132.35339004110497</v>
+        <stp/>
+        <stp>cleans70</stp>
+        <stp/>
+        <tr r="T71" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>121.397684335244</v>
         <stp/>
         <stp>cleans73</stp>
-        <stp>482943105</stp>
-        <tr r="S74" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans63</v>
+        <stp/>
+        <tr r="T74" s="1"/>
+      </tp>
+      <tp>
+        <v>111.38673774877807</v>
+        <stp/>
+        <stp>cleans72</stp>
+        <stp/>
+        <tr r="T73" s="1"/>
+      </tp>
+      <tp>
+        <v>132.35339004110497</v>
+        <stp/>
+        <stp>cleans75</stp>
+        <stp/>
+        <tr r="T76" s="1"/>
+      </tp>
+      <tp>
+        <v>126.28977546877371</v>
+        <stp/>
+        <stp>cleans74</stp>
+        <stp/>
+        <tr r="T75" s="1"/>
+      </tp>
+      <tp>
+        <v>109.55846964946574</v>
+        <stp/>
+        <stp>cleans77</stp>
+        <stp/>
+        <tr r="T78" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>99.4075198032425</v>
+        <stp/>
+        <stp>cleans76</stp>
+        <stp/>
+        <tr r="T77" s="1"/>
+      </tp>
+      <tp>
+        <v>121.17652803410503</v>
+        <stp/>
+        <stp>cleans79</stp>
+        <stp/>
+        <tr r="T80" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>119.229005033593</v>
+        <stp/>
+        <stp>cleans78</stp>
+        <stp/>
+        <tr r="T79" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans7</v>
+        <stp/>
+        <stp>cleans7</stp>
+        <stp>-62750058</stp>
+        <tr r="S8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>103.753477160608</v>
+        <stp/>
+        <stp>cleans61</stp>
+        <stp/>
+        <tr r="T62" s="1"/>
+      </tp>
+      <tp>
+        <v>144.37604328202534</v>
+        <stp/>
+        <stp>cleans60</stp>
+        <stp/>
+        <tr r="T61" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>121.397684335244</v>
         <stp/>
         <stp>cleans63</stp>
-        <stp>482943106</stp>
-        <tr r="S64" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans53</v>
-        <stp/>
-        <stp>cleans53</stp>
-        <stp>482943107</stp>
-        <tr r="S54" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans33</v>
-        <stp/>
-        <stp>cleans33</stp>
-        <stp>482943101</stp>
-        <tr r="S34" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans23</v>
-        <stp/>
-        <stp>cleans23</stp>
-        <stp>482943102</stp>
-        <tr r="S24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans13</v>
+        <stp/>
+        <tr r="T64" s="1"/>
+      </tp>
+      <tp>
+        <v>111.38673774877807</v>
+        <stp/>
+        <stp>cleans62</stp>
+        <stp/>
+        <tr r="T63" s="1"/>
+      </tp>
+      <tp>
+        <v>132.35339004110497</v>
+        <stp/>
+        <stp>cleans65</stp>
+        <stp/>
+        <tr r="T66" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>126.289775468774</v>
+        <stp/>
+        <stp>cleans64</stp>
+        <stp/>
+        <tr r="T65" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>111.386737748778</v>
+        <stp/>
+        <stp>cleans67</stp>
+        <stp/>
+        <tr r="T68" s="1"/>
+      </tp>
+      <tp>
+        <v>103.7534771606085</v>
+        <stp/>
+        <stp>cleans66</stp>
+        <stp/>
+        <tr r="T67" s="1"/>
+      </tp>
+      <tp>
+        <v>126.28977546877371</v>
+        <stp/>
+        <stp>cleans69</stp>
+        <stp/>
+        <tr r="T70" s="1"/>
+      </tp>
+      <tp>
+        <v>121.39768433524412</v>
+        <stp/>
+        <stp>cleans68</stp>
+        <stp/>
+        <tr r="T69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans6</v>
+        <stp/>
+        <stp>cleans6</stp>
+        <stp>-62750057</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>109.77267549438112</v>
+        <stp/>
+        <stp>cleans11</stp>
+        <stp/>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>169.91234731522431</v>
+        <stp/>
+        <stp>cleans10</stp>
+        <stp/>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>141.223312672473</v>
         <stp/>
         <stp>cleans13</stp>
-        <stp>482943103</stp>
-        <tr r="S14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans43</v>
-        <stp/>
-        <stp>cleans43</stp>
-        <stp>482943108</stp>
-        <tr r="S44" s="1"/>
+        <stp/>
+        <tr r="T14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>121.462261915898</v>
+        <stp/>
+        <stp>cleans12</stp>
+        <stp/>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>169.91234731522431</v>
+        <stp/>
+        <stp>cleans15</stp>
+        <stp/>
+        <tr r="T16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>155.283176929398</v>
+        <stp/>
+        <stp>cleans14</stp>
+        <stp/>
+        <tr r="T15" s="1"/>
+      </tp>
+      <tp>
+        <v>119.7517520497664</v>
+        <stp/>
+        <stp>cleans17</stp>
+        <stp/>
+        <tr r="T18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>105.36382435925</v>
+        <stp/>
+        <stp>cleans16</stp>
+        <stp/>
+        <tr r="T17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>150.325728940982</v>
+        <stp/>
+        <stp>cleans19</stp>
+        <stp/>
+        <tr r="T20" s="1"/>
+      </tp>
+      <tp>
+        <v>139.27472528634206</v>
+        <stp/>
+        <stp>cleans18</stp>
+        <stp/>
+        <tr r="T19" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans1</v>
+        <stp/>
+        <stp>cleans1</stp>
+        <stp>-62750060</stp>
+        <tr r="S2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
         <v>106.71937283797011</v>
         <stp/>
-        <stp>cleans36</stp>
-        <stp/>
-        <tr r="T37" s="1"/>
-      </tp>
+        <stp>cleans31</stp>
+        <stp/>
+        <tr r="T32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>164.778555041715</v>
+        <stp/>
+        <stp>cleans30</stp>
+        <stp/>
+        <tr r="T31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>130.869822204838</v>
+        <stp/>
+        <stp>cleans33</stp>
+        <stp/>
+        <tr r="T34" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>116.306064470385</v>
+        <stp/>
+        <stp>cleans32</stp>
+        <stp/>
+        <tr r="T33" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>116.30606447038527</v>
-        <stp/>
-        <stp>cleans37</stp>
-        <stp/>
-        <tr r="T38" s="1"/>
+        <v>155.2831769293976</v>
+        <stp/>
+        <stp>cleans9</stp>
+        <stp/>
+        <tr r="T10" s="1"/>
+      </tp>
+      <tp>
+        <v>149.62035652450953</v>
+        <stp/>
+        <stp>cleans35</stp>
+        <stp/>
+        <tr r="T36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>141.22331267247253</v>
+        <stp/>
+        <stp>cleans8</stp>
+        <stp/>
+        <tr r="T9" s="1"/>
       </tp>
       <tp>
         <v>139.86718546243964</v>
@@ -637,216 +1482,240 @@
         <tr r="T35" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>116.306064470385</v>
+        <stp/>
+        <stp>cleans37</stp>
+        <stp/>
+        <tr r="T38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>106.71937283797</v>
+        <stp/>
+        <stp>cleans36</stp>
+        <stp/>
+        <tr r="T37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>149.62035652450953</v>
-        <stp/>
-        <stp>cleans35</stp>
-        <stp/>
-        <tr r="T36" s="1"/>
-      </tp>
+        <v>169.91234731522431</v>
+        <stp/>
+        <stp>cleans5</stp>
+        <stp/>
+        <tr r="T6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>139.86718546244</v>
+        <stp/>
+        <stp>cleans39</stp>
+        <stp/>
+        <tr r="T40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>116.30606447038527</v>
-        <stp/>
-        <stp>cleans32</stp>
-        <stp/>
-        <tr r="T33" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+        <v>155.2831769293976</v>
+        <stp/>
+        <stp>cleans4</stp>
+        <stp/>
+        <tr r="T5" s="1"/>
+      </tp>
       <tp>
         <v>130.86982220483759</v>
         <stp/>
-        <stp>cleans33</stp>
-        <stp/>
-        <tr r="T34" s="1"/>
+        <stp>cleans38</stp>
+        <stp/>
+        <tr r="T39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>121.462261915898</v>
+        <stp/>
+        <stp>cleans7</stp>
+        <stp/>
+        <tr r="T8" s="1"/>
       </tp>
       <tp>
-        <v>164.77855504171526</v>
-        <stp/>
-        <stp>cleans30</stp>
-        <stp/>
-        <tr r="T31" s="1"/>
+        <v>109.77267549438112</v>
+        <stp/>
+        <stp>cleans6</stp>
+        <stp/>
+        <tr r="T7" s="1"/>
       </tp>
       <tp>
-        <v>106.71937283797011</v>
-        <stp/>
-        <stp>cleans31</stp>
-        <stp/>
-        <tr r="T32" s="1"/>
+        <v>109.77267549438112</v>
+        <stp/>
+        <stp>cleans1</stp>
+        <stp/>
+        <tr r="T2" s="1"/>
+      </tp>
+      <tp>
+        <v>141.22331267247253</v>
+        <stp/>
+        <stp>cleans3</stp>
+        <stp/>
+        <tr r="T4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>121.462261915898</v>
+        <stp/>
+        <stp>cleans2</stp>
+        <stp/>
+        <tr r="T3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans120</v>
-        <stp/>
-        <stp>cleans120</stp>
-        <stp>1229429546</stp>
-        <tr r="S121" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds30</v>
-        <stp/>
-        <stp>-Bonds30</stp>
-        <stp>-1912612715</stp>
-        <tr r="R31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds20</v>
-        <stp/>
-        <stp>-Bonds20</stp>
-        <stp>-1912612715</stp>
-        <tr r="R21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds21</v>
-        <stp/>
-        <stp>-Bonds21</stp>
-        <stp>-1912612715</stp>
-        <tr r="R22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds22</v>
-        <stp/>
-        <stp>-Bonds22</stp>
-        <stp>-1912612715</stp>
-        <tr r="R23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds23</v>
-        <stp/>
-        <stp>-Bonds23</stp>
-        <stp>-1912612715</stp>
-        <tr r="R24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds24</v>
-        <stp/>
-        <stp>-Bonds24</stp>
-        <stp>-1912612715</stp>
-        <tr r="R25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds25</v>
-        <stp/>
-        <stp>-Bonds25</stp>
-        <stp>-1912612715</stp>
-        <tr r="R26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds26</v>
-        <stp/>
-        <stp>-Bonds26</stp>
-        <stp>-1912612715</stp>
-        <tr r="R27" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds27</v>
-        <stp/>
-        <stp>-Bonds27</stp>
-        <stp>-1912612715</stp>
-        <tr r="R28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds28</v>
-        <stp/>
-        <stp>-Bonds28</stp>
-        <stp>-1912612715</stp>
-        <tr r="R29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds29</v>
-        <stp/>
-        <stp>-Bonds29</stp>
-        <stp>-1912612715</stp>
-        <tr r="R30" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds10</v>
-        <stp/>
-        <stp>-Bonds10</stp>
-        <stp>-1912612715</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds11</v>
-        <stp/>
-        <stp>-Bonds11</stp>
-        <stp>-1912612715</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds12</v>
-        <stp/>
-        <stp>-Bonds12</stp>
-        <stp>-1912612715</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds13</v>
-        <stp/>
-        <stp>-Bonds13</stp>
-        <stp>-1912612715</stp>
-        <tr r="R14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds14</v>
-        <stp/>
-        <stp>-Bonds14</stp>
-        <stp>-1912612715</stp>
-        <tr r="R15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds15</v>
-        <stp/>
-        <stp>-Bonds15</stp>
-        <stp>-1912612715</stp>
-        <tr r="R16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds16</v>
-        <stp/>
-        <stp>-Bonds16</stp>
-        <stp>-1912612715</stp>
-        <tr r="R17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds17</v>
-        <stp/>
-        <stp>-Bonds17</stp>
-        <stp>-1912612715</stp>
-        <tr r="R18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds18</v>
-        <stp/>
-        <stp>-Bonds18</stp>
-        <stp>-1912612715</stp>
-        <tr r="R19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds19</v>
-        <stp/>
-        <stp>-Bonds19</stp>
-        <stp>-1912612715</stp>
-        <tr r="R20" s="1"/>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans119</v>
+        <stp/>
+        <stp>cleans119</stp>
+        <stp>1632714082</stp>
+        <tr r="S120" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans118</v>
+        <stp/>
+        <stp>cleans118</stp>
+        <stp>1632714081</stp>
+        <tr r="S119" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans3</v>
+        <stp/>
+        <stp>cleans3</stp>
+        <stp>-62750062</stp>
+        <tr r="S4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans113</v>
+        <stp/>
+        <stp>cleans113</stp>
+        <stp>1632714072</stp>
+        <tr r="S114" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans110</v>
+        <stp/>
+        <stp>cleans110</stp>
+        <stp>1632714073</stp>
+        <tr r="S111" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans112</v>
+        <stp/>
+        <stp>cleans112</stp>
+        <stp>1632714071</stp>
+        <tr r="S113" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans117</v>
+        <stp/>
+        <stp>cleans117</stp>
+        <stp>1632714076</stp>
+        <tr r="S118" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans114</v>
+        <stp/>
+        <stp>cleans114</stp>
+        <stp>1632714077</stp>
+        <tr r="S115" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans111</v>
+        <stp/>
+        <stp>cleans111</stp>
+        <stp>1632714074</stp>
+        <tr r="S112" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans116</v>
+        <stp/>
+        <stp>cleans116</stp>
+        <stp>1632714075</stp>
+        <tr r="S117" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans115</v>
+        <stp/>
+        <stp>cleans115</stp>
+        <stp>1632714078</stp>
+        <tr r="S116" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>105.36382435924965</v>
+        <stp/>
+        <stp>cleans21</stp>
+        <stp/>
+        <tr r="T22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>164.778555041715</v>
+        <stp/>
+        <stp>cleans20</stp>
+        <stp/>
+        <tr r="T21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
         <v>139.27472528634206</v>
         <stp/>
-        <stp>cleans28</stp>
-        <stp/>
-        <tr r="T29" s="1"/>
-      </tp>
+        <stp>cleans23</stp>
+        <stp/>
+        <tr r="T24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>119.751752049766</v>
+        <stp/>
+        <stp>cleans22</stp>
+        <stp/>
+        <tr r="T23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>164.778555041715</v>
+        <stp/>
+        <stp>cleans25</stp>
+        <stp/>
+        <tr r="T26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
         <v>150.32572894098232</v>
         <stp/>
-        <stp>cleans29</stp>
-        <stp/>
-        <tr r="T30" s="1"/>
-      </tp>
+        <stp>cleans24</stp>
+        <stp/>
+        <tr r="T25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp>
+        <v>119.7517520497664</v>
+        <stp/>
+        <stp>cleans27</stp>
+        <stp/>
+        <tr r="T28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
         <v>105.36382435924965</v>
         <stp/>
@@ -854,222 +1723,2265 @@
         <stp/>
         <tr r="T27" s="1"/>
       </tp>
-      <tp>
-        <v>119.7517520497664</v>
-        <stp/>
-        <stp>cleans27</stp>
-        <stp/>
-        <tr r="T28" s="1"/>
-      </tp>
-      <tp>
-        <v>150.32572894098232</v>
-        <stp/>
-        <stp>cleans24</stp>
-        <stp/>
-        <tr r="T25" s="1"/>
-      </tp>
-      <tp>
-        <v>164.77855504171526</v>
-        <stp/>
-        <stp>cleans25</stp>
-        <stp/>
-        <tr r="T26" s="1"/>
-      </tp>
-      <tp>
-        <v>119.7517520497664</v>
-        <stp/>
-        <stp>cleans22</stp>
-        <stp/>
-        <tr r="T23" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
+      <tp t="s">
+        <v>150.325728940982</v>
+        <stp/>
+        <stp>cleans29</stp>
+        <stp/>
+        <tr r="T30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
         <v>139.27472528634206</v>
         <stp/>
-        <stp>cleans23</stp>
-        <stp/>
-        <tr r="T24" s="1"/>
-      </tp>
+        <stp>cleans28</stp>
+        <stp/>
+        <tr r="T29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans2</v>
+        <stp/>
+        <stp>cleans2</stp>
+        <stp>-62750061</stp>
+        <tr r="S3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Bonds60</v>
+        <stp/>
+        <stp>-Bonds60</stp>
+        <stp>1360217361</stp>
+        <tr r="R61" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds49</v>
+        <stp/>
+        <stp>-Bonds49</stp>
+        <stp>1360217361</stp>
+        <tr r="R50" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds48</v>
+        <stp/>
+        <stp>-Bonds48</stp>
+        <stp>1360217361</stp>
+        <tr r="R49" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds43</v>
+        <stp/>
+        <stp>-Bonds43</stp>
+        <stp>1360217361</stp>
+        <tr r="R44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds42</v>
+        <stp/>
+        <stp>-Bonds42</stp>
+        <stp>1360217361</stp>
+        <tr r="R43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds41</v>
+        <stp/>
+        <stp>-Bonds41</stp>
+        <stp>1360217361</stp>
+        <tr r="R42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds40</v>
+        <stp/>
+        <stp>-Bonds40</stp>
+        <stp>1360217361</stp>
+        <tr r="R41" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds47</v>
+        <stp/>
+        <stp>-Bonds47</stp>
+        <stp>1360217361</stp>
+        <tr r="R48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds46</v>
+        <stp/>
+        <stp>-Bonds46</stp>
+        <stp>1360217361</stp>
+        <tr r="R47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds45</v>
+        <stp/>
+        <stp>-Bonds45</stp>
+        <stp>1360217361</stp>
+        <tr r="R46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds44</v>
+        <stp/>
+        <stp>-Bonds44</stp>
+        <stp>1360217361</stp>
+        <tr r="R45" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds59</v>
+        <stp/>
+        <stp>-Bonds59</stp>
+        <stp>1360217361</stp>
+        <tr r="R60" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds58</v>
+        <stp/>
+        <stp>-Bonds58</stp>
+        <stp>1360217361</stp>
+        <tr r="R59" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds53</v>
+        <stp/>
+        <stp>-Bonds53</stp>
+        <stp>1360217361</stp>
+        <tr r="R54" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds52</v>
+        <stp/>
+        <stp>-Bonds52</stp>
+        <stp>1360217361</stp>
+        <tr r="R53" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds51</v>
+        <stp/>
+        <stp>-Bonds51</stp>
+        <stp>1360217361</stp>
+        <tr r="R52" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds50</v>
+        <stp/>
+        <stp>-Bonds50</stp>
+        <stp>1360217361</stp>
+        <tr r="R51" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds57</v>
+        <stp/>
+        <stp>-Bonds57</stp>
+        <stp>1360217361</stp>
+        <tr r="R58" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds56</v>
+        <stp/>
+        <stp>-Bonds56</stp>
+        <stp>1360217361</stp>
+        <tr r="R57" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds55</v>
+        <stp/>
+        <stp>-Bonds55</stp>
+        <stp>1360217361</stp>
+        <tr r="R56" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds54</v>
+        <stp/>
+        <stp>-Bonds54</stp>
+        <stp>1360217361</stp>
+        <tr r="R55" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds39</v>
+        <stp/>
+        <stp>-Bonds39</stp>
+        <stp>1360217361</stp>
+        <tr r="R40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds38</v>
+        <stp/>
+        <stp>-Bonds38</stp>
+        <stp>1360217361</stp>
+        <tr r="R39" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds33</v>
+        <stp/>
+        <stp>-Bonds33</stp>
+        <stp>1360217361</stp>
+        <tr r="R34" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds32</v>
+        <stp/>
+        <stp>-Bonds32</stp>
+        <stp>1360217361</stp>
+        <tr r="R33" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds31</v>
+        <stp/>
+        <stp>-Bonds31</stp>
+        <stp>1360217361</stp>
+        <tr r="R32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds37</v>
+        <stp/>
+        <stp>-Bonds37</stp>
+        <stp>1360217361</stp>
+        <tr r="R38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds36</v>
+        <stp/>
+        <stp>-Bonds36</stp>
+        <stp>1360217361</stp>
+        <tr r="R37" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds35</v>
+        <stp/>
+        <stp>-Bonds35</stp>
+        <stp>1360217361</stp>
+        <tr r="R36" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds34</v>
+        <stp/>
+        <stp>-Bonds34</stp>
+        <stp>1360217361</stp>
+        <tr r="R35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Bonds68</v>
+        <stp/>
+        <stp>-Bonds68</stp>
+        <stp>1089308993</stp>
+        <tr r="R69" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds69</v>
+        <stp/>
+        <stp>-Bonds69</stp>
+        <stp>1089308993</stp>
+        <tr r="R70" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds62</v>
+        <stp/>
+        <stp>-Bonds62</stp>
+        <stp>1089308993</stp>
+        <tr r="R63" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds63</v>
+        <stp/>
+        <stp>-Bonds63</stp>
+        <stp>1089308993</stp>
+        <tr r="R64" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds61</v>
+        <stp/>
+        <stp>-Bonds61</stp>
+        <stp>1089308993</stp>
+        <tr r="R62" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds66</v>
+        <stp/>
+        <stp>-Bonds66</stp>
+        <stp>1089308993</stp>
+        <tr r="R67" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds67</v>
+        <stp/>
+        <stp>-Bonds67</stp>
+        <stp>1089308993</stp>
+        <tr r="R68" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds64</v>
+        <stp/>
+        <stp>-Bonds64</stp>
+        <stp>1089308993</stp>
+        <tr r="R65" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds65</v>
+        <stp/>
+        <stp>-Bonds65</stp>
+        <stp>1089308993</stp>
+        <tr r="R66" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds78</v>
+        <stp/>
+        <stp>-Bonds78</stp>
+        <stp>1089308993</stp>
+        <tr r="R79" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds79</v>
+        <stp/>
+        <stp>-Bonds79</stp>
+        <stp>1089308993</stp>
+        <tr r="R80" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds72</v>
+        <stp/>
+        <stp>-Bonds72</stp>
+        <stp>1089308993</stp>
+        <tr r="R73" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds73</v>
+        <stp/>
+        <stp>-Bonds73</stp>
+        <stp>1089308993</stp>
+        <tr r="R74" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds70</v>
+        <stp/>
+        <stp>-Bonds70</stp>
+        <stp>1089308993</stp>
+        <tr r="R71" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds71</v>
+        <stp/>
+        <stp>-Bonds71</stp>
+        <stp>1089308993</stp>
+        <tr r="R72" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds76</v>
+        <stp/>
+        <stp>-Bonds76</stp>
+        <stp>1089308993</stp>
+        <tr r="R77" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds77</v>
+        <stp/>
+        <stp>-Bonds77</stp>
+        <stp>1089308993</stp>
+        <tr r="R78" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds74</v>
+        <stp/>
+        <stp>-Bonds74</stp>
+        <stp>1089308993</stp>
+        <tr r="R75" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds75</v>
+        <stp/>
+        <stp>-Bonds75</stp>
+        <stp>1089308993</stp>
+        <tr r="R76" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds88</v>
+        <stp/>
+        <stp>-Bonds88</stp>
+        <stp>1089308993</stp>
+        <tr r="R89" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds89</v>
+        <stp/>
+        <stp>-Bonds89</stp>
+        <stp>1089308993</stp>
+        <tr r="R90" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds82</v>
+        <stp/>
+        <stp>-Bonds82</stp>
+        <stp>1089308993</stp>
+        <tr r="R83" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds83</v>
+        <stp/>
+        <stp>-Bonds83</stp>
+        <stp>1089308993</stp>
+        <tr r="R84" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds80</v>
+        <stp/>
+        <stp>-Bonds80</stp>
+        <stp>1089308993</stp>
+        <tr r="R81" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds81</v>
+        <stp/>
+        <stp>-Bonds81</stp>
+        <stp>1089308993</stp>
+        <tr r="R82" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds86</v>
+        <stp/>
+        <stp>-Bonds86</stp>
+        <stp>1089308993</stp>
+        <tr r="R87" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds87</v>
+        <stp/>
+        <stp>-Bonds87</stp>
+        <stp>1089308993</stp>
+        <tr r="R88" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds84</v>
+        <stp/>
+        <stp>-Bonds84</stp>
+        <stp>1089308993</stp>
+        <tr r="R85" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds85</v>
+        <stp/>
+        <stp>-Bonds85</stp>
+        <stp>1089308993</stp>
+        <tr r="R86" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds90</v>
+        <stp/>
+        <stp>-Bonds90</stp>
+        <stp>1089308993</stp>
+        <tr r="R91" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Bonds22</v>
+        <stp/>
+        <stp>-Bonds22</stp>
+        <stp>1899921825</stp>
+        <tr r="R23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds23</v>
+        <stp/>
+        <stp>-Bonds23</stp>
+        <stp>1899921825</stp>
+        <tr r="R24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds20</v>
+        <stp/>
+        <stp>-Bonds20</stp>
+        <stp>1899921825</stp>
+        <tr r="R21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds21</v>
+        <stp/>
+        <stp>-Bonds21</stp>
+        <stp>1899921825</stp>
+        <tr r="R22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds26</v>
+        <stp/>
+        <stp>-Bonds26</stp>
+        <stp>1899921825</stp>
+        <tr r="R27" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds27</v>
+        <stp/>
+        <stp>-Bonds27</stp>
+        <stp>1899921825</stp>
+        <tr r="R28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds24</v>
+        <stp/>
+        <stp>-Bonds24</stp>
+        <stp>1899921825</stp>
+        <tr r="R25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds25</v>
+        <stp/>
+        <stp>-Bonds25</stp>
+        <stp>1899921825</stp>
+        <tr r="R26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds28</v>
+        <stp/>
+        <stp>-Bonds28</stp>
+        <stp>1899921825</stp>
+        <tr r="R29" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds29</v>
+        <stp/>
+        <stp>-Bonds29</stp>
+        <stp>1899921825</stp>
+        <tr r="R30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds30</v>
+        <stp/>
+        <stp>-Bonds30</stp>
+        <stp>1899921825</stp>
+        <tr r="R31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds12</v>
+        <stp/>
+        <stp>-Bonds12</stp>
+        <stp>1899921825</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds13</v>
+        <stp/>
+        <stp>-Bonds13</stp>
+        <stp>1899921825</stp>
+        <tr r="R14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds10</v>
+        <stp/>
+        <stp>-Bonds10</stp>
+        <stp>1899921825</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds11</v>
+        <stp/>
+        <stp>-Bonds11</stp>
+        <stp>1899921825</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds16</v>
+        <stp/>
+        <stp>-Bonds16</stp>
+        <stp>1899921825</stp>
+        <tr r="R17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds17</v>
+        <stp/>
+        <stp>-Bonds17</stp>
+        <stp>1899921825</stp>
+        <tr r="R18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds14</v>
+        <stp/>
+        <stp>-Bonds14</stp>
+        <stp>1899921825</stp>
+        <tr r="R15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds15</v>
+        <stp/>
+        <stp>-Bonds15</stp>
+        <stp>1899921825</stp>
+        <tr r="R16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds18</v>
+        <stp/>
+        <stp>-Bonds18</stp>
+        <stp>1899921825</stp>
+        <tr r="R19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds19</v>
+        <stp/>
+        <stp>-Bonds19</stp>
+        <stp>1899921825</stp>
+        <tr r="R20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds91</v>
+        <stp/>
+        <stp>-Bonds91</stp>
+        <stp>1685962449</stp>
+        <tr r="R92" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds92</v>
+        <stp/>
+        <stp>-Bonds92</stp>
+        <stp>1685962449</stp>
+        <tr r="R93" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds93</v>
+        <stp/>
+        <stp>-Bonds93</stp>
+        <stp>1685962449</stp>
+        <tr r="R94" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds94</v>
+        <stp/>
+        <stp>-Bonds94</stp>
+        <stp>1685962449</stp>
+        <tr r="R95" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds95</v>
+        <stp/>
+        <stp>-Bonds95</stp>
+        <stp>1685962449</stp>
+        <tr r="R96" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds96</v>
+        <stp/>
+        <stp>-Bonds96</stp>
+        <stp>1685962449</stp>
+        <tr r="R97" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds97</v>
+        <stp/>
+        <stp>-Bonds97</stp>
+        <stp>1685962449</stp>
+        <tr r="R98" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds98</v>
+        <stp/>
+        <stp>-Bonds98</stp>
+        <stp>1685962449</stp>
+        <tr r="R99" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds99</v>
+        <stp/>
+        <stp>-Bonds99</stp>
+        <stp>1685962449</stp>
+        <tr r="R100" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans92</v>
+        <stp/>
+        <stp>cleans92</stp>
+        <stp>-1083140830</stp>
+        <tr r="S93" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans82</v>
+        <stp/>
+        <stp>cleans82</stp>
+        <stp>-1083140829</stp>
+        <tr r="S83" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans42</v>
+        <stp/>
+        <stp>cleans42</stp>
+        <stp>-1083140833</stp>
+        <tr r="S43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans32</v>
+        <stp/>
+        <stp>cleans32</stp>
+        <stp>-1083140840</stp>
+        <tr r="S33" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans52</v>
+        <stp/>
+        <stp>cleans52</stp>
+        <stp>-1083140834</stp>
+        <tr r="S53" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans62</v>
+        <stp/>
+        <stp>cleans62</stp>
+        <stp>-1083140835</stp>
+        <tr r="S63" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans72</v>
+        <stp/>
+        <stp>cleans72</stp>
+        <stp>-1083140836</stp>
+        <tr r="S73" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans12</v>
+        <stp/>
+        <stp>cleans12</stp>
+        <stp>-1083140838</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans22</v>
+        <stp/>
+        <stp>cleans22</stp>
+        <stp>-1083140839</stp>
+        <tr r="S23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Bonds120</v>
+        <stp/>
+        <stp>-Bonds120</stp>
+        <stp>1685962449</stp>
+        <tr r="R121" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds108</v>
+        <stp/>
+        <stp>-Bonds108</stp>
+        <stp>1685962449</stp>
+        <tr r="R109" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds109</v>
+        <stp/>
+        <stp>-Bonds109</stp>
+        <stp>1685962449</stp>
+        <tr r="R110" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds106</v>
+        <stp/>
+        <stp>-Bonds106</stp>
+        <stp>1685962449</stp>
+        <tr r="R107" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds107</v>
+        <stp/>
+        <stp>-Bonds107</stp>
+        <stp>1685962449</stp>
+        <tr r="R108" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds104</v>
+        <stp/>
+        <stp>-Bonds104</stp>
+        <stp>1685962449</stp>
+        <tr r="R105" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds105</v>
+        <stp/>
+        <stp>-Bonds105</stp>
+        <stp>1685962449</stp>
+        <tr r="R106" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds102</v>
+        <stp/>
+        <stp>-Bonds102</stp>
+        <stp>1685962449</stp>
+        <tr r="R103" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds103</v>
+        <stp/>
+        <stp>-Bonds103</stp>
+        <stp>1685962449</stp>
+        <tr r="R104" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds100</v>
+        <stp/>
+        <stp>-Bonds100</stp>
+        <stp>1685962449</stp>
+        <tr r="R101" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds101</v>
+        <stp/>
+        <stp>-Bonds101</stp>
+        <stp>1685962449</stp>
+        <tr r="R102" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds118</v>
+        <stp/>
+        <stp>-Bonds118</stp>
+        <stp>1685962449</stp>
+        <tr r="R119" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds119</v>
+        <stp/>
+        <stp>-Bonds119</stp>
+        <stp>1685962449</stp>
+        <tr r="R120" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds116</v>
+        <stp/>
+        <stp>-Bonds116</stp>
+        <stp>1685962449</stp>
+        <tr r="R117" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds117</v>
+        <stp/>
+        <stp>-Bonds117</stp>
+        <stp>1685962449</stp>
+        <tr r="R118" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds114</v>
+        <stp/>
+        <stp>-Bonds114</stp>
+        <stp>1685962449</stp>
+        <tr r="R115" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds115</v>
+        <stp/>
+        <stp>-Bonds115</stp>
+        <stp>1685962449</stp>
+        <tr r="R116" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds112</v>
+        <stp/>
+        <stp>-Bonds112</stp>
+        <stp>1685962449</stp>
+        <tr r="R113" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds113</v>
+        <stp/>
+        <stp>-Bonds113</stp>
+        <stp>1685962449</stp>
+        <tr r="R114" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds110</v>
+        <stp/>
+        <stp>-Bonds110</stp>
+        <stp>1685962449</stp>
+        <tr r="R111" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds111</v>
+        <stp/>
+        <stp>-Bonds111</stp>
+        <stp>1685962449</stp>
+        <tr r="R112" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>FlatYield3</v>
+        <stp/>
+        <stp>FlatYield3</stp>
+        <stp>-46841136</stp>
+        <tr r="C31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans18</v>
+        <stp/>
+        <stp>cleans18</stp>
+        <stp>-1889709892</stp>
+        <tr r="S19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans28</v>
+        <stp/>
+        <stp>cleans28</stp>
+        <stp>-1889709893</stp>
+        <tr r="S29" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans38</v>
+        <stp/>
+        <stp>cleans38</stp>
+        <stp>-1889709894</stp>
+        <tr r="S39" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans58</v>
+        <stp/>
+        <stp>cleans58</stp>
+        <stp>-1889709888</stp>
+        <tr r="S59" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans48</v>
+        <stp/>
+        <stp>cleans48</stp>
+        <stp>-1889709887</stp>
+        <tr r="S49" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans78</v>
+        <stp/>
+        <stp>cleans78</stp>
+        <stp>-1889709890</stp>
+        <tr r="S79" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans68</v>
+        <stp/>
+        <stp>cleans68</stp>
+        <stp>-1889709889</stp>
+        <tr r="S69" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans98</v>
+        <stp/>
+        <stp>cleans98</stp>
+        <stp>-1889709884</stp>
+        <tr r="S99" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans88</v>
+        <stp/>
+        <stp>cleans88</stp>
+        <stp>-1889709883</stp>
+        <tr r="S89" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans97</v>
+        <stp/>
+        <stp>cleans97</stp>
+        <stp>-1842655717</stp>
+        <tr r="S98" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans87</v>
+        <stp/>
+        <stp>cleans87</stp>
+        <stp>-1842655716</stp>
+        <tr r="S88" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans27</v>
+        <stp/>
+        <stp>cleans27</stp>
+        <stp>-1842655726</stp>
+        <tr r="S28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans37</v>
+        <stp/>
+        <stp>cleans37</stp>
+        <stp>-1842655727</stp>
+        <tr r="S38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans17</v>
+        <stp/>
+        <stp>cleans17</stp>
+        <stp>-1842655725</stp>
+        <tr r="S18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans67</v>
+        <stp/>
+        <stp>cleans67</stp>
+        <stp>-1842655722</stp>
+        <tr r="S68" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans77</v>
+        <stp/>
+        <stp>cleans77</stp>
+        <stp>-1842655723</stp>
+        <tr r="S78" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans47</v>
+        <stp/>
+        <stp>cleans47</stp>
+        <stp>-1842655720</stp>
+        <tr r="S48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans57</v>
+        <stp/>
+        <stp>cleans57</stp>
+        <stp>-1842655721</stp>
+        <tr r="S58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>+Yield1</v>
+        <stp/>
+        <stp>+Yield1</stp>
+        <stp>-736385303</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>+Yield2</v>
+        <stp/>
+        <stp>+Yield2</stp>
+        <stp>2013949594</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>+Yield3</v>
+        <stp/>
+        <stp>+Yield3</stp>
+        <stp>-1506803709</stp>
+        <tr r="C25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+Yield4</v>
+        <stp/>
+        <stp>+Yield4</stp>
+        <stp>-735336727</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2eb60609238a4c63b52382c8f9e84e65">
       <tp>
-        <v>164.77855504171526</v>
-        <stp/>
-        <stp>cleans20</stp>
-        <stp/>
-        <tr r="T21" s="1"/>
-      </tp>
-      <tp>
-        <v>105.36382435924965</v>
+        <v>44123</v>
+        <stp/>
+        <stp>Today</stp>
+        <stp/>
+        <tr r="C1" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Fac98</v>
+        <stp/>
+        <stp>-Fac98</stp>
+        <stp>1079574528</stp>
+        <tr r="K99" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac99</v>
+        <stp/>
+        <stp>-Fac99</stp>
+        <stp>1079574528</stp>
+        <tr r="K100" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac94</v>
+        <stp/>
+        <stp>-Fac94</stp>
+        <stp>1079574528</stp>
+        <tr r="K95" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac95</v>
+        <stp/>
+        <stp>-Fac95</stp>
+        <stp>1079574528</stp>
+        <tr r="K96" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac96</v>
+        <stp/>
+        <stp>-Fac96</stp>
+        <stp>1079574528</stp>
+        <tr r="K97" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac97</v>
+        <stp/>
+        <stp>-Fac97</stp>
+        <stp>1079574528</stp>
+        <tr r="K98" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac90</v>
+        <stp/>
+        <stp>-Fac90</stp>
+        <stp>1079574528</stp>
+        <tr r="K91" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac91</v>
+        <stp/>
+        <stp>-Fac91</stp>
+        <stp>1079574528</stp>
+        <tr r="K92" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac92</v>
+        <stp/>
+        <stp>-Fac92</stp>
+        <stp>1079574528</stp>
+        <tr r="K93" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac93</v>
+        <stp/>
+        <stp>-Fac93</stp>
+        <stp>1079574528</stp>
+        <tr r="K94" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac88</v>
+        <stp/>
+        <stp>-Fac88</stp>
+        <stp>1079574528</stp>
+        <tr r="K89" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac89</v>
+        <stp/>
+        <stp>-Fac89</stp>
+        <stp>1079574528</stp>
+        <tr r="K90" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac84</v>
+        <stp/>
+        <stp>-Fac84</stp>
+        <stp>1079574528</stp>
+        <tr r="K85" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac85</v>
+        <stp/>
+        <stp>-Fac85</stp>
+        <stp>1079574528</stp>
+        <tr r="K86" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac86</v>
+        <stp/>
+        <stp>-Fac86</stp>
+        <stp>1079574528</stp>
+        <tr r="K87" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac87</v>
+        <stp/>
+        <stp>-Fac87</stp>
+        <stp>1079574528</stp>
+        <tr r="K88" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac80</v>
+        <stp/>
+        <stp>-Fac80</stp>
+        <stp>1079574528</stp>
+        <tr r="K81" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac81</v>
+        <stp/>
+        <stp>-Fac81</stp>
+        <stp>1079574528</stp>
+        <tr r="K82" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac82</v>
+        <stp/>
+        <stp>-Fac82</stp>
+        <stp>1079574528</stp>
+        <tr r="K83" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac83</v>
+        <stp/>
+        <stp>-Fac83</stp>
+        <stp>1079574528</stp>
+        <tr r="K84" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac78</v>
+        <stp/>
+        <stp>-Fac78</stp>
+        <stp>1079574528</stp>
+        <tr r="K79" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac79</v>
+        <stp/>
+        <stp>-Fac79</stp>
+        <stp>1079574528</stp>
+        <tr r="K80" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac74</v>
+        <stp/>
+        <stp>-Fac74</stp>
+        <stp>1079574528</stp>
+        <tr r="K75" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac75</v>
+        <stp/>
+        <stp>-Fac75</stp>
+        <stp>1079574528</stp>
+        <tr r="K76" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac76</v>
+        <stp/>
+        <stp>-Fac76</stp>
+        <stp>1079574528</stp>
+        <tr r="K77" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac77</v>
+        <stp/>
+        <stp>-Fac77</stp>
+        <stp>1079574528</stp>
+        <tr r="K78" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac70</v>
+        <stp/>
+        <stp>-Fac70</stp>
+        <stp>1079574528</stp>
+        <tr r="K71" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac71</v>
+        <stp/>
+        <stp>-Fac71</stp>
+        <stp>1079574528</stp>
+        <tr r="K72" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac72</v>
+        <stp/>
+        <stp>-Fac72</stp>
+        <stp>1079574528</stp>
+        <tr r="K73" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac73</v>
+        <stp/>
+        <stp>-Fac73</stp>
+        <stp>1079574528</stp>
+        <tr r="K74" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac68</v>
+        <stp/>
+        <stp>-Fac68</stp>
+        <stp>1079574528</stp>
+        <tr r="K69" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac69</v>
+        <stp/>
+        <stp>-Fac69</stp>
+        <stp>1079574528</stp>
+        <tr r="K70" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac64</v>
+        <stp/>
+        <stp>-Fac64</stp>
+        <stp>1079574528</stp>
+        <tr r="K65" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac65</v>
+        <stp/>
+        <stp>-Fac65</stp>
+        <stp>1079574528</stp>
+        <tr r="K66" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac66</v>
+        <stp/>
+        <stp>-Fac66</stp>
+        <stp>1079574528</stp>
+        <tr r="K67" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac67</v>
+        <stp/>
+        <stp>-Fac67</stp>
+        <stp>1079574528</stp>
+        <tr r="K68" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac60</v>
+        <stp/>
+        <stp>-Fac60</stp>
+        <stp>1079574528</stp>
+        <tr r="K61" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac61</v>
+        <stp/>
+        <stp>-Fac61</stp>
+        <stp>1079574528</stp>
+        <tr r="K62" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac62</v>
+        <stp/>
+        <stp>-Fac62</stp>
+        <stp>1079574528</stp>
+        <tr r="K63" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac63</v>
+        <stp/>
+        <stp>-Fac63</stp>
+        <stp>1079574528</stp>
+        <tr r="K64" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac58</v>
+        <stp/>
+        <stp>-Fac58</stp>
+        <stp>1079574528</stp>
+        <tr r="K59" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac59</v>
+        <stp/>
+        <stp>-Fac59</stp>
+        <stp>1079574528</stp>
+        <tr r="K60" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac54</v>
+        <stp/>
+        <stp>-Fac54</stp>
+        <stp>1079574528</stp>
+        <tr r="K55" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac55</v>
+        <stp/>
+        <stp>-Fac55</stp>
+        <stp>1079574528</stp>
+        <tr r="K56" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac56</v>
+        <stp/>
+        <stp>-Fac56</stp>
+        <stp>1079574528</stp>
+        <tr r="K57" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac57</v>
+        <stp/>
+        <stp>-Fac57</stp>
+        <stp>1079574528</stp>
+        <tr r="K58" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac50</v>
+        <stp/>
+        <stp>-Fac50</stp>
+        <stp>1079574528</stp>
+        <tr r="K51" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac51</v>
+        <stp/>
+        <stp>-Fac51</stp>
+        <stp>1079574528</stp>
+        <tr r="K52" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac52</v>
+        <stp/>
+        <stp>-Fac52</stp>
+        <stp>1079574528</stp>
+        <tr r="K53" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac53</v>
+        <stp/>
+        <stp>-Fac53</stp>
+        <stp>1079574528</stp>
+        <tr r="K54" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac48</v>
+        <stp/>
+        <stp>-Fac48</stp>
+        <stp>1079574528</stp>
+        <tr r="K49" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac49</v>
+        <stp/>
+        <stp>-Fac49</stp>
+        <stp>1079574528</stp>
+        <tr r="K50" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac44</v>
+        <stp/>
+        <stp>-Fac44</stp>
+        <stp>1079574528</stp>
+        <tr r="K45" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac45</v>
+        <stp/>
+        <stp>-Fac45</stp>
+        <stp>1079574528</stp>
+        <tr r="K46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac46</v>
+        <stp/>
+        <stp>-Fac46</stp>
+        <stp>1079574528</stp>
+        <tr r="K47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac47</v>
+        <stp/>
+        <stp>-Fac47</stp>
+        <stp>1079574528</stp>
+        <tr r="K48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac40</v>
+        <stp/>
+        <stp>-Fac40</stp>
+        <stp>1079574528</stp>
+        <tr r="K41" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac41</v>
+        <stp/>
+        <stp>-Fac41</stp>
+        <stp>1079574528</stp>
+        <tr r="K42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac42</v>
+        <stp/>
+        <stp>-Fac42</stp>
+        <stp>1079574528</stp>
+        <tr r="K43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac43</v>
+        <stp/>
+        <stp>-Fac43</stp>
+        <stp>1079574528</stp>
+        <tr r="K44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac38</v>
+        <stp/>
+        <stp>-Fac38</stp>
+        <stp>1079574528</stp>
+        <tr r="K39" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac39</v>
+        <stp/>
+        <stp>-Fac39</stp>
+        <stp>1079574528</stp>
+        <tr r="K40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac34</v>
+        <stp/>
+        <stp>-Fac34</stp>
+        <stp>1079574528</stp>
+        <tr r="K35" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac35</v>
+        <stp/>
+        <stp>-Fac35</stp>
+        <stp>1079574528</stp>
+        <tr r="K36" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac36</v>
+        <stp/>
+        <stp>-Fac36</stp>
+        <stp>1079574528</stp>
+        <tr r="K37" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac37</v>
+        <stp/>
+        <stp>-Fac37</stp>
+        <stp>1079574528</stp>
+        <tr r="K38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac30</v>
+        <stp/>
+        <stp>-Fac30</stp>
+        <stp>1079574528</stp>
+        <tr r="K31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac31</v>
+        <stp/>
+        <stp>-Fac31</stp>
+        <stp>1079574528</stp>
+        <tr r="K32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac32</v>
+        <stp/>
+        <stp>-Fac32</stp>
+        <stp>1079574528</stp>
+        <tr r="K33" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac33</v>
+        <stp/>
+        <stp>-Fac33</stp>
+        <stp>1079574528</stp>
+        <tr r="K34" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac28</v>
+        <stp/>
+        <stp>-Fac28</stp>
+        <stp>1079574528</stp>
+        <tr r="K29" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac29</v>
+        <stp/>
+        <stp>-Fac29</stp>
+        <stp>1079574528</stp>
+        <tr r="K30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac24</v>
+        <stp/>
+        <stp>-Fac24</stp>
+        <stp>1079574528</stp>
+        <tr r="K25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac25</v>
+        <stp/>
+        <stp>-Fac25</stp>
+        <stp>1079574528</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac26</v>
+        <stp/>
+        <stp>-Fac26</stp>
+        <stp>1079574528</stp>
+        <tr r="K27" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac27</v>
+        <stp/>
+        <stp>-Fac27</stp>
+        <stp>1079574528</stp>
+        <tr r="K28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac20</v>
+        <stp/>
+        <stp>-Fac20</stp>
+        <stp>1079574528</stp>
+        <tr r="K21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac21</v>
+        <stp/>
+        <stp>-Fac21</stp>
+        <stp>1079574528</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac22</v>
+        <stp/>
+        <stp>-Fac22</stp>
+        <stp>1079574528</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac23</v>
+        <stp/>
+        <stp>-Fac23</stp>
+        <stp>1079574528</stp>
+        <tr r="K24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac18</v>
+        <stp/>
+        <stp>-Fac18</stp>
+        <stp>1079574528</stp>
+        <tr r="K19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac19</v>
+        <stp/>
+        <stp>-Fac19</stp>
+        <stp>1079574528</stp>
+        <tr r="K20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac14</v>
+        <stp/>
+        <stp>-Fac14</stp>
+        <stp>1079574528</stp>
+        <tr r="K15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac15</v>
+        <stp/>
+        <stp>-Fac15</stp>
+        <stp>1079574528</stp>
+        <tr r="K16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac16</v>
+        <stp/>
+        <stp>-Fac16</stp>
+        <stp>1079574528</stp>
+        <tr r="K17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac17</v>
+        <stp/>
+        <stp>-Fac17</stp>
+        <stp>1079574528</stp>
+        <tr r="K18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac10</v>
+        <stp/>
+        <stp>-Fac10</stp>
+        <stp>1079574528</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac11</v>
+        <stp/>
+        <stp>-Fac11</stp>
+        <stp>1079574528</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac12</v>
+        <stp/>
+        <stp>-Fac12</stp>
+        <stp>1079574528</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac13</v>
+        <stp/>
+        <stp>-Fac13</stp>
+        <stp>1079574528</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Bonds9</v>
+        <stp/>
+        <stp>-Bonds9</stp>
+        <stp>1899921825</stp>
+        <tr r="R10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds8</v>
+        <stp/>
+        <stp>-Bonds8</stp>
+        <stp>1899921825</stp>
+        <tr r="R9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds5</v>
+        <stp/>
+        <stp>-Bonds5</stp>
+        <stp>1899921825</stp>
+        <tr r="R6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds4</v>
+        <stp/>
+        <stp>-Bonds4</stp>
+        <stp>1899921825</stp>
+        <tr r="R5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds7</v>
+        <stp/>
+        <stp>-Bonds7</stp>
+        <stp>1899921825</stp>
+        <tr r="R8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds6</v>
+        <stp/>
+        <stp>-Bonds6</stp>
+        <stp>1899921825</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds1</v>
+        <stp/>
+        <stp>-Bonds1</stp>
+        <stp>1899921825</stp>
+        <tr r="R2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds3</v>
+        <stp/>
+        <stp>-Bonds3</stp>
+        <stp>1899921825</stp>
+        <tr r="R4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bonds2</v>
+        <stp/>
+        <stp>-Bonds2</stp>
+        <stp>1899921825</stp>
+        <tr r="R3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Fac108</v>
+        <stp/>
+        <stp>-Fac108</stp>
+        <stp>1079574528</stp>
+        <tr r="K109" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac109</v>
+        <stp/>
+        <stp>-Fac109</stp>
+        <stp>1079574528</stp>
+        <tr r="K110" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac100</v>
+        <stp/>
+        <stp>-Fac100</stp>
+        <stp>1079574528</stp>
+        <tr r="K101" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac101</v>
+        <stp/>
+        <stp>-Fac101</stp>
+        <stp>1079574528</stp>
+        <tr r="K102" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac102</v>
+        <stp/>
+        <stp>-Fac102</stp>
+        <stp>1079574528</stp>
+        <tr r="K103" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac103</v>
+        <stp/>
+        <stp>-Fac103</stp>
+        <stp>1079574528</stp>
+        <tr r="K104" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac104</v>
+        <stp/>
+        <stp>-Fac104</stp>
+        <stp>1079574528</stp>
+        <tr r="K105" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac105</v>
+        <stp/>
+        <stp>-Fac105</stp>
+        <stp>1079574528</stp>
+        <tr r="K106" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac106</v>
+        <stp/>
+        <stp>-Fac106</stp>
+        <stp>1079574528</stp>
+        <tr r="K107" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac107</v>
+        <stp/>
+        <stp>-Fac107</stp>
+        <stp>1079574528</stp>
+        <tr r="K108" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac118</v>
+        <stp/>
+        <stp>-Fac118</stp>
+        <stp>1079574528</stp>
+        <tr r="K119" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac119</v>
+        <stp/>
+        <stp>-Fac119</stp>
+        <stp>1079574528</stp>
+        <tr r="K120" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac110</v>
+        <stp/>
+        <stp>-Fac110</stp>
+        <stp>1079574528</stp>
+        <tr r="K111" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac111</v>
+        <stp/>
+        <stp>-Fac111</stp>
+        <stp>1079574528</stp>
+        <tr r="K112" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac112</v>
+        <stp/>
+        <stp>-Fac112</stp>
+        <stp>1079574528</stp>
+        <tr r="K113" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac113</v>
+        <stp/>
+        <stp>-Fac113</stp>
+        <stp>1079574528</stp>
+        <tr r="K114" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac114</v>
+        <stp/>
+        <stp>-Fac114</stp>
+        <stp>1079574528</stp>
+        <tr r="K115" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac115</v>
+        <stp/>
+        <stp>-Fac115</stp>
+        <stp>1079574528</stp>
+        <tr r="K116" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac116</v>
+        <stp/>
+        <stp>-Fac116</stp>
+        <stp>1079574528</stp>
+        <tr r="K117" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac117</v>
+        <stp/>
+        <stp>-Fac117</stp>
+        <stp>1079574528</stp>
+        <tr r="K118" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac120</v>
+        <stp/>
+        <stp>-Fac120</stp>
+        <stp>1079574528</stp>
+        <tr r="K121" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Mat4FreqA</v>
+        <stp/>
+        <stp>-Mat4FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat5FreqA</v>
+        <stp/>
+        <stp>-Mat5FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat1FreqA</v>
+        <stp/>
+        <stp>-Mat1FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat2FreqA</v>
+        <stp/>
+        <stp>-Mat2FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat3FreqA</v>
+        <stp/>
+        <stp>-Mat3FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Mat5FreqS</v>
+        <stp/>
+        <stp>-Mat5FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat4FreqS</v>
+        <stp/>
+        <stp>-Mat4FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat3FreqS</v>
+        <stp/>
+        <stp>-Mat3FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D45" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat2FreqS</v>
+        <stp/>
+        <stp>-Mat2FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat1FreqS</v>
+        <stp/>
+        <stp>-Mat1FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Mat1</v>
+        <stp/>
+        <stp>-Mat1</stp>
+        <stp>239153936</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>calendar</v>
+        <stp/>
+        <stp>calendar</stp>
+        <stp>0</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Mat5</v>
+        <stp/>
+        <stp>-Mat5</stp>
+        <stp>239092496</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FreqS</v>
+        <stp/>
+        <stp>FreqS</stp>
+        <stp>2</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Mat2</v>
+        <stp/>
+        <stp>-Mat2</stp>
+        <stp>239162128</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Mat3</v>
+        <stp/>
+        <stp>-Mat3</stp>
+        <stp>239182608</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Mat4</v>
+        <stp/>
+        <stp>-Mat4</stp>
+        <stp>239203088</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>priceday</v>
+        <stp/>
+        <stp>priceday</stp>
+        <stp>172668224</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans11</v>
+        <stp/>
+        <stp>cleans11</stp>
+        <stp>-679856311</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans21</v>
         <stp/>
         <stp>cleans21</stp>
-        <stp/>
-        <tr r="T22" s="1"/>
+        <stp>-679856312</stp>
+        <tr r="S22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans31</v>
+        <stp/>
+        <stp>cleans31</stp>
+        <stp>-679856313</stp>
+        <tr r="S32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans61</v>
+        <stp/>
+        <stp>cleans61</stp>
+        <stp>-679856308</stp>
+        <tr r="S62" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans71</v>
+        <stp/>
+        <stp>cleans71</stp>
+        <stp>-679856309</stp>
+        <tr r="S72" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans81</v>
+        <stp/>
+        <stp>cleans81</stp>
+        <stp>-679856302</stp>
+        <tr r="S82" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans91</v>
+        <stp/>
+        <stp>cleans91</stp>
+        <stp>-679856303</stp>
+        <tr r="S92" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans41</v>
+        <stp/>
+        <stp>cleans41</stp>
+        <stp>-679856306</stp>
+        <tr r="S42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans51</v>
+        <stp/>
+        <stp>cleans51</stp>
+        <stp>-679856307</stp>
+        <tr r="S52" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans19</v>
+        <stp/>
+        <stp>cleans19</stp>
+        <stp>-323625951</stp>
+        <tr r="S20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans29</v>
+        <stp/>
+        <stp>cleans29</stp>
+        <stp>-323625952</stp>
+        <tr r="S30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans39</v>
+        <stp/>
+        <stp>cleans39</stp>
+        <stp>-323625953</stp>
+        <tr r="S40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans69</v>
+        <stp/>
+        <stp>cleans69</stp>
+        <stp>-323625948</stp>
+        <tr r="S70" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans79</v>
+        <stp/>
+        <stp>cleans79</stp>
+        <stp>-323625949</stp>
+        <tr r="S80" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans89</v>
+        <stp/>
+        <stp>cleans89</stp>
+        <stp>-323625942</stp>
+        <tr r="S90" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans99</v>
+        <stp/>
+        <stp>cleans99</stp>
+        <stp>-323625943</stp>
+        <tr r="S100" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans49</v>
+        <stp/>
+        <stp>cleans49</stp>
+        <stp>-323625946</stp>
+        <tr r="S50" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans59</v>
+        <stp/>
+        <stp>cleans59</stp>
+        <stp>-323625947</stp>
+        <tr r="S60" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp t="s">
-        <v>#NotValue</v>
-        <stp/>
-        <stp>cleans58</stp>
-        <stp/>
-        <tr r="T59" s="1"/>
-      </tp>
-      <tp>
-        <v>134.81991274658807</v>
-        <stp/>
-        <stp>cleans59</stp>
-        <stp/>
-        <tr r="T60" s="1"/>
-      </tp>
-      <tp>
-        <v>102.34177590394161</v>
-        <stp/>
-        <stp>cleans56</stp>
-        <stp/>
-        <tr r="T57" s="1"/>
-      </tp>
-      <tp>
-        <v>114.53457386345579</v>
-        <stp/>
-        <stp>cleans57</stp>
-        <stp/>
-        <tr r="T58" s="1"/>
-      </tp>
-      <tp>
-        <v>134.81991274658807</v>
-        <stp/>
-        <stp>cleans54</stp>
-        <stp/>
-        <tr r="T55" s="1"/>
-      </tp>
-      <tp>
-        <v>144.37604328202534</v>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans95</v>
+        <stp/>
+        <stp>cleans95</stp>
+        <stp>1289512165</stp>
+        <tr r="S96" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans85</v>
+        <stp/>
+        <stp>cleans85</stp>
+        <stp>1289512166</stp>
+        <tr r="S86" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans55</v>
         <stp/>
         <stp>cleans55</stp>
-        <stp/>
-        <tr r="T56" s="1"/>
-      </tp>
-      <tp>
-        <v>114.53457386345579</v>
-        <stp/>
-        <stp>cleans52</stp>
-        <stp/>
-        <tr r="T53" s="1"/>
+        <stp>1289512161</stp>
+        <tr r="S56" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans45</v>
+        <stp/>
+        <stp>cleans45</stp>
+        <stp>1289512162</stp>
+        <tr r="S46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans65</v>
+        <stp/>
+        <stp>cleans65</stp>
+        <stp>1289512160</stp>
+        <tr r="S66" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>128.80434404024197</v>
-        <stp/>
-        <stp>cleans53</stp>
-        <stp/>
-        <tr r="T54" s="1"/>
-      </tp>
-      <tp>
-        <v>144.37604328202534</v>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans75</v>
+        <stp/>
+        <stp>cleans75</stp>
+        <stp>1289512159</stp>
+        <tr r="S76" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans25</v>
+        <stp/>
+        <stp>cleans25</stp>
+        <stp>1289512156</stp>
+        <tr r="S26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans15</v>
+        <stp/>
+        <stp>cleans15</stp>
+        <stp>1289512157</stp>
+        <tr r="S16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans35</v>
+        <stp/>
+        <stp>cleans35</stp>
+        <stp>1289512155</stp>
+        <tr r="S36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>cleans40</v>
+        <stp/>
+        <stp>cleans40</stp>
+        <stp>2049027049</stp>
+        <tr r="S41" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>cleans50</v>
         <stp/>
         <stp>cleans50</stp>
-        <stp/>
-        <tr r="T51" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans36</v>
-        <stp/>
-        <stp>cleans36</stp>
-        <stp>886227628</stp>
-        <tr r="S37" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans26</v>
-        <stp/>
-        <stp>cleans26</stp>
-        <stp>886227629</stp>
-        <tr r="S27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>102.34177590394161</v>
-        <stp/>
-        <stp>cleans51</stp>
-        <stp/>
-        <tr r="T52" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans96</v>
-        <stp/>
-        <stp>cleans96</stp>
-        <stp>886227638</stp>
-        <tr r="S97" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans86</v>
-        <stp/>
-        <stp>cleans86</stp>
-        <stp>886227639</stp>
-        <tr r="S87" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans56</v>
-        <stp/>
-        <stp>cleans56</stp>
-        <stp>886227634</stp>
-        <tr r="S57" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans46</v>
-        <stp/>
-        <stp>cleans46</stp>
-        <stp>886227635</stp>
-        <tr r="S47" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans76</v>
-        <stp/>
-        <stp>cleans76</stp>
-        <stp>886227632</stp>
-        <tr r="S77" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans66</v>
-        <stp/>
-        <stp>cleans66</stp>
-        <stp>886227633</stp>
-        <tr r="S67" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans16</v>
-        <stp/>
-        <stp>cleans16</stp>
-        <stp>886227630</stp>
-        <tr r="S17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans102</v>
-        <stp/>
-        <stp>cleans102</stp>
-        <stp>66630130</stp>
-        <tr r="S103" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans103</v>
-        <stp/>
-        <stp>cleans103</stp>
-        <stp>66630131</stp>
-        <tr r="S104" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans100</v>
-        <stp/>
-        <stp>cleans100</stp>
-        <stp>66630132</stp>
-        <tr r="S101" s="1"/>
+        <stp>2049027048</stp>
+        <tr r="S51" s="1"/>
       </tp>
       <tp t="s">
         <v>cleans10</v>
@@ -1107,27 +4019,6 @@
         <tr r="S71" s="1"/>
       </tp>
       <tp t="s">
-        <v>cleans40</v>
-        <stp/>
-        <stp>cleans40</stp>
-        <stp>2049027049</stp>
-        <tr r="S41" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans50</v>
-        <stp/>
-        <stp>cleans50</stp>
-        <stp>2049027048</stp>
-        <tr r="S51" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans101</v>
-        <stp/>
-        <stp>cleans101</stp>
-        <stp>66630133</stp>
-        <tr r="S102" s="1"/>
-      </tp>
-      <tp t="s">
         <v>cleans80</v>
         <stp/>
         <stp>cleans80</stp>
@@ -1141,800 +4032,110 @@
         <stp>2049027052</stp>
         <tr r="S91" s="1"/>
       </tp>
-      <tp t="s">
-        <v>cleans106</v>
-        <stp/>
-        <stp>cleans106</stp>
-        <stp>66630134</stp>
-        <tr r="S107" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans107</v>
-        <stp/>
-        <stp>cleans107</stp>
-        <stp>66630135</stp>
-        <tr r="S108" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans104</v>
-        <stp/>
-        <stp>cleans104</stp>
-        <stp>66630136</stp>
-        <tr r="S105" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans105</v>
-        <stp/>
-        <stp>cleans105</stp>
-        <stp>66630137</stp>
-        <tr r="S106" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans109</v>
-        <stp/>
-        <stp>cleans109</stp>
-        <stp>66630141</stp>
-        <tr r="S110" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans108</v>
-        <stp/>
-        <stp>cleans108</stp>
-        <stp>66630140</stp>
-        <tr r="S109" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds99</v>
-        <stp/>
-        <stp>-Bonds99</stp>
-        <stp>218495877</stp>
-        <tr r="R100" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>FlatYield1</v>
+        <stp/>
+        <stp>FlatYield1</stp>
+        <stp>-881546112</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>exCoupon</v>
+        <stp/>
+        <stp>exCoupon</stp>
+        <stp>0</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>-Fac3</v>
+        <stp/>
+        <stp>-Fac3</stp>
+        <stp>1079574528</stp>
+        <tr r="K4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac2</v>
+        <stp/>
+        <stp>-Fac2</stp>
+        <stp>1079574528</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac1</v>
+        <stp/>
+        <stp>-Fac1</stp>
+        <stp>1079574528</stp>
+        <tr r="K2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac7</v>
+        <stp/>
+        <stp>-Fac7</stp>
+        <stp>1079574528</stp>
+        <tr r="K8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac6</v>
+        <stp/>
+        <stp>-Fac6</stp>
+        <stp>1079574528</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac5</v>
+        <stp/>
+        <stp>-Fac5</stp>
+        <stp>1079574528</stp>
+        <tr r="K6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac4</v>
+        <stp/>
+        <stp>-Fac4</stp>
+        <stp>1079574528</stp>
+        <tr r="K5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac9</v>
+        <stp/>
+        <stp>-Fac9</stp>
+        <stp>1079574528</stp>
+        <tr r="K10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Fac8</v>
+        <stp/>
+        <stp>-Fac8</stp>
+        <stp>1079574528</stp>
+        <tr r="K9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+coupons</v>
+        <stp/>
+        <stp>+coupons</stp>
+        <stp>561312938</stp>
+        <tr r="B54" s="1"/>
+      </tp>
       <tp t="s">
         <v>FlatYield4</v>
         <stp/>
         <stp>FlatYield4</stp>
-        <stp>2099363127</stp>
+        <stp>-986836832</stp>
         <tr r="C32" s="1"/>
       </tp>
+      <tp t="s">
+        <v>FreqA</v>
+        <stp/>
+        <stp>FreqA</stp>
+        <stp>1</stp>
+        <tr r="C19" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>128.80434404024197</v>
-        <stp/>
-        <stp>cleans48</stp>
-        <stp/>
-        <tr r="T49" s="1"/>
-      </tp>
-      <tp>
-        <v>134.81991274658807</v>
-        <stp/>
-        <stp>cleans49</stp>
-        <stp/>
-        <tr r="T50" s="1"/>
-      </tp>
-      <tp>
-        <v>102.34177590394161</v>
-        <stp/>
-        <stp>cleans46</stp>
-        <stp/>
-        <tr r="T47" s="1"/>
-      </tp>
-      <tp>
-        <v>114.53457386345579</v>
-        <stp/>
-        <stp>cleans47</stp>
-        <stp/>
-        <tr r="T48" s="1"/>
-      </tp>
-      <tp>
-        <v>139.86718546243964</v>
-        <stp/>
-        <stp>cleans44</stp>
-        <stp/>
-        <tr r="T45" s="1"/>
-      </tp>
-      <tp>
-        <v>149.62035652450953</v>
-        <stp/>
-        <stp>cleans45</stp>
-        <stp/>
-        <tr r="T46" s="1"/>
-      </tp>
-      <tp>
-        <v>116.30606447038527</v>
-        <stp/>
-        <stp>cleans42</stp>
-        <stp/>
-        <tr r="T43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>130.86982220483759</v>
-        <stp/>
-        <stp>cleans43</stp>
-        <stp/>
-        <tr r="T44" s="1"/>
-      </tp>
-      <tp>
-        <v>149.62035652450953</v>
-        <stp/>
-        <stp>cleans40</stp>
-        <stp/>
-        <tr r="T41" s="1"/>
-      </tp>
-      <tp>
-        <v>106.71937283797011</v>
-        <stp/>
-        <stp>cleans41</stp>
-        <stp/>
-        <tr r="T42" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans25</v>
-        <stp/>
-        <stp>cleans25</stp>
-        <stp>1289512156</stp>
-        <tr r="S26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans15</v>
-        <stp/>
-        <stp>cleans15</stp>
-        <stp>1289512157</stp>
-        <tr r="S16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans35</v>
-        <stp/>
-        <stp>cleans35</stp>
-        <stp>1289512155</stp>
-        <tr r="S36" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans75</v>
-        <stp/>
-        <stp>cleans75</stp>
-        <stp>1289512159</stp>
-        <tr r="S76" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans55</v>
-        <stp/>
-        <stp>cleans55</stp>
-        <stp>1289512161</stp>
-        <tr r="S56" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans45</v>
-        <stp/>
-        <stp>cleans45</stp>
-        <stp>1289512162</stp>
-        <tr r="S46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans65</v>
-        <stp/>
-        <stp>cleans65</stp>
-        <stp>1289512160</stp>
-        <tr r="S66" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans95</v>
-        <stp/>
-        <stp>cleans95</stp>
-        <stp>1289512165</stp>
-        <tr r="S96" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans85</v>
-        <stp/>
-        <stp>cleans85</stp>
-        <stp>1289512166</stp>
-        <tr r="S86" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds98</v>
-        <stp/>
-        <stp>-Bonds98</stp>
-        <stp>218495877</stp>
-        <tr r="R99" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>119.22900503359254</v>
-        <stp/>
-        <stp>cleans78</stp>
-        <stp/>
-        <tr r="T79" s="1"/>
-      </tp>
-      <tp>
-        <v>121.17652803410503</v>
-        <stp/>
-        <stp>cleans79</stp>
-        <stp/>
-        <tr r="T80" s="1"/>
-      </tp>
-      <tp>
-        <v>99.407519803242522</v>
-        <stp/>
-        <stp>cleans76</stp>
-        <stp/>
-        <tr r="T77" s="1"/>
-      </tp>
-      <tp>
-        <v>109.55846964946574</v>
-        <stp/>
-        <stp>cleans77</stp>
-        <stp/>
-        <tr r="T78" s="1"/>
-      </tp>
-      <tp>
-        <v>126.28977546877371</v>
-        <stp/>
-        <stp>cleans74</stp>
-        <stp/>
-        <tr r="T75" s="1"/>
-      </tp>
-      <tp>
-        <v>132.35339004110497</v>
-        <stp/>
-        <stp>cleans75</stp>
-        <stp/>
-        <tr r="T76" s="1"/>
-      </tp>
-      <tp>
-        <v>119.215231136257</v>
-        <stp/>
-        <stp>cleans72</stp>
-        <stp/>
-        <tr r="T73" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>121.39768433524412</v>
-        <stp/>
-        <stp>cleans73</stp>
-        <stp/>
-        <tr r="T74" s="1"/>
-      </tp>
-      <tp>
-        <v>132.35339004110497</v>
-        <stp/>
-        <stp>cleans70</stp>
-        <stp/>
-        <tr r="T71" s="1"/>
-      </tp>
-      <tp>
-        <v>103.7534771606085</v>
-        <stp/>
-        <stp>cleans71</stp>
-        <stp/>
-        <tr r="T72" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds38</v>
-        <stp/>
-        <stp>-Bonds38</stp>
-        <stp>173680037</stp>
-        <tr r="R39" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds48</v>
-        <stp/>
-        <stp>-Bonds48</stp>
-        <stp>173680037</stp>
-        <tr r="R49" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds58</v>
-        <stp/>
-        <stp>-Bonds58</stp>
-        <stp>173680037</stp>
-        <tr r="R59" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>121.39768433524412</v>
-        <stp/>
-        <stp>cleans68</stp>
-        <stp/>
-        <tr r="T69" s="1"/>
-      </tp>
-      <tp>
-        <v>127.03365044092054</v>
-        <stp/>
-        <stp>cleans69</stp>
-        <stp/>
-        <tr r="T70" s="1"/>
-      </tp>
-      <tp>
-        <v>103.7534771606085</v>
-        <stp/>
-        <stp>cleans66</stp>
-        <stp/>
-        <tr r="T67" s="1"/>
-      </tp>
-      <tp>
-        <v>111.38673774877807</v>
-        <stp/>
-        <stp>cleans67</stp>
-        <stp/>
-        <tr r="T68" s="1"/>
-      </tp>
-      <tp>
-        <v>126.28977546877371</v>
-        <stp/>
-        <stp>cleans64</stp>
-        <stp/>
-        <tr r="T65" s="1"/>
-      </tp>
-      <tp>
-        <v>132.35339004110497</v>
-        <stp/>
-        <stp>cleans65</stp>
-        <stp/>
-        <tr r="T66" s="1"/>
-      </tp>
-      <tp>
-        <v>111.38673774877807</v>
-        <stp/>
-        <stp>cleans62</stp>
-        <stp/>
-        <tr r="T63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>109.57213064600344</v>
-        <stp/>
-        <stp>cleans63</stp>
-        <stp/>
-        <tr r="T64" s="1"/>
-      </tp>
-      <tp>
-        <v>144.37604328202534</v>
-        <stp/>
-        <stp>cleans60</stp>
-        <stp/>
-        <tr r="T61" s="1"/>
-      </tp>
-      <tp>
-        <v>103.7534771606085</v>
-        <stp/>
-        <stp>cleans61</stp>
-        <stp/>
-        <tr r="T62" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans11</v>
-        <stp/>
-        <stp>cleans11</stp>
-        <stp>-679856311</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans21</v>
-        <stp/>
-        <stp>cleans21</stp>
-        <stp>-679856312</stp>
-        <tr r="S22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans31</v>
-        <stp/>
-        <stp>cleans31</stp>
-        <stp>-679856313</stp>
-        <tr r="S32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans41</v>
-        <stp/>
-        <stp>cleans41</stp>
-        <stp>-679856306</stp>
-        <tr r="S42" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans51</v>
-        <stp/>
-        <stp>cleans51</stp>
-        <stp>-679856307</stp>
-        <tr r="S52" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans61</v>
-        <stp/>
-        <stp>cleans61</stp>
-        <stp>-679856308</stp>
-        <tr r="S62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans71</v>
-        <stp/>
-        <stp>cleans71</stp>
-        <stp>-679856309</stp>
-        <tr r="S72" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans81</v>
-        <stp/>
-        <stp>cleans81</stp>
-        <stp>-679856302</stp>
-        <tr r="S82" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans91</v>
-        <stp/>
-        <stp>cleans91</stp>
-        <stp>-679856303</stp>
-        <tr r="S92" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans19</v>
-        <stp/>
-        <stp>cleans19</stp>
-        <stp>-323625951</stp>
-        <tr r="S20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans29</v>
-        <stp/>
-        <stp>cleans29</stp>
-        <stp>-323625952</stp>
-        <tr r="S30" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans39</v>
-        <stp/>
-        <stp>cleans39</stp>
-        <stp>-323625953</stp>
-        <tr r="S40" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans49</v>
-        <stp/>
-        <stp>cleans49</stp>
-        <stp>-323625946</stp>
-        <tr r="S50" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans59</v>
-        <stp/>
-        <stp>cleans59</stp>
-        <stp>-323625947</stp>
-        <tr r="S60" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans69</v>
-        <stp/>
-        <stp>cleans69</stp>
-        <stp>-323625948</stp>
-        <tr r="S70" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans79</v>
-        <stp/>
-        <stp>cleans79</stp>
-        <stp>-323625949</stp>
-        <tr r="S80" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans89</v>
-        <stp/>
-        <stp>cleans89</stp>
-        <stp>-323625942</stp>
-        <tr r="S90" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans99</v>
-        <stp/>
-        <stp>cleans99</stp>
-        <stp>-323625943</stp>
-        <tr r="S100" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds39</v>
-        <stp/>
-        <stp>-Bonds39</stp>
-        <stp>173680037</stp>
-        <tr r="R40" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds49</v>
-        <stp/>
-        <stp>-Bonds49</stp>
-        <stp>173680037</stp>
-        <tr r="R50" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds59</v>
-        <stp/>
-        <stp>-Bonds59</stp>
-        <stp>173680037</stp>
-        <tr r="R60" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>109.15976670963173</v>
-        <stp/>
-        <stp>cleans98</stp>
-        <stp/>
-        <tr r="T99" s="1"/>
-      </tp>
-      <tp>
-        <v>114.31598719418068</v>
-        <stp/>
-        <stp>cleans99</stp>
-        <stp/>
-        <tr r="T100" s="1"/>
-      </tp>
-      <tp>
-        <v>100.87245491458363</v>
-        <stp/>
-        <stp>cleans96</stp>
-        <stp/>
-        <tr r="T97" s="1"/>
-      </tp>
-      <tp>
-        <v>106.69309638312214</v>
-        <stp/>
-        <stp>cleans97</stp>
-        <stp/>
-        <tr r="T98" s="1"/>
-      </tp>
-      <tp>
-        <v>117.62043415333996</v>
-        <stp/>
-        <stp>cleans94</stp>
-        <stp/>
-        <tr r="T95" s="1"/>
-      </tp>
-      <tp>
-        <v>117.62043415333996</v>
-        <stp/>
-        <stp>cleans95</stp>
-        <stp/>
-        <tr r="T96" s="1"/>
-      </tp>
-      <tp>
-        <v>106.69309638312214</v>
-        <stp/>
-        <stp>cleans92</stp>
-        <stp/>
-        <tr r="T93" s="1"/>
-      </tp>
-      <tp>
-        <v>112.72792757603573</v>
-        <stp/>
-        <stp>cleans93</stp>
-        <stp/>
-        <tr r="T94" s="1"/>
-      </tp>
-      <tp>
-        <v>127.03369560123967</v>
-        <stp/>
-        <stp>cleans90</stp>
-        <stp/>
-        <tr r="T91" s="1"/>
-      </tp>
-      <tp>
-        <v>100.87245491458363</v>
-        <stp/>
-        <stp>cleans91</stp>
-        <stp/>
-        <tr r="T92" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds95</v>
-        <stp/>
-        <stp>-Bonds95</stp>
-        <stp>218495877</stp>
-        <tr r="R96" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds36</v>
-        <stp/>
-        <stp>-Bonds36</stp>
-        <stp>173680037</stp>
-        <tr r="R37" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds46</v>
-        <stp/>
-        <stp>-Bonds46</stp>
-        <stp>173680037</stp>
-        <tr r="R47" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds56</v>
-        <stp/>
-        <stp>-Bonds56</stp>
-        <stp>173680037</stp>
-        <tr r="R57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>119.22900503359254</v>
-        <stp/>
-        <stp>cleans88</stp>
-        <stp/>
-        <tr r="T89" s="1"/>
-      </tp>
-      <tp>
-        <v>121.17652803410503</v>
-        <stp/>
-        <stp>cleans89</stp>
-        <stp/>
-        <tr r="T90" s="1"/>
-      </tp>
-      <tp>
-        <v>99.407519803242522</v>
-        <stp/>
-        <stp>cleans86</stp>
-        <stp/>
-        <tr r="T87" s="1"/>
-      </tp>
-      <tp>
-        <v>109.55846964946574</v>
-        <stp/>
-        <stp>cleans87</stp>
-        <stp/>
-        <tr r="T88" s="1"/>
-      </tp>
-      <tp>
-        <v>121.17652803410503</v>
-        <stp/>
-        <stp>cleans84</stp>
-        <stp/>
-        <tr r="T85" s="1"/>
-      </tp>
-      <tp>
-        <v>127.03369560123967</v>
-        <stp/>
-        <stp>cleans85</stp>
-        <stp/>
-        <tr r="T86" s="1"/>
-      </tp>
-      <tp>
-        <v>109.55846964946574</v>
-        <stp/>
-        <stp>cleans82</stp>
-        <stp/>
-        <tr r="T83" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#NotValue</v>
-        <stp/>
-        <stp>cleans83</stp>
-        <stp/>
-        <tr r="T84" s="1"/>
-      </tp>
-      <tp>
-        <v>109.56942855357532</v>
-        <stp/>
-        <stp>cleans80</stp>
-        <stp/>
-        <tr r="T81" s="1"/>
-      </tp>
-      <tp>
-        <v>99.407519803242522</v>
-        <stp/>
-        <stp>cleans81</stp>
-        <stp/>
-        <tr r="T82" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds94</v>
-        <stp/>
-        <stp>-Bonds94</stp>
-        <stp>218495877</stp>
-        <tr r="R95" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds37</v>
-        <stp/>
-        <stp>-Bonds37</stp>
-        <stp>173680037</stp>
-        <tr r="R38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds47</v>
-        <stp/>
-        <stp>-Bonds47</stp>
-        <stp>173680037</stp>
-        <tr r="R48" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds57</v>
-        <stp/>
-        <stp>-Bonds57</stp>
-        <stp>173680037</stp>
-        <tr r="R58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds97</v>
-        <stp/>
-        <stp>-Bonds97</stp>
-        <stp>218495877</stp>
-        <tr r="R98" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds34</v>
-        <stp/>
-        <stp>-Bonds34</stp>
-        <stp>173680037</stp>
-        <tr r="R35" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds44</v>
-        <stp/>
-        <stp>-Bonds44</stp>
-        <stp>173680037</stp>
-        <tr r="R45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds54</v>
-        <stp/>
-        <stp>-Bonds54</stp>
-        <stp>173680037</stp>
-        <tr r="R55" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds96</v>
-        <stp/>
-        <stp>-Bonds96</stp>
-        <stp>218495877</stp>
-        <tr r="R97" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds35</v>
-        <stp/>
-        <stp>-Bonds35</stp>
-        <stp>173680037</stp>
-        <tr r="R36" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds45</v>
-        <stp/>
-        <stp>-Bonds45</stp>
-        <stp>173680037</stp>
-        <tr r="R46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds55</v>
-        <stp/>
-        <stp>-Bonds55</stp>
-        <stp>173680037</stp>
-        <tr r="R56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
       <tp t="s">
         <v>cleans24</v>
         <stp/>
@@ -1999,496 +4200,43 @@
         <tr r="S85" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds91</v>
-        <stp/>
-        <stp>-Bonds91</stp>
-        <stp>218495877</stp>
-        <tr r="R92" s="1"/>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>clock</v>
+        <stp/>
+        <stp>clock</stp>
+        <stp>44123</stp>
+        <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds32</v>
-        <stp/>
-        <stp>-Bonds32</stp>
-        <stp>173680037</stp>
-        <tr r="R33" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds42</v>
-        <stp/>
-        <stp>-Bonds42</stp>
-        <stp>173680037</stp>
-        <tr r="R43" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds52</v>
-        <stp/>
-        <stp>-Bonds52</stp>
-        <stp>173680037</stp>
-        <tr r="R53" s="1"/>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>dayCount</v>
+        <stp/>
+        <stp>dayCount</stp>
+        <stp>920816757</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans116</v>
-        <stp/>
-        <stp>cleans116</stp>
-        <stp>1632714075</stp>
-        <tr r="S117" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans111</v>
-        <stp/>
-        <stp>cleans111</stp>
-        <stp>1632714074</stp>
-        <tr r="S112" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans114</v>
-        <stp/>
-        <stp>cleans114</stp>
-        <stp>1632714077</stp>
-        <tr r="S115" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans117</v>
-        <stp/>
-        <stp>cleans117</stp>
-        <stp>1632714076</stp>
-        <tr r="S118" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans112</v>
-        <stp/>
-        <stp>cleans112</stp>
-        <stp>1632714071</stp>
-        <tr r="S113" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans110</v>
-        <stp/>
-        <stp>cleans110</stp>
-        <stp>1632714073</stp>
-        <tr r="S111" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans113</v>
-        <stp/>
-        <stp>cleans113</stp>
-        <stp>1632714072</stp>
-        <tr r="S114" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans115</v>
-        <stp/>
-        <stp>cleans115</stp>
-        <stp>1632714078</stp>
-        <tr r="S116" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans118</v>
-        <stp/>
-        <stp>cleans118</stp>
-        <stp>1632714081</stp>
-        <tr r="S119" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans119</v>
-        <stp/>
-        <stp>cleans119</stp>
-        <stp>1632714082</stp>
-        <tr r="S120" s="1"/>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>FlatYield2</v>
+        <stp/>
+        <stp>FlatYield2</stp>
+        <stp>-1059285744</stp>
+        <tr r="C30" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>FlatYield3</v>
-        <stp/>
-        <stp>FlatYield3</stp>
-        <stp>2099362983</stp>
-        <tr r="C31" s="1"/>
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>settlement</v>
+        <stp/>
+        <stp>settlement</stp>
+        <stp>3</stp>
+        <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>FlatYield1</v>
-        <stp/>
-        <stp>FlatYield1</stp>
-        <stp>2099362951</stp>
-        <tr r="C29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FlatYield2</v>
-        <stp/>
-        <stp>FlatYield2</stp>
-        <stp>2099362967</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>112.25381930873441</v>
-        <stp/>
-        <stp>cleans120</stp>
-        <stp/>
-        <tr r="T121" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds33</v>
-        <stp/>
-        <stp>-Bonds33</stp>
-        <stp>173680037</stp>
-        <tr r="R34" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds43</v>
-        <stp/>
-        <stp>-Bonds43</stp>
-        <stp>173680037</stp>
-        <tr r="R44" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds53</v>
-        <stp/>
-        <stp>-Bonds53</stp>
-        <stp>173680037</stp>
-        <tr r="R54" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>FreqA</v>
-        <stp/>
-        <stp>FreqA</stp>
-        <stp>1</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>96.558489977597162</v>
-        <stp/>
-        <stp>cleans111</stp>
-        <stp/>
-        <tr r="T112" s="1"/>
-      </tp>
-      <tp>
-        <v>112.25381930873441</v>
-        <stp/>
-        <stp>cleans110</stp>
-        <stp/>
-        <tr r="T111" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>110.4683837778143</v>
-        <stp/>
-        <stp>cleans113</stp>
-        <stp/>
-        <tr r="T114" s="1"/>
-      </tp>
-      <tp>
-        <v>104.81203020404143</v>
-        <stp/>
-        <stp>cleans112</stp>
-        <stp/>
-        <tr r="T113" s="1"/>
-      </tp>
-      <tp>
-        <v>112.25381930873441</v>
-        <stp/>
-        <stp>cleans115</stp>
-        <stp/>
-        <tr r="T116" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>109.1570646172036</v>
-        <stp/>
-        <stp>cleans114</stp>
-        <stp/>
-        <tr r="T115" s="1"/>
-      </tp>
-      <tp>
-        <v>117.6095204095495</v>
-        <stp/>
-        <stp>cleans117</stp>
-        <stp/>
-        <tr r="T118" s="1"/>
-      </tp>
-      <tp>
-        <v>96.558489977597162</v>
-        <stp/>
-        <stp>cleans116</stp>
-        <stp/>
-        <tr r="T117" s="1"/>
-      </tp>
-      <tp>
-        <v>109.1570646172036</v>
-        <stp/>
-        <stp>cleans119</stp>
-        <stp/>
-        <tr r="T120" s="1"/>
-      </tp>
-      <tp>
-        <v>110.4683837778143</v>
-        <stp/>
-        <stp>cleans118</stp>
-        <stp/>
-        <tr r="T119" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds93</v>
-        <stp/>
-        <stp>-Bonds93</stp>
-        <stp>218495877</stp>
-        <tr r="R94" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds60</v>
-        <stp/>
-        <stp>-Bonds60</stp>
-        <stp>173680037</stp>
-        <tr r="R61" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds40</v>
-        <stp/>
-        <stp>-Bonds40</stp>
-        <stp>173680037</stp>
-        <tr r="R41" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds50</v>
-        <stp/>
-        <stp>-Bonds50</stp>
-        <stp>173680037</stp>
-        <tr r="R51" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>100.87245491458363</v>
-        <stp/>
-        <stp>cleans101</stp>
-        <stp/>
-        <tr r="T102" s="1"/>
-      </tp>
-      <tp>
-        <v>117.62043415333996</v>
-        <stp/>
-        <stp>cleans100</stp>
-        <stp/>
-        <tr r="T101" s="1"/>
-      </tp>
-      <tp>
-        <v>112.72792757603573</v>
-        <stp/>
-        <stp>cleans103</stp>
-        <stp/>
-        <tr r="T104" s="1"/>
-      </tp>
-      <tp>
-        <v>106.69309638312214</v>
-        <stp/>
-        <stp>cleans102</stp>
-        <stp/>
-        <tr r="T103" s="1"/>
-      </tp>
-      <tp>
-        <v>117.62043415333996</v>
-        <stp/>
-        <stp>cleans105</stp>
-        <stp/>
-        <tr r="T106" s="1"/>
-      </tp>
-      <tp>
-        <v>114.31598719418068</v>
-        <stp/>
-        <stp>cleans104</stp>
-        <stp/>
-        <tr r="T105" s="1"/>
-      </tp>
-      <tp>
-        <v>104.81203020404143</v>
-        <stp/>
-        <stp>cleans107</stp>
-        <stp/>
-        <tr r="T108" s="1"/>
-      </tp>
-      <tp>
-        <v>96.558489977597162</v>
-        <stp/>
-        <stp>cleans106</stp>
-        <stp/>
-        <tr r="T107" s="1"/>
-      </tp>
-      <tp>
-        <v>109.1570646172036</v>
-        <stp/>
-        <stp>cleans109</stp>
-        <stp/>
-        <tr r="T110" s="1"/>
-      </tp>
-      <tp>
-        <v>110.4683837778143</v>
-        <stp/>
-        <stp>cleans108</stp>
-        <stp/>
-        <tr r="T109" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds92</v>
-        <stp/>
-        <stp>-Bonds92</stp>
-        <stp>218495877</stp>
-        <tr r="R93" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds31</v>
-        <stp/>
-        <stp>-Bonds31</stp>
-        <stp>173680037</stp>
-        <tr r="R32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds41</v>
-        <stp/>
-        <stp>-Bonds41</stp>
-        <stp>173680037</stp>
-        <tr r="R42" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds51</v>
-        <stp/>
-        <stp>-Bonds51</stp>
-        <stp>173680037</stp>
-        <tr r="R52" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Mat4FreqS</v>
-        <stp/>
-        <stp>-Mat4FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat5FreqS</v>
-        <stp/>
-        <stp>-Mat5FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D47" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat2FreqS</v>
-        <stp/>
-        <stp>-Mat2FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D44" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat3FreqS</v>
-        <stp/>
-        <stp>-Mat3FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat1FreqS</v>
-        <stp/>
-        <stp>-Mat1FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>FreqS</v>
-        <stp/>
-        <stp>FreqS</stp>
-        <stp>2</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans32</v>
-        <stp/>
-        <stp>cleans32</stp>
-        <stp>-1083140840</stp>
-        <tr r="S33" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans42</v>
-        <stp/>
-        <stp>cleans42</stp>
-        <stp>-1083140833</stp>
-        <tr r="S43" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans52</v>
-        <stp/>
-        <stp>cleans52</stp>
-        <stp>-1083140834</stp>
-        <tr r="S53" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans62</v>
-        <stp/>
-        <stp>cleans62</stp>
-        <stp>-1083140835</stp>
-        <tr r="S63" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans72</v>
-        <stp/>
-        <stp>cleans72</stp>
-        <stp>-1083140836</stp>
-        <tr r="S73" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans12</v>
-        <stp/>
-        <stp>cleans12</stp>
-        <stp>-1083140838</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans22</v>
-        <stp/>
-        <stp>cleans22</stp>
-        <stp>-1083140839</stp>
-        <tr r="S23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans92</v>
-        <stp/>
-        <stp>cleans92</stp>
-        <stp>-1083140830</stp>
-        <tr r="S93" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans82</v>
-        <stp/>
-        <stp>cleans82</stp>
-        <stp>-1083140829</stp>
-        <tr r="S83" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
       <tp t="s">
         <v>Today</v>
         <stp/>
@@ -2497,1776 +4245,34 @@
         <tr r="B1" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans98</v>
-        <stp/>
-        <stp>cleans98</stp>
-        <stp>-1889709884</stp>
-        <tr r="S99" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans88</v>
-        <stp/>
-        <stp>cleans88</stp>
-        <stp>-1889709883</stp>
-        <tr r="S89" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans18</v>
-        <stp/>
-        <stp>cleans18</stp>
-        <stp>-1889709892</stp>
-        <tr r="S19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans28</v>
-        <stp/>
-        <stp>cleans28</stp>
-        <stp>-1889709893</stp>
-        <tr r="S29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans38</v>
-        <stp/>
-        <stp>cleans38</stp>
-        <stp>-1889709894</stp>
-        <tr r="S39" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans58</v>
-        <stp/>
-        <stp>cleans58</stp>
-        <stp>-1889709888</stp>
-        <tr r="S59" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans48</v>
-        <stp/>
-        <stp>cleans48</stp>
-        <stp>-1889709887</stp>
-        <tr r="S49" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans78</v>
-        <stp/>
-        <stp>cleans78</stp>
-        <stp>-1889709890</stp>
-        <tr r="S79" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans68</v>
-        <stp/>
-        <stp>cleans68</stp>
-        <stp>-1889709889</stp>
-        <tr r="S69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
+    <main first="rtdsrv.485f1a2b039e47b69dc67f8d7e9c6fa5">
+      <tp t="s">
+        <v>EngineFlatYield2</v>
+        <stp/>
+        <stp>EngineFlatYield2</stp>
+        <stp>1487502897</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>EngineFlatYield3</v>
+        <stp/>
+        <stp>EngineFlatYield3</stp>
+        <stp>1487502897</stp>
+        <tr r="C37" s="1"/>
+      </tp>
       <tp t="s">
         <v>EngineFlatYield1</v>
         <stp/>
         <stp>EngineFlatYield1</stp>
-        <stp>-263561615</stp>
+        <stp>1487502897</stp>
         <tr r="C35" s="1"/>
       </tp>
       <tp t="s">
-        <v>EngineFlatYield2</v>
-        <stp/>
-        <stp>EngineFlatYield2</stp>
-        <stp>-976022335</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans27</v>
-        <stp/>
-        <stp>cleans27</stp>
-        <stp>-1842655726</stp>
-        <tr r="S28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans37</v>
-        <stp/>
-        <stp>cleans37</stp>
-        <stp>-1842655727</stp>
-        <tr r="S38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans17</v>
-        <stp/>
-        <stp>cleans17</stp>
-        <stp>-1842655725</stp>
-        <tr r="S18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans67</v>
-        <stp/>
-        <stp>cleans67</stp>
-        <stp>-1842655722</stp>
-        <tr r="S68" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans77</v>
-        <stp/>
-        <stp>cleans77</stp>
-        <stp>-1842655723</stp>
-        <tr r="S78" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans47</v>
-        <stp/>
-        <stp>cleans47</stp>
-        <stp>-1842655720</stp>
-        <tr r="S48" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans57</v>
-        <stp/>
-        <stp>cleans57</stp>
-        <stp>-1842655721</stp>
-        <tr r="S58" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans97</v>
-        <stp/>
-        <stp>cleans97</stp>
-        <stp>-1842655717</stp>
-        <tr r="S98" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans87</v>
-        <stp/>
-        <stp>cleans87</stp>
-        <stp>-1842655716</stp>
-        <tr r="S88" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>EngineFlatYield3</v>
-        <stp/>
-        <stp>EngineFlatYield3</stp>
-        <stp>-1688483055</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
         <v>EngineFlatYield4</v>
         <stp/>
         <stp>EngineFlatYield4</stp>
-        <stp>1894023521</stp>
+        <stp>1487502897</stp>
         <tr r="C38" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>+Yield4</v>
-        <stp/>
-        <stp>+Yield4</stp>
-        <stp>-735336727</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>44115</v>
-        <stp/>
-        <stp>Today</stp>
-        <stp/>
-        <tr r="C1" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>+Yield2</v>
-        <stp/>
-        <stp>+Yield2</stp>
-        <stp>2013949594</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>+Yield1</v>
-        <stp/>
-        <stp>+Yield1</stp>
-        <stp>-736385303</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Fac120</v>
-        <stp/>
-        <stp>-Fac120</stp>
-        <stp>1079574528</stp>
-        <tr r="K121" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac100</v>
-        <stp/>
-        <stp>-Fac100</stp>
-        <stp>1079574528</stp>
-        <tr r="K101" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac101</v>
-        <stp/>
-        <stp>-Fac101</stp>
-        <stp>1079574528</stp>
-        <tr r="K102" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac102</v>
-        <stp/>
-        <stp>-Fac102</stp>
-        <stp>1079574528</stp>
-        <tr r="K103" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac103</v>
-        <stp/>
-        <stp>-Fac103</stp>
-        <stp>1079574528</stp>
-        <tr r="K104" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac104</v>
-        <stp/>
-        <stp>-Fac104</stp>
-        <stp>1079574528</stp>
-        <tr r="K105" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac105</v>
-        <stp/>
-        <stp>-Fac105</stp>
-        <stp>1079574528</stp>
-        <tr r="K106" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac106</v>
-        <stp/>
-        <stp>-Fac106</stp>
-        <stp>1079574528</stp>
-        <tr r="K107" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac107</v>
-        <stp/>
-        <stp>-Fac107</stp>
-        <stp>1079574528</stp>
-        <tr r="K108" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac108</v>
-        <stp/>
-        <stp>-Fac108</stp>
-        <stp>1079574528</stp>
-        <tr r="K109" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac109</v>
-        <stp/>
-        <stp>-Fac109</stp>
-        <stp>1079574528</stp>
-        <tr r="K110" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac110</v>
-        <stp/>
-        <stp>-Fac110</stp>
-        <stp>1079574528</stp>
-        <tr r="K111" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac111</v>
-        <stp/>
-        <stp>-Fac111</stp>
-        <stp>1079574528</stp>
-        <tr r="K112" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac112</v>
-        <stp/>
-        <stp>-Fac112</stp>
-        <stp>1079574528</stp>
-        <tr r="K113" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac113</v>
-        <stp/>
-        <stp>-Fac113</stp>
-        <stp>1079574528</stp>
-        <tr r="K114" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac114</v>
-        <stp/>
-        <stp>-Fac114</stp>
-        <stp>1079574528</stp>
-        <tr r="K115" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac115</v>
-        <stp/>
-        <stp>-Fac115</stp>
-        <stp>1079574528</stp>
-        <tr r="K116" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac116</v>
-        <stp/>
-        <stp>-Fac116</stp>
-        <stp>1079574528</stp>
-        <tr r="K117" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac117</v>
-        <stp/>
-        <stp>-Fac117</stp>
-        <stp>1079574528</stp>
-        <tr r="K118" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac118</v>
-        <stp/>
-        <stp>-Fac118</stp>
-        <stp>1079574528</stp>
-        <tr r="K119" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac119</v>
-        <stp/>
-        <stp>-Fac119</stp>
-        <stp>1079574528</stp>
-        <tr r="K120" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Mat5</v>
-        <stp/>
-        <stp>-Mat5</stp>
-        <stp>-1245428976</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Mat3</v>
-        <stp/>
-        <stp>-Mat3</stp>
-        <stp>-1245338864</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>calendar</v>
-        <stp/>
-        <stp>calendar</stp>
-        <stp>0</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Mat4</v>
-        <stp/>
-        <stp>-Mat4</stp>
-        <stp>-1245318384</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat2</v>
-        <stp/>
-        <stp>-Mat2</stp>
-        <stp>-1245359344</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>priceday</v>
-        <stp/>
-        <stp>priceday</stp>
-        <stp>172668224</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds90</v>
-        <stp/>
-        <stp>-Bonds90</stp>
-        <stp>-791581579</stp>
-        <tr r="R91" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds85</v>
-        <stp/>
-        <stp>-Bonds85</stp>
-        <stp>-791581579</stp>
-        <tr r="R86" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds84</v>
-        <stp/>
-        <stp>-Bonds84</stp>
-        <stp>-791581579</stp>
-        <tr r="R85" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds87</v>
-        <stp/>
-        <stp>-Bonds87</stp>
-        <stp>-791581579</stp>
-        <tr r="R88" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds86</v>
-        <stp/>
-        <stp>-Bonds86</stp>
-        <stp>-791581579</stp>
-        <tr r="R87" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds81</v>
-        <stp/>
-        <stp>-Bonds81</stp>
-        <stp>-791581579</stp>
-        <tr r="R82" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds80</v>
-        <stp/>
-        <stp>-Bonds80</stp>
-        <stp>-791581579</stp>
-        <tr r="R81" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds83</v>
-        <stp/>
-        <stp>-Bonds83</stp>
-        <stp>-791581579</stp>
-        <tr r="R84" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds82</v>
-        <stp/>
-        <stp>-Bonds82</stp>
-        <stp>-791581579</stp>
-        <tr r="R83" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds89</v>
-        <stp/>
-        <stp>-Bonds89</stp>
-        <stp>-791581579</stp>
-        <tr r="R90" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds88</v>
-        <stp/>
-        <stp>-Bonds88</stp>
-        <stp>-791581579</stp>
-        <tr r="R89" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds75</v>
-        <stp/>
-        <stp>-Bonds75</stp>
-        <stp>-791581579</stp>
-        <tr r="R76" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds74</v>
-        <stp/>
-        <stp>-Bonds74</stp>
-        <stp>-791581579</stp>
-        <tr r="R75" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds77</v>
-        <stp/>
-        <stp>-Bonds77</stp>
-        <stp>-791581579</stp>
-        <tr r="R78" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds76</v>
-        <stp/>
-        <stp>-Bonds76</stp>
-        <stp>-791581579</stp>
-        <tr r="R77" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds71</v>
-        <stp/>
-        <stp>-Bonds71</stp>
-        <stp>-791581579</stp>
-        <tr r="R72" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds70</v>
-        <stp/>
-        <stp>-Bonds70</stp>
-        <stp>-791581579</stp>
-        <tr r="R71" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds73</v>
-        <stp/>
-        <stp>-Bonds73</stp>
-        <stp>-791581579</stp>
-        <tr r="R74" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds72</v>
-        <stp/>
-        <stp>-Bonds72</stp>
-        <stp>-791581579</stp>
-        <tr r="R73" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds79</v>
-        <stp/>
-        <stp>-Bonds79</stp>
-        <stp>-791581579</stp>
-        <tr r="R80" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds78</v>
-        <stp/>
-        <stp>-Bonds78</stp>
-        <stp>-791581579</stp>
-        <tr r="R79" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds65</v>
-        <stp/>
-        <stp>-Bonds65</stp>
-        <stp>-791581579</stp>
-        <tr r="R66" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds64</v>
-        <stp/>
-        <stp>-Bonds64</stp>
-        <stp>-791581579</stp>
-        <tr r="R65" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds67</v>
-        <stp/>
-        <stp>-Bonds67</stp>
-        <stp>-791581579</stp>
-        <tr r="R68" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds66</v>
-        <stp/>
-        <stp>-Bonds66</stp>
-        <stp>-791581579</stp>
-        <tr r="R67" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds61</v>
-        <stp/>
-        <stp>-Bonds61</stp>
-        <stp>-791581579</stp>
-        <tr r="R62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds63</v>
-        <stp/>
-        <stp>-Bonds63</stp>
-        <stp>-791581579</stp>
-        <tr r="R64" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds62</v>
-        <stp/>
-        <stp>-Bonds62</stp>
-        <stp>-791581579</stp>
-        <tr r="R63" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds69</v>
-        <stp/>
-        <stp>-Bonds69</stp>
-        <stp>-791581579</stp>
-        <tr r="R70" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds68</v>
-        <stp/>
-        <stp>-Bonds68</stp>
-        <stp>-791581579</stp>
-        <tr r="R69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Mat1</v>
-        <stp/>
-        <stp>-Mat1</stp>
-        <stp>-1245367536</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans5</v>
-        <stp/>
-        <stp>cleans5</stp>
-        <stp>-62750056</stp>
-        <tr r="S6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans4</v>
-        <stp/>
-        <stp>cleans4</stp>
-        <stp>-62750055</stp>
-        <tr r="S5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>exCoupon</v>
-        <stp/>
-        <stp>exCoupon</stp>
-        <stp>0</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans7</v>
-        <stp/>
-        <stp>cleans7</stp>
-        <stp>-62750058</stp>
-        <tr r="S8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans6</v>
-        <stp/>
-        <stp>cleans6</stp>
-        <stp>-62750057</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans1</v>
-        <stp/>
-        <stp>cleans1</stp>
-        <stp>-62750060</stp>
-        <tr r="S2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans3</v>
-        <stp/>
-        <stp>cleans3</stp>
-        <stp>-62750062</stp>
-        <tr r="S4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans2</v>
-        <stp/>
-        <stp>cleans2</stp>
-        <stp>-62750061</stp>
-        <tr r="S3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b82c4d2858214594827095bd5242c3d6">
-      <tp>
-        <v>932.51358485095056</v>
-        <stp/>
-        <stp>cleans1</stp>
-        <stp/>
-        <tr r="T2" s="1"/>
-      </tp>
-      <tp>
-        <v>141.22331267247253</v>
-        <stp/>
-        <stp>cleans3</stp>
-        <stp/>
-        <tr r="T4" s="1"/>
-      </tp>
-      <tp>
-        <v>121.46226191589805</v>
-        <stp/>
-        <stp>cleans2</stp>
-        <stp/>
-        <tr r="T3" s="1"/>
-      </tp>
-      <tp>
-        <v>169.91234731522431</v>
-        <stp/>
-        <stp>cleans5</stp>
-        <stp/>
-        <tr r="T6" s="1"/>
-      </tp>
-      <tp>
-        <v>155.2831769293976</v>
-        <stp/>
-        <stp>cleans4</stp>
-        <stp/>
-        <tr r="T5" s="1"/>
-      </tp>
-      <tp>
-        <v>121.46226191589805</v>
-        <stp/>
-        <stp>cleans7</stp>
-        <stp/>
-        <tr r="T8" s="1"/>
-      </tp>
-      <tp>
-        <v>109.77267549438112</v>
-        <stp/>
-        <stp>cleans6</stp>
-        <stp/>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp>
-        <v>155.2831769293976</v>
-        <stp/>
-        <stp>cleans9</stp>
-        <stp/>
-        <tr r="T10" s="1"/>
-      </tp>
-      <tp>
-        <v>141.22331267247253</v>
-        <stp/>
-        <stp>cleans8</stp>
-        <stp/>
-        <tr r="T9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Fac4</v>
-        <stp/>
-        <stp>-Fac4</stp>
-        <stp>1079574528</stp>
-        <tr r="K5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac5</v>
-        <stp/>
-        <stp>-Fac5</stp>
-        <stp>1079574528</stp>
-        <tr r="K6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac6</v>
-        <stp/>
-        <stp>-Fac6</stp>
-        <stp>1079574528</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac7</v>
-        <stp/>
-        <stp>-Fac7</stp>
-        <stp>1079574528</stp>
-        <tr r="K8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac2</v>
-        <stp/>
-        <stp>-Fac2</stp>
-        <stp>1079574528</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac3</v>
-        <stp/>
-        <stp>-Fac3</stp>
-        <stp>1079574528</stp>
-        <tr r="K4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac8</v>
-        <stp/>
-        <stp>-Fac8</stp>
-        <stp>1079574528</stp>
-        <tr r="K9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac9</v>
-        <stp/>
-        <stp>-Fac9</stp>
-        <stp>1079574528</stp>
-        <tr r="K10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>cleans9</v>
-        <stp/>
-        <stp>cleans9</stp>
-        <stp>-62750052</stp>
-        <tr r="S10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Fac1</v>
-        <stp/>
-        <stp>-Fac1</stp>
-        <stp>1083129856</stp>
-        <tr r="K2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>cleans8</v>
-        <stp/>
-        <stp>cleans8</stp>
-        <stp>-62750051</stp>
-        <tr r="S9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>+coupons</v>
-        <stp/>
-        <stp>+coupons</stp>
-        <stp>561312938</stp>
-        <tr r="B54" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>+Yield3</v>
-        <stp/>
-        <stp>+Yield3</stp>
-        <stp>-1506803709</stp>
-        <tr r="C25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>dayCount</v>
-        <stp/>
-        <stp>dayCount</stp>
-        <stp>920816757</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Fac88</v>
-        <stp/>
-        <stp>-Fac88</stp>
-        <stp>1079574528</stp>
-        <tr r="K89" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac89</v>
-        <stp/>
-        <stp>-Fac89</stp>
-        <stp>1079574528</stp>
-        <tr r="K90" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac86</v>
-        <stp/>
-        <stp>-Fac86</stp>
-        <stp>1079574528</stp>
-        <tr r="K87" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac87</v>
-        <stp/>
-        <stp>-Fac87</stp>
-        <stp>1079574528</stp>
-        <tr r="K88" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac84</v>
-        <stp/>
-        <stp>-Fac84</stp>
-        <stp>1079574528</stp>
-        <tr r="K85" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac85</v>
-        <stp/>
-        <stp>-Fac85</stp>
-        <stp>1079574528</stp>
-        <tr r="K86" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac82</v>
-        <stp/>
-        <stp>-Fac82</stp>
-        <stp>1079574528</stp>
-        <tr r="K83" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac83</v>
-        <stp/>
-        <stp>-Fac83</stp>
-        <stp>1079574528</stp>
-        <tr r="K84" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac80</v>
-        <stp/>
-        <stp>-Fac80</stp>
-        <stp>1079574528</stp>
-        <tr r="K81" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac81</v>
-        <stp/>
-        <stp>-Fac81</stp>
-        <stp>1079574528</stp>
-        <tr r="K82" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac98</v>
-        <stp/>
-        <stp>-Fac98</stp>
-        <stp>1079574528</stp>
-        <tr r="K99" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac99</v>
-        <stp/>
-        <stp>-Fac99</stp>
-        <stp>1079574528</stp>
-        <tr r="K100" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac96</v>
-        <stp/>
-        <stp>-Fac96</stp>
-        <stp>1079574528</stp>
-        <tr r="K97" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac97</v>
-        <stp/>
-        <stp>-Fac97</stp>
-        <stp>1079574528</stp>
-        <tr r="K98" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac94</v>
-        <stp/>
-        <stp>-Fac94</stp>
-        <stp>1079574528</stp>
-        <tr r="K95" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac95</v>
-        <stp/>
-        <stp>-Fac95</stp>
-        <stp>1079574528</stp>
-        <tr r="K96" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac92</v>
-        <stp/>
-        <stp>-Fac92</stp>
-        <stp>1079574528</stp>
-        <tr r="K93" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac93</v>
-        <stp/>
-        <stp>-Fac93</stp>
-        <stp>1079574528</stp>
-        <tr r="K94" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac90</v>
-        <stp/>
-        <stp>-Fac90</stp>
-        <stp>1079574528</stp>
-        <tr r="K91" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac91</v>
-        <stp/>
-        <stp>-Fac91</stp>
-        <stp>1079574528</stp>
-        <tr r="K92" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac18</v>
-        <stp/>
-        <stp>-Fac18</stp>
-        <stp>1079574528</stp>
-        <tr r="K19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac19</v>
-        <stp/>
-        <stp>-Fac19</stp>
-        <stp>1079574528</stp>
-        <tr r="K20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac16</v>
-        <stp/>
-        <stp>-Fac16</stp>
-        <stp>1079574528</stp>
-        <tr r="K17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac17</v>
-        <stp/>
-        <stp>-Fac17</stp>
-        <stp>1079574528</stp>
-        <tr r="K18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac14</v>
-        <stp/>
-        <stp>-Fac14</stp>
-        <stp>1079574528</stp>
-        <tr r="K15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac15</v>
-        <stp/>
-        <stp>-Fac15</stp>
-        <stp>1079574528</stp>
-        <tr r="K16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac12</v>
-        <stp/>
-        <stp>-Fac12</stp>
-        <stp>1079574528</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac13</v>
-        <stp/>
-        <stp>-Fac13</stp>
-        <stp>1079574528</stp>
-        <tr r="K14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac10</v>
-        <stp/>
-        <stp>-Fac10</stp>
-        <stp>1079574528</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac11</v>
-        <stp/>
-        <stp>-Fac11</stp>
-        <stp>1079574528</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac28</v>
-        <stp/>
-        <stp>-Fac28</stp>
-        <stp>1079574528</stp>
-        <tr r="K29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac29</v>
-        <stp/>
-        <stp>-Fac29</stp>
-        <stp>1079574528</stp>
-        <tr r="K30" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac26</v>
-        <stp/>
-        <stp>-Fac26</stp>
-        <stp>1079574528</stp>
-        <tr r="K27" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac27</v>
-        <stp/>
-        <stp>-Fac27</stp>
-        <stp>1079574528</stp>
-        <tr r="K28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac24</v>
-        <stp/>
-        <stp>-Fac24</stp>
-        <stp>1079574528</stp>
-        <tr r="K25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac25</v>
-        <stp/>
-        <stp>-Fac25</stp>
-        <stp>1079574528</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac22</v>
-        <stp/>
-        <stp>-Fac22</stp>
-        <stp>1079574528</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac23</v>
-        <stp/>
-        <stp>-Fac23</stp>
-        <stp>1079574528</stp>
-        <tr r="K24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac20</v>
-        <stp/>
-        <stp>-Fac20</stp>
-        <stp>1079574528</stp>
-        <tr r="K21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac21</v>
-        <stp/>
-        <stp>-Fac21</stp>
-        <stp>1079574528</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac38</v>
-        <stp/>
-        <stp>-Fac38</stp>
-        <stp>1079574528</stp>
-        <tr r="K39" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac39</v>
-        <stp/>
-        <stp>-Fac39</stp>
-        <stp>1079574528</stp>
-        <tr r="K40" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac36</v>
-        <stp/>
-        <stp>-Fac36</stp>
-        <stp>1079574528</stp>
-        <tr r="K37" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac37</v>
-        <stp/>
-        <stp>-Fac37</stp>
-        <stp>1079574528</stp>
-        <tr r="K38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac34</v>
-        <stp/>
-        <stp>-Fac34</stp>
-        <stp>1079574528</stp>
-        <tr r="K35" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac35</v>
-        <stp/>
-        <stp>-Fac35</stp>
-        <stp>1079574528</stp>
-        <tr r="K36" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac32</v>
-        <stp/>
-        <stp>-Fac32</stp>
-        <stp>1079574528</stp>
-        <tr r="K33" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac33</v>
-        <stp/>
-        <stp>-Fac33</stp>
-        <stp>1079574528</stp>
-        <tr r="K34" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac30</v>
-        <stp/>
-        <stp>-Fac30</stp>
-        <stp>1079574528</stp>
-        <tr r="K31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac31</v>
-        <stp/>
-        <stp>-Fac31</stp>
-        <stp>1079574528</stp>
-        <tr r="K32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac48</v>
-        <stp/>
-        <stp>-Fac48</stp>
-        <stp>1079574528</stp>
-        <tr r="K49" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac49</v>
-        <stp/>
-        <stp>-Fac49</stp>
-        <stp>1079574528</stp>
-        <tr r="K50" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac46</v>
-        <stp/>
-        <stp>-Fac46</stp>
-        <stp>1079574528</stp>
-        <tr r="K47" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac47</v>
-        <stp/>
-        <stp>-Fac47</stp>
-        <stp>1079574528</stp>
-        <tr r="K48" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac44</v>
-        <stp/>
-        <stp>-Fac44</stp>
-        <stp>1079574528</stp>
-        <tr r="K45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac45</v>
-        <stp/>
-        <stp>-Fac45</stp>
-        <stp>1079574528</stp>
-        <tr r="K46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac42</v>
-        <stp/>
-        <stp>-Fac42</stp>
-        <stp>1079574528</stp>
-        <tr r="K43" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac43</v>
-        <stp/>
-        <stp>-Fac43</stp>
-        <stp>1079574528</stp>
-        <tr r="K44" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac40</v>
-        <stp/>
-        <stp>-Fac40</stp>
-        <stp>1079574528</stp>
-        <tr r="K41" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac41</v>
-        <stp/>
-        <stp>-Fac41</stp>
-        <stp>1079574528</stp>
-        <tr r="K42" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac58</v>
-        <stp/>
-        <stp>-Fac58</stp>
-        <stp>1079574528</stp>
-        <tr r="K59" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac59</v>
-        <stp/>
-        <stp>-Fac59</stp>
-        <stp>1079574528</stp>
-        <tr r="K60" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac56</v>
-        <stp/>
-        <stp>-Fac56</stp>
-        <stp>1079574528</stp>
-        <tr r="K57" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac57</v>
-        <stp/>
-        <stp>-Fac57</stp>
-        <stp>1079574528</stp>
-        <tr r="K58" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac54</v>
-        <stp/>
-        <stp>-Fac54</stp>
-        <stp>1079574528</stp>
-        <tr r="K55" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac55</v>
-        <stp/>
-        <stp>-Fac55</stp>
-        <stp>1079574528</stp>
-        <tr r="K56" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac52</v>
-        <stp/>
-        <stp>-Fac52</stp>
-        <stp>1079574528</stp>
-        <tr r="K53" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac53</v>
-        <stp/>
-        <stp>-Fac53</stp>
-        <stp>1079574528</stp>
-        <tr r="K54" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac50</v>
-        <stp/>
-        <stp>-Fac50</stp>
-        <stp>1079574528</stp>
-        <tr r="K51" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac51</v>
-        <stp/>
-        <stp>-Fac51</stp>
-        <stp>1079574528</stp>
-        <tr r="K52" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac68</v>
-        <stp/>
-        <stp>-Fac68</stp>
-        <stp>1079574528</stp>
-        <tr r="K69" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac69</v>
-        <stp/>
-        <stp>-Fac69</stp>
-        <stp>1079574528</stp>
-        <tr r="K70" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac66</v>
-        <stp/>
-        <stp>-Fac66</stp>
-        <stp>1079574528</stp>
-        <tr r="K67" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac67</v>
-        <stp/>
-        <stp>-Fac67</stp>
-        <stp>1079574528</stp>
-        <tr r="K68" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac64</v>
-        <stp/>
-        <stp>-Fac64</stp>
-        <stp>1079574528</stp>
-        <tr r="K65" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac65</v>
-        <stp/>
-        <stp>-Fac65</stp>
-        <stp>1079574528</stp>
-        <tr r="K66" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac62</v>
-        <stp/>
-        <stp>-Fac62</stp>
-        <stp>1079574528</stp>
-        <tr r="K63" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac63</v>
-        <stp/>
-        <stp>-Fac63</stp>
-        <stp>1079574528</stp>
-        <tr r="K64" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac60</v>
-        <stp/>
-        <stp>-Fac60</stp>
-        <stp>1079574528</stp>
-        <tr r="K61" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac61</v>
-        <stp/>
-        <stp>-Fac61</stp>
-        <stp>1079574528</stp>
-        <tr r="K62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac78</v>
-        <stp/>
-        <stp>-Fac78</stp>
-        <stp>1079574528</stp>
-        <tr r="K79" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac79</v>
-        <stp/>
-        <stp>-Fac79</stp>
-        <stp>1079574528</stp>
-        <tr r="K80" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac76</v>
-        <stp/>
-        <stp>-Fac76</stp>
-        <stp>1079574528</stp>
-        <tr r="K77" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac77</v>
-        <stp/>
-        <stp>-Fac77</stp>
-        <stp>1079574528</stp>
-        <tr r="K78" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac74</v>
-        <stp/>
-        <stp>-Fac74</stp>
-        <stp>1079574528</stp>
-        <tr r="K75" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac75</v>
-        <stp/>
-        <stp>-Fac75</stp>
-        <stp>1079574528</stp>
-        <tr r="K76" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac72</v>
-        <stp/>
-        <stp>-Fac72</stp>
-        <stp>1079574528</stp>
-        <tr r="K73" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac73</v>
-        <stp/>
-        <stp>-Fac73</stp>
-        <stp>1079574528</stp>
-        <tr r="K74" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac70</v>
-        <stp/>
-        <stp>-Fac70</stp>
-        <stp>1079574528</stp>
-        <tr r="K71" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Fac71</v>
-        <stp/>
-        <stp>-Fac71</stp>
-        <stp>1079574528</stp>
-        <tr r="K72" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Mat2FreqA</v>
-        <stp/>
-        <stp>-Mat2FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat3FreqA</v>
-        <stp/>
-        <stp>-Mat3FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat1FreqA</v>
-        <stp/>
-        <stp>-Mat1FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat4FreqA</v>
-        <stp/>
-        <stp>-Mat4FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Mat5FreqA</v>
-        <stp/>
-        <stp>-Mat5FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C47" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds1</v>
-        <stp/>
-        <stp>-Bonds1</stp>
-        <stp>-1912612715</stp>
-        <tr r="R2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds2</v>
-        <stp/>
-        <stp>-Bonds2</stp>
-        <stp>-1912612715</stp>
-        <tr r="R3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds3</v>
-        <stp/>
-        <stp>-Bonds3</stp>
-        <stp>-1912612715</stp>
-        <tr r="R4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds4</v>
-        <stp/>
-        <stp>-Bonds4</stp>
-        <stp>-1912612715</stp>
-        <tr r="R5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds5</v>
-        <stp/>
-        <stp>-Bonds5</stp>
-        <stp>-1912612715</stp>
-        <tr r="R6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds6</v>
-        <stp/>
-        <stp>-Bonds6</stp>
-        <stp>-1912612715</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds7</v>
-        <stp/>
-        <stp>-Bonds7</stp>
-        <stp>-1912612715</stp>
-        <tr r="R8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds8</v>
-        <stp/>
-        <stp>-Bonds8</stp>
-        <stp>-1912612715</stp>
-        <tr r="R9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds9</v>
-        <stp/>
-        <stp>-Bonds9</stp>
-        <stp>-1912612715</stp>
-        <tr r="R10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>settlement</v>
-        <stp/>
-        <stp>settlement</stp>
-        <stp>3</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds103</v>
-        <stp/>
-        <stp>-Bonds103</stp>
-        <stp>218495877</stp>
-        <tr r="R104" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds113</v>
-        <stp/>
-        <stp>-Bonds113</stp>
-        <stp>218495877</stp>
-        <tr r="R114" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds102</v>
-        <stp/>
-        <stp>-Bonds102</stp>
-        <stp>218495877</stp>
-        <tr r="R103" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds112</v>
-        <stp/>
-        <stp>-Bonds112</stp>
-        <stp>218495877</stp>
-        <tr r="R113" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds101</v>
-        <stp/>
-        <stp>-Bonds101</stp>
-        <stp>218495877</stp>
-        <tr r="R102" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds111</v>
-        <stp/>
-        <stp>-Bonds111</stp>
-        <stp>218495877</stp>
-        <tr r="R112" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds100</v>
-        <stp/>
-        <stp>-Bonds100</stp>
-        <stp>218495877</stp>
-        <tr r="R101" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds110</v>
-        <stp/>
-        <stp>-Bonds110</stp>
-        <stp>218495877</stp>
-        <tr r="R111" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds120</v>
-        <stp/>
-        <stp>-Bonds120</stp>
-        <stp>218495877</stp>
-        <tr r="R121" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds107</v>
-        <stp/>
-        <stp>-Bonds107</stp>
-        <stp>218495877</stp>
-        <tr r="R108" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds117</v>
-        <stp/>
-        <stp>-Bonds117</stp>
-        <stp>218495877</stp>
-        <tr r="R118" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds106</v>
-        <stp/>
-        <stp>-Bonds106</stp>
-        <stp>218495877</stp>
-        <tr r="R107" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds116</v>
-        <stp/>
-        <stp>-Bonds116</stp>
-        <stp>218495877</stp>
-        <tr r="R117" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>-Bonds105</v>
-        <stp/>
-        <stp>-Bonds105</stp>
-        <stp>218495877</stp>
-        <tr r="R106" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds115</v>
-        <stp/>
-        <stp>-Bonds115</stp>
-        <stp>218495877</stp>
-        <tr r="R116" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds104</v>
-        <stp/>
-        <stp>-Bonds104</stp>
-        <stp>218495877</stp>
-        <tr r="R105" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds114</v>
-        <stp/>
-        <stp>-Bonds114</stp>
-        <stp>218495877</stp>
-        <tr r="R115" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bf20451d2b474e8383e4365092d54830">
-      <tp t="s">
-        <v>clock</v>
-        <stp/>
-        <stp>clock</stp>
-        <stp>-367521373</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds109</v>
-        <stp/>
-        <stp>-Bonds109</stp>
-        <stp>218495877</stp>
-        <tr r="R110" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds119</v>
-        <stp/>
-        <stp>-Bonds119</stp>
-        <stp>218495877</stp>
-        <tr r="R120" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds108</v>
-        <stp/>
-        <stp>-Bonds108</stp>
-        <stp>218495877</stp>
-        <tr r="R109" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>-Bonds118</v>
-        <stp/>
-        <stp>-Bonds118</stp>
-        <stp>218495877</stp>
-        <tr r="R119" s="1"/>
       </tp>
     </main>
   </volType>
@@ -4673,8 +4679,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4694,7 +4700,7 @@
       </c>
       <c r="C1" s="11">
         <f>+_xll._Value(B1)</f>
-        <v>44115</v>
+        <v>44123</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -4754,7 +4760,7 @@
         <v>0.03</v>
       </c>
       <c r="J2" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>+_xll._Double($K$1&amp;E2,J2)</f>
@@ -4794,7 +4800,7 @@
       </c>
       <c r="T2">
         <f>+_xll._Value(S2)</f>
-        <v>932.51358485095056</v>
+        <v>109.77267549438112</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -4857,9 +4863,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E3,R3)</f>
         <v>cleans2</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="str">
         <f>+_xll._Value(S3)</f>
-        <v>121.46226191589805</v>
+        <v>121.462261915898</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -5182,9 +5188,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E8,R8)</f>
         <v>cleans7</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="str">
         <f>+_xll._Value(S8)</f>
-        <v>121.46226191589805</v>
+        <v>121.462261915898</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -5517,9 +5523,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E13,R13)</f>
         <v>cleans12</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="str">
         <f>+_xll._Value(S13)</f>
-        <v>121.46226191589805</v>
+        <v>121.462261915898</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
@@ -5589,9 +5595,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E14,R14)</f>
         <v>cleans13</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="str">
         <f>+_xll._Value(S14)</f>
-        <v>141.22331267247253</v>
+        <v>141.223312672473</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -5661,9 +5667,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E15,R15)</f>
         <v>cleans14</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="str">
         <f>+_xll._Value(S15)</f>
-        <v>155.2831769293976</v>
+        <v>155.283176929398</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -5794,9 +5800,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E17,R17)</f>
         <v>cleans16</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="str">
         <f>+_xll._Value(S17)</f>
-        <v>105.36382435924965</v>
+        <v>105.36382435925</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
@@ -6006,9 +6012,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E20,R20)</f>
         <v>cleans19</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="str">
         <f>+_xll._Value(S20)</f>
-        <v>105.36382435924965</v>
+        <v>150.325728940982</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -6067,9 +6073,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E21,R21)</f>
         <v>cleans20</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="str">
         <f>+_xll._Value(S21)</f>
-        <v>164.77855504171526</v>
+        <v>164.778555041715</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
@@ -6208,9 +6214,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E23,R23)</f>
         <v>cleans22</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="str">
         <f>+_xll._Value(S23)</f>
-        <v>119.7517520497664</v>
+        <v>119.751752049766</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
@@ -6424,9 +6430,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E26,R26)</f>
         <v>cleans25</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="str">
         <f>+_xll._Value(S26)</f>
-        <v>164.77855504171526</v>
+        <v>164.778555041715</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
@@ -6700,9 +6706,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E30,R30)</f>
         <v>cleans29</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="str">
         <f>+_xll._Value(S30)</f>
-        <v>150.32572894098232</v>
+        <v>150.325728940982</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
@@ -6773,9 +6779,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E31,R31)</f>
         <v>cleans30</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="str">
         <f>+_xll._Value(S31)</f>
-        <v>164.77855504171526</v>
+        <v>164.778555041715</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
@@ -6907,9 +6913,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E33,R33)</f>
         <v>cleans32</v>
       </c>
-      <c r="T33">
+      <c r="T33" t="str">
         <f>+_xll._Value(S33)</f>
-        <v>116.30606447038527</v>
+        <v>116.306064470385</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.35">
@@ -6974,9 +6980,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E34,R34)</f>
         <v>cleans33</v>
       </c>
-      <c r="T34">
+      <c r="T34" t="str">
         <f>+_xll._Value(S34)</f>
-        <v>130.86982220483759</v>
+        <v>130.869822204838</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.35">
@@ -7181,9 +7187,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E37,R37)</f>
         <v>cleans36</v>
       </c>
-      <c r="T37">
+      <c r="T37" t="str">
         <f>+_xll._Value(S37)</f>
-        <v>106.71937283797011</v>
+        <v>106.71937283797</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.35">
@@ -7250,9 +7256,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E38,R38)</f>
         <v>cleans37</v>
       </c>
-      <c r="T38">
+      <c r="T38" t="str">
         <f>+_xll._Value(S38)</f>
-        <v>116.30606447038527</v>
+        <v>116.306064470385</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.35">
@@ -7372,9 +7378,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E40,R40)</f>
         <v>cleans39</v>
       </c>
-      <c r="T40">
+      <c r="T40" t="str">
         <f>+_xll._Value(S40)</f>
-        <v>139.86718546243964</v>
+        <v>139.86718546244</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.35">
@@ -7996,9 +8002,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E49,R49)</f>
         <v>cleans48</v>
       </c>
-      <c r="T49">
+      <c r="T49" t="str">
         <f>+_xll._Value(S49)</f>
-        <v>128.80434404024197</v>
+        <v>128.804344040242</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.35">
@@ -8188,9 +8194,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E52,R52)</f>
         <v>cleans51</v>
       </c>
-      <c r="T52">
+      <c r="T52" t="str">
         <f>+_xll._Value(S52)</f>
-        <v>102.34177590394161</v>
+        <v>102.341775903942</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
@@ -8567,9 +8573,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E58,R58)</f>
         <v>cleans57</v>
       </c>
-      <c r="T58">
+      <c r="T58" t="str">
         <f>+_xll._Value(S58)</f>
-        <v>114.53457386345579</v>
+        <v>114.534573863456</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.35">
@@ -8628,9 +8634,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E59,R59)</f>
         <v>cleans58</v>
       </c>
-      <c r="T59" t="str">
+      <c r="T59">
         <f>+_xll._Value(S59)</f>
-        <v>128.804344040242</v>
+        <v>128.80434404024197</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.35">
@@ -8811,9 +8817,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E62,R62)</f>
         <v>cleans61</v>
       </c>
-      <c r="T62">
+      <c r="T62" t="str">
         <f>+_xll._Value(S62)</f>
-        <v>103.7534771606085</v>
+        <v>103.753477160608</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.35">
@@ -8933,9 +8939,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E64,R64)</f>
         <v>cleans63</v>
       </c>
-      <c r="T64">
+      <c r="T64" t="str">
         <f>+_xll._Value(S64)</f>
-        <v>109.57213064600344</v>
+        <v>121.397684335244</v>
       </c>
     </row>
     <row r="65" spans="5:20" x14ac:dyDescent="0.35">
@@ -8994,9 +9000,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E65,R65)</f>
         <v>cleans64</v>
       </c>
-      <c r="T65">
+      <c r="T65" t="str">
         <f>+_xll._Value(S65)</f>
-        <v>126.28977546877371</v>
+        <v>126.289775468774</v>
       </c>
     </row>
     <row r="66" spans="5:20" x14ac:dyDescent="0.35">
@@ -9177,9 +9183,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E68,R68)</f>
         <v>cleans67</v>
       </c>
-      <c r="T68">
+      <c r="T68" t="str">
         <f>+_xll._Value(S68)</f>
-        <v>111.38673774877807</v>
+        <v>111.386737748778</v>
       </c>
     </row>
     <row r="69" spans="5:20" x14ac:dyDescent="0.35">
@@ -9301,7 +9307,7 @@
       </c>
       <c r="T70">
         <f>+_xll._Value(S70)</f>
-        <v>127.03365044092054</v>
+        <v>126.28977546877371</v>
       </c>
     </row>
     <row r="71" spans="5:20" x14ac:dyDescent="0.35">
@@ -9484,7 +9490,7 @@
       </c>
       <c r="T73">
         <f>+_xll._Value(S73)</f>
-        <v>119.215231136257</v>
+        <v>111.38673774877807</v>
       </c>
     </row>
     <row r="74" spans="5:20" x14ac:dyDescent="0.35">
@@ -9543,9 +9549,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E74,R74)</f>
         <v>cleans73</v>
       </c>
-      <c r="T74">
+      <c r="T74" t="str">
         <f>+_xll._Value(S74)</f>
-        <v>121.39768433524412</v>
+        <v>121.397684335244</v>
       </c>
     </row>
     <row r="75" spans="5:20" x14ac:dyDescent="0.35">
@@ -9726,9 +9732,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E77,R77)</f>
         <v>cleans76</v>
       </c>
-      <c r="T77">
+      <c r="T77" t="str">
         <f>+_xll._Value(S77)</f>
-        <v>99.407519803242522</v>
+        <v>99.4075198032425</v>
       </c>
     </row>
     <row r="78" spans="5:20" x14ac:dyDescent="0.35">
@@ -9848,9 +9854,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E79,R79)</f>
         <v>cleans78</v>
       </c>
-      <c r="T79">
+      <c r="T79" t="str">
         <f>+_xll._Value(S79)</f>
-        <v>119.22900503359254</v>
+        <v>119.229005033593</v>
       </c>
     </row>
     <row r="80" spans="5:20" x14ac:dyDescent="0.35">
@@ -9970,9 +9976,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E81,R81)</f>
         <v>cleans80</v>
       </c>
-      <c r="T81">
+      <c r="T81" t="str">
         <f>+_xll._Value(S81)</f>
-        <v>109.56942855357532</v>
+        <v>127.03369560124</v>
       </c>
     </row>
     <row r="82" spans="5:20" x14ac:dyDescent="0.35">
@@ -10826,7 +10832,7 @@
       </c>
       <c r="T95">
         <f>+_xll._Value(S95)</f>
-        <v>117.62043415333996</v>
+        <v>114.31598719418068</v>
       </c>
     </row>
     <row r="96" spans="5:20" x14ac:dyDescent="0.35">
@@ -11007,9 +11013,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E98,R98)</f>
         <v>cleans97</v>
       </c>
-      <c r="T98">
+      <c r="T98" t="str">
         <f>+_xll._Value(S98)</f>
-        <v>106.69309638312214</v>
+        <v>106.693096383122</v>
       </c>
     </row>
     <row r="99" spans="5:20" x14ac:dyDescent="0.35">
@@ -11068,9 +11074,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E99,R99)</f>
         <v>cleans98</v>
       </c>
-      <c r="T99">
+      <c r="T99" t="str">
         <f>+_xll._Value(S99)</f>
-        <v>109.15976670963173</v>
+        <v>112.727927576036</v>
       </c>
     </row>
     <row r="100" spans="5:20" x14ac:dyDescent="0.35">
@@ -11190,9 +11196,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E101,R101)</f>
         <v>cleans100</v>
       </c>
-      <c r="T101">
+      <c r="T101" t="str">
         <f>+_xll._Value(S101)</f>
-        <v>117.62043415333996</v>
+        <v>117.62043415334</v>
       </c>
     </row>
     <row r="102" spans="5:20" x14ac:dyDescent="0.35">
@@ -11312,9 +11318,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E103,R103)</f>
         <v>cleans102</v>
       </c>
-      <c r="T103">
+      <c r="T103" t="str">
         <f>+_xll._Value(S103)</f>
-        <v>106.69309638312214</v>
+        <v>106.693096383122</v>
       </c>
     </row>
     <row r="104" spans="5:20" x14ac:dyDescent="0.35">
@@ -11373,9 +11379,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E104,R104)</f>
         <v>cleans103</v>
       </c>
-      <c r="T104">
+      <c r="T104" t="str">
         <f>+_xll._Value(S104)</f>
-        <v>112.72792757603573</v>
+        <v>112.727927576036</v>
       </c>
     </row>
     <row r="105" spans="5:20" x14ac:dyDescent="0.35">
@@ -11983,9 +11989,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E114,R114)</f>
         <v>cleans113</v>
       </c>
-      <c r="T114">
+      <c r="T114" t="str">
         <f>+_xll._Value(S114)</f>
-        <v>110.4683837778143</v>
+        <v>110.468383777814</v>
       </c>
     </row>
     <row r="115" spans="5:20" x14ac:dyDescent="0.35">
@@ -12044,9 +12050,9 @@
         <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E115,R115)</f>
         <v>cleans114</v>
       </c>
-      <c r="T115">
+      <c r="T115" t="str">
         <f>+_xll._Value(S115)</f>
-        <v>109.1570646172036</v>
+        <v>109.157064617204</v>
       </c>
     </row>
     <row r="116" spans="5:20" x14ac:dyDescent="0.35">
@@ -12229,7 +12235,7 @@
       </c>
       <c r="T118">
         <f>+_xll._Value(S118)</f>
-        <v>117.6095204095495</v>
+        <v>104.81203020404143</v>
       </c>
     </row>
     <row r="119" spans="5:20" x14ac:dyDescent="0.35">
@@ -12422,7 +12428,7 @@
       <c r="I122" s="10"/>
       <c r="T122">
         <f>SUM(T2:T121)</f>
-        <v>15228.98332659588</v>
+        <v>10245.463653967554</v>
       </c>
     </row>
     <row r="123" spans="5:20" x14ac:dyDescent="0.35">
